--- a/tumlknexpectimax/excel_data/input_data_NY_residential.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_NY_residential.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="825" windowWidth="15105" windowHeight="8625"/>
+    <workbookView xWindow="480" yWindow="885" windowWidth="15105" windowHeight="8565" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -647,7 +647,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1158,11 +1158,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="41881088"/>
-        <c:axId val="41407552"/>
+        <c:axId val="94313472"/>
+        <c:axId val="187655296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41881088"/>
+        <c:axId val="94313472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1191,7 +1191,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41407552"/>
+        <c:crossAx val="187655296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1199,7 +1199,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41407552"/>
+        <c:axId val="187655296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1229,7 +1229,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41881088"/>
+        <c:crossAx val="94313472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1254,7 +1254,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1358,7 +1358,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1377,7 +1377,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1486,46 +1486,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2500</c:v>
+                  <c:v>51114.587309311035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2796.6694829107305</c:v>
+                  <c:v>30429.282118970365</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4029.8134829107303</c:v>
+                  <c:v>66109.823692218881</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4140.6916613108688</c:v>
+                  <c:v>66648.422052537615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28983.984327977538</c:v>
+                  <c:v>8108.705667292159</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20321.801482910731</c:v>
+                  <c:v>8798.3519740095981</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5072.013482910731</c:v>
+                  <c:v>69659.850521829372</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4707.2434829107306</c:v>
+                  <c:v>70126.863400003014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4158.0616613108687</c:v>
+                  <c:v>70620.289169209602</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2503.5913066481435</c:v>
+                  <c:v>51210.227713520049</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4630.323772725561</c:v>
+                  <c:v>67227.8721002112</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28720.945772725561</c:v>
+                  <c:v>12139.814930199653</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4109.2237727255615</c:v>
+                  <c:v>70921.654760442281</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4890.8737727255611</c:v>
+                  <c:v>72488.476920599642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1545,11 +1545,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="52690944"/>
-        <c:axId val="53117504"/>
+        <c:axId val="209073280"/>
+        <c:axId val="209074816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52690944"/>
+        <c:axId val="209073280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +1559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53117504"/>
+        <c:crossAx val="209074816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1567,7 +1567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53117504"/>
+        <c:axId val="209074816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1597,7 +1597,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52690944"/>
+        <c:crossAx val="209073280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1617,7 +1617,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1762,11 +1762,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="52692480"/>
-        <c:axId val="53119232"/>
+        <c:axId val="209087488"/>
+        <c:axId val="209114240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52692480"/>
+        <c:axId val="209087488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1795,7 +1795,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53119232"/>
+        <c:crossAx val="209114240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1803,7 +1803,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53119232"/>
+        <c:axId val="209114240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1833,7 +1833,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52692480"/>
+        <c:crossAx val="209087488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1853,7 +1853,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2375,11 +2375,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="52844544"/>
-        <c:axId val="53120960"/>
+        <c:axId val="211901056"/>
+        <c:axId val="211906944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52844544"/>
+        <c:axId val="211901056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,7 +2389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53120960"/>
+        <c:crossAx val="211906944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2397,7 +2397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53120960"/>
+        <c:axId val="211906944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2408,7 +2408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52844544"/>
+        <c:crossAx val="211901056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2449,7 +2449,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,7 +2485,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2526,7 +2526,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2562,7 +2562,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2603,7 +2603,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2913,8 +2913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:Q15"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2937,7 +2937,7 @@
     <col min="23" max="23" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="W2" s="10"/>
     </row>
-    <row r="3" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>181167.70829107301</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>193499.14829107301</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>152998.0661310869</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>401430.99279775354</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>356419.02829107305</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>203921.14829107304</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>200273.44829107303</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>153171.76613108692</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>171673.03066481429</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>180075.07727255608</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>420981.29727255611</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>174864.07727255608</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
@@ -4189,7 +4189,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>-1481.815837057527</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>-528.92348823411544</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>967.0943495392338</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>3466.7048557043358</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>7749.5964503397781</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>15017.71747020662</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>26989.860446771214</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>45109.772045897487</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>68154.015117732575</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>88325.19269102918</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>94684.10528062754</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>88877.606590680312</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>80916.354837534003</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>73577.702442360562</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>66898.300327300967</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>60822.382070367559</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>55295.68615905453</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>50268.805599140484</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>45701.07248651571</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>41546.429533196089</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -5638,7 +5638,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>-994.38886446740912</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>-85.808058606735557</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>1369.9265582913972</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>3832.9159545699395</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>8082.5156311266901</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>15320.371270921994</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>27265.000265603372</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>45359.899153926723</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>68381.403397759161</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>88531.909309235169</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>94872.029478996614</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>89048.446771015835</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>81071.664092384468</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>73718.892674042814</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>67026.655083375736</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>60939.068212253711</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>55401.764469860129</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>50365.240427145567</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>45788.74051197488</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>41626.127738158968</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -7090,7 +7090,7 @@
     <col min="19" max="19" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>-1406.1283124115794</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>-460.11664764689033</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>1029.6460228003475</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>3523.5700132144393</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>7801.2920480762359</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>15064.713468148853</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>27032.584081264151</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>45148.611713618346</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>68189.323906569727</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>88357.291589972039</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>94713.286097848322</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>88904.134606335574</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>80940.471215402416</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>73599.626422240937</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>66918.231218101311</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>60840.50106200423</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>55312.157969633328</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>50283.779972393932</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>45714.685553109754</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>41558.805048281589</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -8540,7 +8540,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>-1020.7415413371182</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>-437.0377648519256</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>471.45327162221639</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>1981.110787875944</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>4559.8377560705421</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>8928.8849238209477</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>16119.602124150888</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>26998.304914891367</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>40830.992422778523</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>52939.282298380218</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>56759.70560816081</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>53280.42071784845</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>48507.8645056479</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>44108.486559168618</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>40104.312099791743</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>36461.912790776136</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>33148.760375937811</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>30135.236705398009</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>27396.964715467355</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>24906.331559515769</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -9989,7 +9989,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>-2095.3008073992692</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>-1250.2734612720628</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>21.734869917959294</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>2089.7815120967166</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>5578.2386398475028</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>11449.22986668864</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>21078.302803347287</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>35620.92167847282</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>54098.761223054084</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>70274.289724521557</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>75396.498380591322</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>70783.189050807239</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>64443.178213902633</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -10964,7 +10964,7 @@
         <v>58598.611357411573</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>53279.048810498163</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>48440.095245982578</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>44038.539463324109</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>40035.035875749185</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>36397.213804155115</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>33088.376185595553</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -11438,7 +11438,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -11503,7 +11503,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>-11594.247855399268</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -11633,7 +11633,7 @@
         <v>-9722.0435049084244</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -11698,7 +11698,7 @@
         <v>-7390.2874838010466</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>-4130.9149927868266</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>842.66931534781224</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>8738.6928020321066</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -11958,7 +11958,7 @@
         <v>21281.656202976199</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>39920.495460629296</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -12088,7 +12088,7 @@
         <v>63436.49094930695</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>84036.534356096789</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -12218,7 +12218,7 @@
         <v>90785.324976143558</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>85333.260859331232</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>77694.222354489379</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -12413,7 +12413,7 @@
         <v>70648.491094138182</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>64235.380919826079</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -12543,7 +12543,7 @@
         <v>58401.546245390382</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>53094.926318166195</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -12673,7 +12673,7 @@
         <v>48268.114834696535</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>43882.262700657579</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -12803,7 +12803,7 @@
         <v>39892.966091506882</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -12887,7 +12887,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -12952,7 +12952,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>-1589.7435413371186</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>-627.03958303374418</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>877.89789972138954</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -13212,7 +13212,7 @@
         <v>3385.6171740517507</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -13277,7 +13277,7 @@
         <v>7675.8803761101553</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -13342,7 +13342,7 @@
         <v>14950.702857270597</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -13407,7 +13407,7 @@
         <v>26928.938071374829</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>45054.388068264416</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -13537,7 +13537,7 @@
         <v>68103.666047157065</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>88279.420808687806</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -13667,7 +13667,7 @@
         <v>94642.494478499022</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -13732,7 +13732,7 @@
         <v>88839.778588745292</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -13797,7 +13797,7 @@
         <v>80881.965744865796</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>73546.439630844019</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -13927,7 +13927,7 @@
         <v>66869.879589558652</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -13992,7 +13992,7 @@
         <v>60796.545036056363</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>55272.197946044354</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>50247.452678222136</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -14187,7 +14187,7 @@
         <v>45681.660740226303</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>41528.782491114813</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -14336,7 +14336,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -14401,7 +14401,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>-2035.2108073992695</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -14531,7 +14531,7 @@
         <v>-1032.0098249084267</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -14596,7 +14596,7 @@
         <v>509.74313438076899</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -14661,7 +14661,7 @@
         <v>3050.9310237420955</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -14726,7 +14726,7 @@
         <v>7371.6202394650145</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -14791,7 +14791,7 @@
         <v>14674.102733047743</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -14856,7 +14856,7 @@
         <v>26677.483412990416</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -14921,7 +14921,7 @@
         <v>44825.792924278583</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -14986,7 +14986,7 @@
         <v>67895.852279897212</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -15051,7 +15051,7 @@
         <v>88090.499202087944</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -15116,7 +15116,7 @@
         <v>94470.747563408237</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -15181,7 +15181,7 @@
         <v>88683.645029571853</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -15246,7 +15246,7 @@
         <v>80740.026145617216</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -15311,7 +15311,7 @@
         <v>73417.403631527122</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -15376,7 +15376,7 @@
         <v>66752.574135634204</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -15441,7 +15441,7 @@
         <v>60689.903714306864</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -15506,7 +15506,7 @@
         <v>55175.251289908447</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -15571,7 +15571,7 @@
         <v>50159.319354462219</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -15636,7 +15636,7 @@
         <v>45601.539536808195</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>41455.945033461991</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -15803,7 +15803,7 @@
     <col min="15" max="15" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -15850,7 +15850,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -15910,7 +15910,7 @@
         <v>182680.57727255608</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -15961,7 +15961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
@@ -16010,7 +16010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
@@ -16059,7 +16059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
@@ -16106,7 +16106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
@@ -16153,7 +16153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
@@ -16202,7 +16202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
@@ -16250,7 +16250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
@@ -16298,7 +16298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
@@ -16349,7 +16349,7 @@
         <v>11007.546607741795</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>2605.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
@@ -16445,7 +16445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
@@ -16494,7 +16494,7 @@
         <v>7816.5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
@@ -16555,8 +16555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16566,7 +16566,7 @@
     <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -16577,168 +16577,156 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B2">
-        <v>2500</v>
+        <f>AVERAGE(B3:B15)</f>
+        <v>51114.587309311035</v>
       </c>
       <c r="C2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B3">
-        <f>0.1*(CAPEX!T3+CAPEX!U3)+0.01*(CAPEX!R3+CAPEX!S3)</f>
-        <v>2796.6694829107305</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="C3">
         <v>7.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B4">
-        <f>0.1*(CAPEX!T4+CAPEX!U4)+0.01*(CAPEX!R4+CAPEX!S4)</f>
-        <v>4029.8134829107303</v>
+        <v>66109.823692218881</v>
       </c>
       <c r="C4">
         <v>9.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B5">
-        <f>0.1*(CAPEX!T5+CAPEX!U5)+0.01*(CAPEX!R5+CAPEX!S5)</f>
-        <v>4140.6916613108688</v>
+        <v>66648.422052537615</v>
       </c>
       <c r="C5">
         <v>9.6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B6">
-        <f>0.1*(CAPEX!T6+CAPEX!U6)+0.01*(CAPEX!R6+CAPEX!S6)</f>
-        <v>28983.984327977538</v>
+        <v>8108.705667292159</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B7">
-        <f>0.1*(CAPEX!T7+CAPEX!U7)+0.01*(CAPEX!R7+CAPEX!S7)</f>
-        <v>20321.801482910731</v>
+        <v>8798.3519740095981</v>
       </c>
       <c r="C7">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B8">
-        <f>0.1*(CAPEX!T8+CAPEX!U8)+0.01*(CAPEX!R8+CAPEX!S8)</f>
-        <v>5072.013482910731</v>
+        <v>69659.850521829372</v>
       </c>
       <c r="C8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B9">
-        <f>0.1*(CAPEX!T9+CAPEX!U9)+0.01*(CAPEX!R9+CAPEX!S9)</f>
-        <v>4707.2434829107306</v>
+        <v>70126.863400003014</v>
       </c>
       <c r="C9">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B10">
-        <f>0.1*(CAPEX!T10+CAPEX!U10)+0.01*(CAPEX!R10+CAPEX!S10)</f>
-        <v>4158.0616613108687</v>
+        <v>70620.289169209602</v>
       </c>
       <c r="C10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B11">
-        <f>0.1*(CAPEX!T11+CAPEX!U11)+0.01*(CAPEX!R11+CAPEX!S11)</f>
-        <v>2503.5913066481435</v>
+        <v>51210.227713520049</v>
       </c>
       <c r="C11">
         <v>7.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B12">
-        <f>0.1*(CAPEX!T12+CAPEX!U12)+0.01*(CAPEX!R12+CAPEX!S12)</f>
-        <v>4630.323772725561</v>
+        <v>67227.8721002112</v>
       </c>
       <c r="C12">
         <v>9.6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B13">
-        <f>0.1*(CAPEX!T13+CAPEX!U13)+0.01*(CAPEX!R13+CAPEX!S13)</f>
-        <v>28720.945772725561</v>
+        <v>12139.814930199653</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B14">
-        <f>0.1*(CAPEX!T14+CAPEX!U14)+0.01*(CAPEX!R14+CAPEX!S14)</f>
-        <v>4109.2237727255615</v>
+        <v>70921.654760442281</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B15">
-        <f>0.1*(CAPEX!T15+CAPEX!U15)+0.01*(CAPEX!R15+CAPEX!S15)</f>
-        <v>4890.8737727255611</v>
+        <v>72488.476920599642</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -16772,7 +16760,7 @@
     <col min="7" max="7" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -16852,7 +16840,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
@@ -16900,31 +16888,31 @@
       </c>
       <c r="U2">
         <f>OPEX!$B$3</f>
-        <v>2796.6694829107305</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V2">
         <f>O2-U2</f>
-        <v>-1299.0694829107304</v>
+        <v>-28931.682118970366</v>
       </c>
       <c r="W2">
         <f>P2-U2</f>
-        <v>-1299.0694829107304</v>
+        <v>-28931.682118970366</v>
       </c>
       <c r="X2">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-1299.0694829107304</v>
+        <v>-28931.682118970366</v>
       </c>
       <c r="Y2">
         <f>R2-$U2</f>
-        <v>-1450.2694829107304</v>
+        <v>-29082.882118970363</v>
       </c>
       <c r="Z2">
         <f>S2-$U2</f>
-        <v>-1450.2694829107304</v>
+        <v>-29082.882118970363</v>
       </c>
       <c r="AA2">
         <f>T2-$U2</f>
-        <v>-1450.2694829107304</v>
+        <v>-29082.882118970363</v>
       </c>
       <c r="AB2">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -16932,30 +16920,30 @@
       </c>
       <c r="AC2">
         <f>V2*AB2</f>
-        <v>-1299.0694829107304</v>
+        <v>-28931.682118970366</v>
       </c>
       <c r="AD2">
         <f>W2*AB2</f>
-        <v>-1299.0694829107304</v>
+        <v>-28931.682118970366</v>
       </c>
       <c r="AE2">
         <f>X2*AB2</f>
-        <v>-1299.0694829107304</v>
+        <v>-28931.682118970366</v>
       </c>
       <c r="AF2">
         <f>Y2*$AB2</f>
-        <v>-1450.2694829107304</v>
+        <v>-29082.882118970363</v>
       </c>
       <c r="AG2">
         <f>Z2*$AB2</f>
-        <v>-1450.2694829107304</v>
+        <v>-29082.882118970363</v>
       </c>
       <c r="AH2">
         <f>AA2*$AB2</f>
-        <v>-1450.2694829107304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>-29082.882118970363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
@@ -17002,31 +16990,31 @@
       </c>
       <c r="U3">
         <f>OPEX!$B$3</f>
-        <v>2796.6694829107305</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-809.46948291073045</v>
+        <v>-28442.082118970364</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-744.66948291073049</v>
+        <v>-28377.282118970365</v>
       </c>
       <c r="X3">
         <f t="shared" si="1"/>
-        <v>-10.269482910730403</v>
+        <v>-27642.882118970363</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-1011.0694829107304</v>
+        <v>-28643.682118970366</v>
       </c>
       <c r="Z3">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-953.46948291073045</v>
+        <v>-28586.082118970364</v>
       </c>
       <c r="AA3">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-291.06948291073058</v>
+        <v>-27923.682118970366</v>
       </c>
       <c r="AB3">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -17034,30 +17022,30 @@
       </c>
       <c r="AC3">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-735.88134810066401</v>
+        <v>-25856.438289973055</v>
       </c>
       <c r="AD3">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-676.97225719157314</v>
+        <v>-25797.529199063967</v>
       </c>
       <c r="AE3">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-9.3358935552094575</v>
+        <v>-25129.892835427603</v>
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-919.15407537339115</v>
+        <v>-26039.711017245787</v>
       </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-866.79043900975489</v>
+        <v>-25987.347380882147</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-264.60862082793687</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>-25385.165562700331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -17104,31 +17092,31 @@
       </c>
       <c r="U4">
         <f>OPEX!$B$3</f>
-        <v>2796.6694829107305</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V4">
         <f t="shared" si="8"/>
-        <v>-125.46948291073022</v>
+        <v>-27758.082118970364</v>
       </c>
       <c r="W4">
         <f t="shared" si="9"/>
-        <v>54.530517089269779</v>
+        <v>-27578.082118970364</v>
       </c>
       <c r="X4">
         <f t="shared" si="1"/>
-        <v>2524.1305170892697</v>
+        <v>-25108.482118970365</v>
       </c>
       <c r="Y4">
         <f t="shared" si="10"/>
-        <v>-399.06948291073058</v>
+        <v>-28031.682118970366</v>
       </c>
       <c r="Z4">
         <f t="shared" si="11"/>
-        <v>-233.46948291073022</v>
+        <v>-27866.082118970364</v>
       </c>
       <c r="AA4">
         <f t="shared" si="12"/>
-        <v>1991.3305170892695</v>
+        <v>-25641.282118970365</v>
       </c>
       <c r="AB4">
         <f t="shared" si="13"/>
@@ -17136,30 +17124,30 @@
       </c>
       <c r="AC4">
         <f t="shared" si="14"/>
-        <v>-103.6937875295291</v>
+        <v>-22940.56373468625</v>
       </c>
       <c r="AD4">
         <f t="shared" si="15"/>
-        <v>45.066543048983284</v>
+        <v>-22791.803404107737</v>
       </c>
       <c r="AE4">
         <f t="shared" si="16"/>
-        <v>2086.0582785861729</v>
+        <v>-20750.811668570546</v>
       </c>
       <c r="AF4">
         <f t="shared" si="17"/>
-        <v>-329.80949000886824</v>
+        <v>-23166.679437165589</v>
       </c>
       <c r="AG4">
         <f t="shared" si="18"/>
-        <v>-192.94998587663653</v>
+        <v>-23029.819933033355</v>
       </c>
       <c r="AH4">
         <f t="shared" si="19"/>
-        <v>1645.7277000737763</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>-21191.142247082942</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2021</v>
       </c>
@@ -17213,31 +17201,31 @@
       </c>
       <c r="U5">
         <f>OPEX!$B$3</f>
-        <v>2796.6694829107305</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V5">
         <f t="shared" si="8"/>
-        <v>832.13051708926969</v>
+        <v>-26800.482118970365</v>
       </c>
       <c r="W5">
         <f t="shared" si="9"/>
-        <v>1206.5305170892698</v>
+        <v>-26426.082118970364</v>
       </c>
       <c r="X5">
         <f t="shared" si="1"/>
-        <v>7484.9305170892694</v>
+        <v>-20147.682118970362</v>
       </c>
       <c r="Y5">
         <f t="shared" si="10"/>
-        <v>464.93051708926942</v>
+        <v>-27167.682118970366</v>
       </c>
       <c r="Z5">
         <f t="shared" si="11"/>
-        <v>803.33051708926951</v>
+        <v>-26829.282118970365</v>
       </c>
       <c r="AA5">
         <f t="shared" si="12"/>
-        <v>6455.3305170892691</v>
+        <v>-21177.282118970365</v>
       </c>
       <c r="AB5">
         <f t="shared" si="13"/>
@@ -17245,30 +17233,30 @@
       </c>
       <c r="AC5">
         <f t="shared" si="14"/>
-        <v>625.19197377105138</v>
+        <v>-20135.59888728051</v>
       </c>
       <c r="AD5">
         <f t="shared" si="15"/>
-        <v>906.48423522860207</v>
+        <v>-19854.306625822956</v>
       </c>
       <c r="AE5">
         <f t="shared" si="16"/>
-        <v>5623.5390812090664</v>
+        <v>-15137.251779842492</v>
       </c>
       <c r="AF5">
         <f t="shared" si="17"/>
-        <v>349.30917887999192</v>
+        <v>-20411.481682171569</v>
       </c>
       <c r="AG5">
         <f t="shared" si="18"/>
-        <v>603.55410750508588</v>
+        <v>-20157.236753546473</v>
       </c>
       <c r="AH5">
         <f t="shared" si="19"/>
-        <v>4849.9853622008013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>-15910.805498850757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2022</v>
       </c>
@@ -17322,31 +17310,31 @@
       </c>
       <c r="U6">
         <f>OPEX!$B$3</f>
-        <v>2796.6694829107305</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V6">
         <f t="shared" si="8"/>
-        <v>2149.7305170892701</v>
+        <v>-25482.882118970363</v>
       </c>
       <c r="W6">
         <f t="shared" si="9"/>
-        <v>2848.1305170892697</v>
+        <v>-24784.482118970365</v>
       </c>
       <c r="X6">
         <f t="shared" si="1"/>
-        <v>17154.530517089272</v>
+        <v>-10478.082118970364</v>
       </c>
       <c r="Y6">
         <f t="shared" si="10"/>
-        <v>1652.9305170892699</v>
+        <v>-25979.682118970362</v>
       </c>
       <c r="Z6">
         <f t="shared" si="11"/>
-        <v>2279.3305170892695</v>
+        <v>-25353.282118970365</v>
       </c>
       <c r="AA6">
         <f t="shared" si="12"/>
-        <v>15152.930517089271</v>
+        <v>-12479.682118970362</v>
       </c>
       <c r="AB6">
         <f t="shared" si="13"/>
@@ -17354,30 +17342,30 @@
       </c>
       <c r="AC6">
         <f t="shared" si="14"/>
-        <v>1468.2948685808822</v>
+        <v>-17405.151368738716</v>
       </c>
       <c r="AD6">
         <f t="shared" si="15"/>
-        <v>1945.3114658078471</v>
+        <v>-16928.134771511755</v>
       </c>
       <c r="AE6">
         <f t="shared" si="16"/>
-        <v>11716.775163642693</v>
+        <v>-7156.6710736769082</v>
       </c>
       <c r="AF6">
         <f t="shared" si="17"/>
-        <v>1128.973783955515</v>
+        <v>-17744.472453364084</v>
       </c>
       <c r="AG6">
         <f t="shared" si="18"/>
-        <v>1556.813412396195</v>
+        <v>-17316.632824923407</v>
       </c>
       <c r="AH6">
         <f t="shared" si="19"/>
-        <v>10349.655431383968</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>-8523.7908059356323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2023</v>
       </c>
@@ -17431,31 +17419,31 @@
       </c>
       <c r="U7">
         <f>OPEX!$B$3</f>
-        <v>2796.6694829107305</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V7">
         <f t="shared" si="8"/>
-        <v>3956.9305170892699</v>
+        <v>-23675.682118970362</v>
       </c>
       <c r="W7">
         <f t="shared" si="9"/>
-        <v>5188.1305170892701</v>
+        <v>-22444.482118970365</v>
       </c>
       <c r="X7">
         <f t="shared" si="1"/>
-        <v>35636.930517089269</v>
+        <v>8004.317881029634</v>
       </c>
       <c r="Y7">
         <f t="shared" si="10"/>
-        <v>3280.1305170892697</v>
+        <v>-24352.482118970365</v>
       </c>
       <c r="Z7">
         <f t="shared" si="11"/>
-        <v>4388.9305170892694</v>
+        <v>-23243.682118970362</v>
       </c>
       <c r="AA7">
         <f t="shared" si="12"/>
-        <v>31792.130517089274</v>
+        <v>4159.5178810296384</v>
       </c>
       <c r="AB7">
         <f t="shared" si="13"/>
@@ -17463,30 +17451,30 @@
       </c>
       <c r="AC7">
         <f t="shared" si="14"/>
-        <v>2456.9425319242155</v>
+        <v>-14700.735865639053</v>
       </c>
       <c r="AD7">
         <f t="shared" si="15"/>
-        <v>3221.4208648746471</v>
+        <v>-13936.257532688624</v>
       </c>
       <c r="AE7">
         <f t="shared" si="16"/>
-        <v>22127.730046438242</v>
+        <v>4970.0516488749718</v>
       </c>
       <c r="AF7">
         <f t="shared" si="17"/>
-        <v>2036.7029804777794</v>
+        <v>-15120.975417085492</v>
       </c>
       <c r="AG7">
         <f t="shared" si="18"/>
-        <v>2725.1805434857702</v>
+        <v>-14432.497854077499</v>
       </c>
       <c r="AH7">
         <f t="shared" si="19"/>
-        <v>19740.411743540408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>2582.7333459771357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2024</v>
       </c>
@@ -17540,31 +17528,31 @@
       </c>
       <c r="U8">
         <f>OPEX!$B$3</f>
-        <v>2796.6694829107305</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V8">
         <f t="shared" si="8"/>
-        <v>6448.1305170892701</v>
+        <v>-21184.482118970365</v>
       </c>
       <c r="W8">
         <f t="shared" si="9"/>
-        <v>8500.1305170892701</v>
+        <v>-19132.482118970365</v>
       </c>
       <c r="X8">
         <f t="shared" si="1"/>
-        <v>69620.930517089277</v>
+        <v>41988.317881029638</v>
       </c>
       <c r="Y8">
         <f t="shared" si="10"/>
-        <v>5519.3305170892691</v>
+        <v>-22113.282118970365</v>
       </c>
       <c r="Z8">
         <f t="shared" si="11"/>
-        <v>7369.7305170892687</v>
+        <v>-20262.882118970367</v>
       </c>
       <c r="AA8">
         <f t="shared" si="12"/>
-        <v>62377.730517089272</v>
+        <v>34745.117881029641</v>
       </c>
       <c r="AB8">
         <f t="shared" si="13"/>
@@ -17572,30 +17560,30 @@
       </c>
       <c r="AC8">
         <f t="shared" si="14"/>
-        <v>3639.801574481075</v>
+        <v>-11958.087877849171</v>
       </c>
       <c r="AD8">
         <f t="shared" si="15"/>
-        <v>4798.1020789514259</v>
+        <v>-10799.787373378822</v>
       </c>
       <c r="AE8">
         <f t="shared" si="16"/>
-        <v>39299.200262982333</v>
+        <v>23701.310810652089</v>
       </c>
       <c r="AF8">
         <f t="shared" si="17"/>
-        <v>3115.5181882471261</v>
+        <v>-12482.37126408312</v>
       </c>
       <c r="AG8">
         <f t="shared" si="18"/>
-        <v>4160.0207484186349</v>
+        <v>-11437.868703911612</v>
       </c>
       <c r="AH8">
         <f t="shared" si="19"/>
-        <v>35210.602692816814</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>19612.71324048657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2025</v>
       </c>
@@ -17648,31 +17636,31 @@
       </c>
       <c r="U9">
         <f>OPEX!$B$3</f>
-        <v>2796.6694829107305</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V9">
         <f t="shared" si="8"/>
-        <v>9839.3305170892691</v>
+        <v>-17793.282118970365</v>
       </c>
       <c r="W9">
         <f t="shared" si="9"/>
-        <v>13165.730517089269</v>
+        <v>-14466.882118970365</v>
       </c>
       <c r="X9">
         <f t="shared" si="1"/>
-        <v>127328.93051708928</v>
+        <v>99696.317881029638</v>
       </c>
       <c r="Y9">
         <f t="shared" si="10"/>
-        <v>8572.1305170892701</v>
+        <v>-19060.482118970365</v>
       </c>
       <c r="Z9">
         <f t="shared" si="11"/>
-        <v>11567.330517089269</v>
+        <v>-16065.282118970365</v>
       </c>
       <c r="AA9">
         <f t="shared" si="12"/>
-        <v>114311.33051708927</v>
+        <v>86678.717881029632</v>
       </c>
       <c r="AB9">
         <f t="shared" si="13"/>
@@ -17680,30 +17668,30 @@
       </c>
       <c r="AC9">
         <f t="shared" si="14"/>
-        <v>5049.1323327994933</v>
+        <v>-9130.7671693189095</v>
       </c>
       <c r="AD9">
         <f t="shared" si="15"/>
-        <v>6756.1014972821149</v>
+        <v>-7423.7980048362879</v>
       </c>
       <c r="AE9">
         <f t="shared" si="16"/>
-        <v>65339.874380477908</v>
+        <v>51159.974878359499</v>
       </c>
       <c r="AF9">
         <f t="shared" si="17"/>
-        <v>4398.8583653775422</v>
+        <v>-9781.0411367408615</v>
       </c>
       <c r="AG9">
         <f t="shared" si="18"/>
-        <v>5935.869561102154</v>
+        <v>-8244.0299410162479</v>
       </c>
       <c r="AH9">
         <f t="shared" si="19"/>
-        <v>58659.787260597855</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>44479.887758479454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2026</v>
       </c>
@@ -17756,31 +17744,31 @@
       </c>
       <c r="U10">
         <f>OPEX!$B$3</f>
-        <v>2796.6694829107305</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V10">
         <f t="shared" si="8"/>
-        <v>14440.130517089268</v>
+        <v>-13192.482118970365</v>
       </c>
       <c r="W10">
         <f t="shared" si="9"/>
-        <v>19688.930517089273</v>
+        <v>-7943.6821189703624</v>
       </c>
       <c r="X10">
         <f t="shared" si="1"/>
-        <v>211050.53051708927</v>
+        <v>183417.91788102966</v>
       </c>
       <c r="Y10">
         <f t="shared" si="10"/>
-        <v>12712.13051708927</v>
+        <v>-14920.482118970363</v>
       </c>
       <c r="Z10">
         <f t="shared" si="11"/>
-        <v>17435.330517089271</v>
+        <v>-10197.282118970365</v>
       </c>
       <c r="AA10">
         <f t="shared" si="12"/>
-        <v>189659.33051708926</v>
+        <v>162026.71788102965</v>
       </c>
       <c r="AB10">
         <f t="shared" si="13"/>
@@ -17788,30 +17776,30 @@
       </c>
       <c r="AC10">
         <f t="shared" si="14"/>
-        <v>6736.4274574139336</v>
+        <v>-6154.390271784614</v>
       </c>
       <c r="AD10">
         <f t="shared" si="15"/>
-        <v>9185.031394658783</v>
+        <v>-3705.7863345397654</v>
       </c>
       <c r="AE10">
         <f t="shared" si="16"/>
-        <v>98456.630083401658</v>
+        <v>85565.81235420311</v>
       </c>
       <c r="AF10">
         <f t="shared" si="17"/>
-        <v>5930.3027044115161</v>
+        <v>-6960.5150247870324</v>
       </c>
       <c r="AG10">
         <f t="shared" si="18"/>
-        <v>8133.7103626181279</v>
+        <v>-4757.1073665804215</v>
       </c>
       <c r="AH10">
         <f t="shared" si="19"/>
-        <v>88477.477411859203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>75586.659682660669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2027</v>
       </c>
@@ -17864,31 +17852,31 @@
       </c>
       <c r="U11">
         <f>OPEX!$B$3</f>
-        <v>2796.6694829107305</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V11">
         <f t="shared" si="8"/>
-        <v>20653.730517089272</v>
+        <v>-6978.8821189703631</v>
       </c>
       <c r="W11">
         <f t="shared" si="9"/>
-        <v>28717.730517089272</v>
+        <v>1085.1178810296369</v>
       </c>
       <c r="X11">
         <f t="shared" si="1"/>
-        <v>300510.5305170893</v>
+        <v>272877.91788102966</v>
       </c>
       <c r="Y11">
         <f t="shared" si="10"/>
-        <v>18306.530517089272</v>
+        <v>-9326.0821189703638</v>
       </c>
       <c r="Z11">
         <f t="shared" si="11"/>
-        <v>25564.13051708927</v>
+        <v>-2068.4821189703653</v>
       </c>
       <c r="AA11">
         <f t="shared" si="12"/>
-        <v>270176.93051708932</v>
+        <v>242544.31788102968</v>
       </c>
       <c r="AB11">
         <f t="shared" si="13"/>
@@ -17896,30 +17884,30 @@
       </c>
       <c r="AC11">
         <f t="shared" si="14"/>
-        <v>8759.1979228046657</v>
+        <v>-2959.7272855576502</v>
       </c>
       <c r="AD11">
         <f t="shared" si="15"/>
-        <v>12179.121117360382</v>
+        <v>460.19590899806616</v>
       </c>
       <c r="AE11">
         <f t="shared" si="16"/>
-        <v>127445.80028814945</v>
+        <v>115726.87507978712</v>
       </c>
       <c r="AF11">
         <f t="shared" si="17"/>
-        <v>7763.7559929607705</v>
+        <v>-3955.1692154015464</v>
       </c>
       <c r="AG11">
         <f t="shared" si="18"/>
-        <v>10841.686868060915</v>
+        <v>-877.23834030140233</v>
       </c>
       <c r="AH11">
         <f t="shared" si="19"/>
-        <v>114581.39277148586</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>102862.46756312353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2028</v>
       </c>
@@ -17973,31 +17961,31 @@
       </c>
       <c r="U12">
         <f>OPEX!$B$3</f>
-        <v>2796.6694829107305</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V12">
         <f t="shared" si="8"/>
-        <v>28969.730517089272</v>
+        <v>1337.1178810296369</v>
       </c>
       <c r="W12">
         <f t="shared" si="9"/>
-        <v>41058.530517089275</v>
+        <v>13425.91788102964</v>
       </c>
       <c r="X12">
         <f t="shared" si="1"/>
-        <v>354222.5305170893</v>
+        <v>326589.91788102966</v>
       </c>
       <c r="Y12">
         <f t="shared" si="10"/>
-        <v>25787.330517089271</v>
+        <v>-1845.2821189703645</v>
       </c>
       <c r="Z12">
         <f t="shared" si="11"/>
-        <v>36666.530517089275</v>
+        <v>9033.9178810296398</v>
       </c>
       <c r="AA12">
         <f t="shared" si="12"/>
-        <v>318517.73051708931</v>
+        <v>290885.11788102967</v>
       </c>
       <c r="AB12">
         <f t="shared" si="13"/>
@@ -18005,30 +17993,30 @@
       </c>
       <c r="AC12">
         <f t="shared" si="14"/>
-        <v>11169.08519744568</v>
+        <v>515.51682620721112</v>
       </c>
       <c r="AD12">
         <f t="shared" si="15"/>
-        <v>15829.840914701401</v>
+        <v>5176.2725434629319</v>
       </c>
       <c r="AE12">
         <f t="shared" si="16"/>
-        <v>136568.11960561119</v>
+        <v>125914.55123437273</v>
       </c>
       <c r="AF12">
         <f t="shared" si="17"/>
-        <v>9942.132233165139</v>
+        <v>-711.43613807333043</v>
       </c>
       <c r="AG12">
         <f t="shared" si="18"/>
-        <v>14136.534787526898</v>
+        <v>3482.9664162884301</v>
       </c>
       <c r="AH12">
         <f t="shared" si="19"/>
-        <v>122802.37356518768</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>112148.8051939492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2029</v>
       </c>
@@ -18081,31 +18069,31 @@
       </c>
       <c r="U13">
         <f>OPEX!$B$3</f>
-        <v>2796.6694829107305</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V13">
         <f t="shared" si="8"/>
-        <v>39956.930517089269</v>
+        <v>12324.317881029634</v>
       </c>
       <c r="W13">
         <f t="shared" si="9"/>
-        <v>57618.530517089275</v>
+        <v>29985.91788102964</v>
       </c>
       <c r="X13">
         <f t="shared" si="1"/>
-        <v>365728.13051708927</v>
+        <v>338095.51788102963</v>
       </c>
       <c r="Y13">
         <f t="shared" si="10"/>
-        <v>35680.130517089274</v>
+        <v>8047.5178810296384</v>
       </c>
       <c r="Z13">
         <f t="shared" si="11"/>
-        <v>51570.530517089275</v>
+        <v>23937.91788102964</v>
       </c>
       <c r="AA13">
         <f t="shared" si="12"/>
-        <v>328871.33051708929</v>
+        <v>301238.71788102965</v>
       </c>
       <c r="AB13">
         <f t="shared" si="13"/>
@@ -18113,30 +18101,30 @@
       </c>
       <c r="AC13">
         <f t="shared" si="14"/>
-        <v>14004.660388241658</v>
+        <v>4319.5982325703253</v>
       </c>
       <c r="AD13">
         <f t="shared" si="15"/>
-        <v>20194.943443322216</v>
+        <v>10509.881287650884</v>
       </c>
       <c r="AE13">
         <f t="shared" si="16"/>
-        <v>128185.47861497417</v>
+        <v>118500.41645930284</v>
       </c>
       <c r="AF13">
         <f t="shared" si="17"/>
-        <v>12505.668078939641</v>
+        <v>2820.6059232683083</v>
       </c>
       <c r="AG13">
         <f t="shared" si="18"/>
-        <v>18075.156339258756</v>
+        <v>8390.0941835874237</v>
       </c>
       <c r="AH13">
         <f t="shared" si="19"/>
-        <v>115267.39506056841</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>105582.33290489706</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2030</v>
       </c>
@@ -18183,31 +18171,31 @@
       </c>
       <c r="U14">
         <f>OPEX!$B$3</f>
-        <v>2796.6694829107305</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V14">
         <f t="shared" si="8"/>
-        <v>54277.730517089272</v>
+        <v>26645.117881029637</v>
       </c>
       <c r="W14">
         <f t="shared" si="9"/>
-        <v>79276.130517089274</v>
+        <v>51643.517881029635</v>
       </c>
       <c r="X14">
         <f t="shared" si="1"/>
-        <v>366260.93051708932</v>
+        <v>338628.31788102968</v>
       </c>
       <c r="Y14">
         <f t="shared" si="10"/>
-        <v>48568.130517089274</v>
+        <v>20935.517881029638</v>
       </c>
       <c r="Z14">
         <f t="shared" si="11"/>
-        <v>71068.130517089274</v>
+        <v>43435.517881029635</v>
       </c>
       <c r="AA14">
         <f t="shared" si="12"/>
-        <v>329353.73051708931</v>
+        <v>301721.11788102967</v>
       </c>
       <c r="AB14">
         <f t="shared" si="13"/>
@@ -18215,30 +18203,30 @@
       </c>
       <c r="AC14">
         <f t="shared" si="14"/>
-        <v>17294.557658122529</v>
+        <v>8489.9556984213159</v>
       </c>
       <c r="AD14">
         <f t="shared" si="15"/>
-        <v>25259.818291573109</v>
+        <v>16455.216331871892</v>
       </c>
       <c r="AE14">
         <f t="shared" si="16"/>
-        <v>116702.01978601626</v>
+        <v>107897.41782631504</v>
       </c>
       <c r="AF14">
         <f t="shared" si="17"/>
-        <v>15475.303141323478</v>
+        <v>6670.7011816222648</v>
       </c>
       <c r="AG14">
         <f t="shared" si="18"/>
-        <v>22644.4965398065</v>
+        <v>13839.894580105287</v>
       </c>
       <c r="AH14">
         <f t="shared" si="19"/>
-        <v>104942.24847061659</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>96137.646510915365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2031</v>
       </c>
@@ -18285,31 +18273,31 @@
       </c>
       <c r="U15">
         <f>OPEX!$B$3</f>
-        <v>2796.6694829107305</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V15">
         <f t="shared" si="8"/>
-        <v>72565.73051708928</v>
+        <v>44933.117881029641</v>
       </c>
       <c r="W15">
         <f t="shared" si="9"/>
-        <v>106643.33051708927</v>
+        <v>79010.717881029632</v>
       </c>
       <c r="X15">
         <f t="shared" si="1"/>
-        <v>366340.13051708927</v>
+        <v>338707.51788102963</v>
       </c>
       <c r="Y15">
         <f t="shared" si="10"/>
-        <v>65027.330517089271</v>
+        <v>37394.717881029632</v>
       </c>
       <c r="Z15">
         <f t="shared" si="11"/>
-        <v>95699.330517089271</v>
+        <v>68066.717881029632</v>
       </c>
       <c r="AA15">
         <f t="shared" si="12"/>
-        <v>329425.73051708931</v>
+        <v>301793.11788102967</v>
       </c>
       <c r="AB15">
         <f t="shared" si="13"/>
@@ -18317,30 +18305,30 @@
       </c>
       <c r="AC15">
         <f t="shared" si="14"/>
-        <v>21019.707320372301</v>
+        <v>13015.523720643927</v>
       </c>
       <c r="AD15">
         <f t="shared" si="15"/>
-        <v>30890.774187287254</v>
+        <v>22886.590587558876</v>
       </c>
       <c r="AE15">
         <f t="shared" si="16"/>
-        <v>106115.68667888992</v>
+        <v>98111.503079161543</v>
       </c>
       <c r="AF15">
         <f t="shared" si="17"/>
-        <v>18836.101360165252</v>
+        <v>10831.917760436876</v>
       </c>
       <c r="AG15">
         <f t="shared" si="18"/>
-        <v>27720.687215448943</v>
+        <v>19716.503615720565</v>
       </c>
       <c r="AH15">
         <f t="shared" si="19"/>
-        <v>95422.899899537937</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>87418.716299809559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2032</v>
       </c>
@@ -18387,31 +18375,31 @@
       </c>
       <c r="U16">
         <f>OPEX!$B$3</f>
-        <v>2796.6694829107305</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V16">
         <f t="shared" si="8"/>
-        <v>95288.930517089277</v>
+        <v>67656.317881029638</v>
       </c>
       <c r="W16">
         <f t="shared" si="9"/>
-        <v>139655.33051708926</v>
+        <v>112022.71788102963</v>
       </c>
       <c r="X16">
         <f t="shared" si="1"/>
-        <v>366390.5305170893</v>
+        <v>338757.91788102966</v>
       </c>
       <c r="Y16">
         <f t="shared" si="10"/>
-        <v>85475.330517089271</v>
+        <v>57842.717881029632</v>
       </c>
       <c r="Z16">
         <f t="shared" si="11"/>
-        <v>125406.53051708927</v>
+        <v>97773.917881029629</v>
       </c>
       <c r="AA16">
         <f t="shared" si="12"/>
-        <v>329468.93051708932</v>
+        <v>301836.31788102968</v>
       </c>
       <c r="AB16">
         <f t="shared" si="13"/>
@@ -18419,30 +18407,30 @@
       </c>
       <c r="AC16">
         <f t="shared" si="14"/>
-        <v>25092.553594549998</v>
+        <v>17816.023049342384</v>
       </c>
       <c r="AD16">
         <f t="shared" si="15"/>
-        <v>36775.613355595247</v>
+        <v>29499.082810387637</v>
       </c>
       <c r="AE16">
         <f t="shared" si="16"/>
-        <v>96482.077966935103</v>
+        <v>89205.54742172749</v>
       </c>
       <c r="AF16">
         <f t="shared" si="17"/>
-        <v>22508.325997291853</v>
+        <v>15231.79545208424</v>
       </c>
       <c r="AG16">
         <f t="shared" si="18"/>
-        <v>33023.458979238785</v>
+        <v>25746.928434031168</v>
       </c>
       <c r="AH16">
         <f t="shared" si="19"/>
-        <v>86759.466727947758</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>79482.936182740144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2033</v>
       </c>
@@ -18489,31 +18477,31 @@
       </c>
       <c r="U17">
         <f>OPEX!$B$3</f>
-        <v>2796.6694829107305</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V17">
         <f t="shared" si="8"/>
-        <v>122584.13051708927</v>
+        <v>94951.517881029635</v>
       </c>
       <c r="W17">
         <f t="shared" si="9"/>
-        <v>177174.53051708927</v>
+        <v>149541.91788102966</v>
       </c>
       <c r="X17">
         <f t="shared" si="1"/>
-        <v>366419.33051708929</v>
+        <v>338786.71788102965</v>
       </c>
       <c r="Y17">
         <f t="shared" si="10"/>
-        <v>110041.73051708928</v>
+        <v>82409.117881029641</v>
       </c>
       <c r="Z17">
         <f t="shared" si="11"/>
-        <v>159174.53051708927</v>
+        <v>131541.91788102966</v>
       </c>
       <c r="AA17">
         <f t="shared" si="12"/>
-        <v>329497.73051708931</v>
+        <v>301865.11788102967</v>
       </c>
       <c r="AB17">
         <f t="shared" si="13"/>
@@ -18521,30 +18509,30 @@
       </c>
       <c r="AC17">
         <f t="shared" si="14"/>
-        <v>29345.666224623004</v>
+        <v>22730.638456252447</v>
       </c>
       <c r="AD17">
         <f t="shared" si="15"/>
-        <v>42414.173956505379</v>
+        <v>35799.14618813483</v>
       </c>
       <c r="AE17">
         <f t="shared" si="16"/>
-        <v>87717.874460962834</v>
+        <v>81102.846692592284</v>
       </c>
       <c r="AF17">
         <f t="shared" si="17"/>
-        <v>26343.115384615212</v>
+        <v>19728.087616244655</v>
       </c>
       <c r="AG17">
         <f t="shared" si="18"/>
-        <v>38105.117067860439</v>
+        <v>31490.08929948989</v>
       </c>
       <c r="AH17">
         <f t="shared" si="19"/>
-        <v>78879.136970974345</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>72264.10920260378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2034</v>
       </c>
@@ -18591,31 +18579,31 @@
       </c>
       <c r="U18">
         <f>OPEX!$B$3</f>
-        <v>2796.6694829107305</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V18">
         <f t="shared" si="8"/>
-        <v>153968.93051708926</v>
+        <v>126336.31788102964</v>
       </c>
       <c r="W18">
         <f t="shared" si="9"/>
-        <v>216731.33051708926</v>
+        <v>189098.71788102965</v>
       </c>
       <c r="X18">
         <f t="shared" si="1"/>
-        <v>366433.73051708931</v>
+        <v>338801.11788102967</v>
       </c>
       <c r="Y18">
         <f t="shared" si="10"/>
-        <v>138287.33051708926</v>
+        <v>110654.71788102963</v>
       </c>
       <c r="Z18">
         <f t="shared" si="11"/>
-        <v>194778.53051708927</v>
+        <v>167145.91788102966</v>
       </c>
       <c r="AA18">
         <f t="shared" si="12"/>
-        <v>329504.93051708932</v>
+        <v>301872.31788102968</v>
       </c>
       <c r="AB18">
         <f t="shared" si="13"/>
@@ -18623,30 +18611,30 @@
       </c>
       <c r="AC18">
         <f t="shared" si="14"/>
-        <v>33508.125286967566</v>
+        <v>27494.46367935797</v>
       </c>
       <c r="AD18">
         <f t="shared" si="15"/>
-        <v>47167.052159083178</v>
+        <v>41153.390551473589</v>
       </c>
       <c r="AE18">
         <f t="shared" si="16"/>
-        <v>79746.656096794322</v>
+        <v>73732.994489184726</v>
       </c>
       <c r="AF18">
         <f t="shared" si="17"/>
-        <v>30095.35223116077</v>
+        <v>24081.690623551174</v>
       </c>
       <c r="AG18">
         <f t="shared" si="18"/>
-        <v>42389.483266909207</v>
+        <v>36375.821659299618</v>
       </c>
       <c r="AH18">
         <f t="shared" si="19"/>
-        <v>71709.873267027084</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>65696.211659417488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2035</v>
       </c>
@@ -18693,31 +18681,31 @@
       </c>
       <c r="U19">
         <f>OPEX!$B$3</f>
-        <v>2796.6694829107305</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V19">
         <f t="shared" si="8"/>
-        <v>188154.53051708927</v>
+        <v>160521.91788102966</v>
       </c>
       <c r="W19">
         <f t="shared" si="9"/>
-        <v>254905.73051708925</v>
+        <v>227273.11788102964</v>
       </c>
       <c r="X19">
         <f t="shared" si="1"/>
-        <v>366440.93051708932</v>
+        <v>338808.31788102968</v>
       </c>
       <c r="Y19">
         <f t="shared" si="10"/>
-        <v>169052.93051708926</v>
+        <v>141420.31788102965</v>
       </c>
       <c r="Z19">
         <f t="shared" si="11"/>
-        <v>229129.73051708925</v>
+        <v>201497.11788102964</v>
       </c>
       <c r="AA19">
         <f t="shared" si="12"/>
-        <v>329512.13051708927</v>
+        <v>301879.51788102963</v>
       </c>
       <c r="AB19">
         <f t="shared" si="13"/>
@@ -18725,30 +18713,30 @@
       </c>
       <c r="AC19">
         <f t="shared" si="14"/>
-        <v>37225.370792213878</v>
+        <v>31758.405694386976</v>
       </c>
       <c r="AD19">
         <f t="shared" si="15"/>
-        <v>50431.739854900567</v>
+        <v>44964.774757073668</v>
       </c>
       <c r="AE19">
         <f t="shared" si="16"/>
-        <v>72498.38456961092</v>
+        <v>67031.419471784015</v>
       </c>
       <c r="AF19">
         <f t="shared" si="17"/>
-        <v>33446.221064751058</v>
+        <v>27979.255966924156</v>
       </c>
       <c r="AG19">
         <f t="shared" si="18"/>
-        <v>45332.095669330687</v>
+        <v>39865.130571503789</v>
       </c>
       <c r="AH19">
         <f t="shared" si="19"/>
-        <v>65192.218360731604</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>59725.253262904698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2036</v>
       </c>
@@ -18795,31 +18783,31 @@
       </c>
       <c r="U20">
         <f>OPEX!$B$3</f>
-        <v>2796.6694829107305</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V20">
         <f t="shared" si="8"/>
-        <v>223096.13051708927</v>
+        <v>195463.51788102966</v>
       </c>
       <c r="W20">
         <f t="shared" si="9"/>
-        <v>288292.13051708927</v>
+        <v>260659.51788102963</v>
       </c>
       <c r="X20">
         <f t="shared" si="1"/>
-        <v>366448.13051708927</v>
+        <v>338815.51788102963</v>
       </c>
       <c r="Y20">
         <f t="shared" si="10"/>
-        <v>200502.53051708927</v>
+        <v>172869.91788102966</v>
       </c>
       <c r="Z20">
         <f t="shared" si="11"/>
-        <v>259182.53051708927</v>
+        <v>231549.91788102966</v>
       </c>
       <c r="AA20">
         <f t="shared" si="12"/>
-        <v>329519.33051708929</v>
+        <v>301886.71788102965</v>
       </c>
       <c r="AB20">
         <f t="shared" si="13"/>
@@ -18827,30 +18815,30 @@
       </c>
       <c r="AC20">
         <f t="shared" si="14"/>
-        <v>40125.800068231663</v>
+        <v>35155.831797479936</v>
       </c>
       <c r="AD20">
         <f t="shared" si="15"/>
-        <v>51851.87373515276</v>
+        <v>46881.905464401025</v>
       </c>
       <c r="AE20">
         <f t="shared" si="16"/>
-        <v>65908.917319297252</v>
+        <v>60938.949048545524</v>
       </c>
       <c r="AF20">
         <f t="shared" si="17"/>
-        <v>36062.142512538856</v>
+        <v>31092.174241787128</v>
       </c>
       <c r="AG20">
         <f t="shared" si="18"/>
-        <v>46616.256304411509</v>
+        <v>41646.288033659781</v>
       </c>
       <c r="AH20">
         <f t="shared" si="19"/>
-        <v>59266.948038497896</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>54296.979767746161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2037</v>
       </c>
@@ -18897,31 +18885,31 @@
       </c>
       <c r="U21">
         <f>OPEX!$B$3</f>
-        <v>2796.6694829107305</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V21">
         <f t="shared" si="8"/>
-        <v>256331.33051708926</v>
+        <v>228698.71788102965</v>
       </c>
       <c r="W21">
         <f t="shared" si="9"/>
-        <v>314716.13051708927</v>
+        <v>287083.51788102963</v>
       </c>
       <c r="X21">
         <f t="shared" si="1"/>
-        <v>366455.33051708929</v>
+        <v>338822.71788102965</v>
       </c>
       <c r="Y21">
         <f t="shared" si="10"/>
-        <v>230418.53051708927</v>
+        <v>202785.91788102966</v>
       </c>
       <c r="Z21">
         <f t="shared" si="11"/>
-        <v>282964.13051708927</v>
+        <v>255331.51788102963</v>
       </c>
       <c r="AA21">
         <f t="shared" si="12"/>
-        <v>329526.5305170893</v>
+        <v>301893.91788102966</v>
       </c>
       <c r="AB21">
         <f t="shared" si="13"/>
@@ -18929,30 +18917,30 @@
       </c>
       <c r="AC21">
         <f t="shared" si="14"/>
-        <v>41912.220838747591</v>
+        <v>37394.067865336932</v>
       </c>
       <c r="AD21">
         <f t="shared" si="15"/>
-        <v>51458.602181558002</v>
+        <v>46940.449208147336</v>
       </c>
       <c r="AE21">
         <f t="shared" si="16"/>
-        <v>59918.374820531448</v>
+        <v>55400.221847120782</v>
       </c>
       <c r="AF21">
         <f t="shared" si="17"/>
-        <v>37675.270974057166</v>
+        <v>33157.1180006465</v>
       </c>
       <c r="AG21">
         <f t="shared" si="18"/>
-        <v>46266.896456833143</v>
+        <v>41748.743483422477</v>
       </c>
       <c r="AH21">
         <f t="shared" si="19"/>
-        <v>53880.220928895658</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>49362.067955484992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2038</v>
       </c>
@@ -18999,31 +18987,31 @@
       </c>
       <c r="U22">
         <f>OPEX!$B$3</f>
-        <v>2796.6694829107305</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V22">
         <f t="shared" si="8"/>
-        <v>285620.93051708932</v>
+        <v>257988.31788102968</v>
       </c>
       <c r="W22">
         <f t="shared" si="9"/>
-        <v>333796.13051708927</v>
+        <v>306163.51788102963</v>
       </c>
       <c r="X22">
         <f t="shared" si="1"/>
-        <v>366455.33051708929</v>
+        <v>338822.71788102965</v>
       </c>
       <c r="Y22">
         <f t="shared" si="10"/>
-        <v>256777.73051708925</v>
+        <v>229145.11788102964</v>
       </c>
       <c r="Z22">
         <f t="shared" si="11"/>
-        <v>300136.13051708927</v>
+        <v>272503.51788102963</v>
       </c>
       <c r="AA22">
         <f t="shared" si="12"/>
-        <v>329526.5305170893</v>
+        <v>301893.91788102966</v>
       </c>
       <c r="AB22">
         <f t="shared" si="13"/>
@@ -19031,30 +19019,30 @@
       </c>
       <c r="AC22">
         <f t="shared" si="14"/>
-        <v>42455.73135169196</v>
+        <v>38348.319557682262</v>
       </c>
       <c r="AD22">
         <f t="shared" si="15"/>
-        <v>49616.667860480673</v>
+        <v>45509.256066470974</v>
       </c>
       <c r="AE22">
         <f t="shared" si="16"/>
-        <v>54471.249836846779</v>
+        <v>50363.83804283708</v>
       </c>
       <c r="AF22">
         <f t="shared" si="17"/>
-        <v>38168.373459865972</v>
+        <v>34060.961665856281</v>
       </c>
       <c r="AG22">
         <f t="shared" si="18"/>
-        <v>44613.323341187999</v>
+        <v>40505.911547178301</v>
       </c>
       <c r="AH22">
         <f t="shared" si="19"/>
-        <v>48982.01902626879</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>44874.607232259092</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
         <v>29</v>
       </c>
@@ -19068,7 +19056,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -19091,7 +19079,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2018</v>
       </c>
@@ -19120,7 +19108,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2019</v>
       </c>
@@ -19722,7 +19710,7 @@
     <col min="19" max="19" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -19787,7 +19775,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -19852,7 +19840,7 @@
         <v>-2190.4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -19917,7 +19905,7 @@
         <v>-1745.8181818181818</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -19982,7 +19970,7 @@
         <v>-1152.7272727272725</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -20047,7 +20035,7 @@
         <v>-271.6754320060104</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -20112,7 +20100,7 @@
         <v>1132.4363089952869</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -20177,7 +20165,7 @@
         <v>3421.2764900559437</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -20242,7 +20230,7 @@
         <v>7111.4683603895064</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -20307,7 +20295,7 @@
         <v>12637.031819549376</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -20372,7 +20360,7 @@
         <v>19631.750176938076</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -20437,7 +20425,7 @@
         <v>25757.144754234483</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>2028</v>
       </c>
@@ -20502,7 +20490,7 @@
         <v>27732.128808666199</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>2029</v>
       </c>
@@ -20567,7 +20555,7 @@
         <v>26051.37036309313</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>2030</v>
       </c>
@@ -20632,7 +20620,7 @@
         <v>23718.623165704772</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>2031</v>
       </c>
@@ -20697,7 +20685,7 @@
         <v>21567.598654930509</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>2032</v>
       </c>
@@ -20762,7 +20750,7 @@
         <v>19609.751845665145</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>2033</v>
       </c>
@@ -20827,7 +20815,7 @@
         <v>17828.770755178317</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>2034</v>
       </c>
@@ -20892,7 +20880,7 @@
         <v>16208.756878687314</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>2035</v>
       </c>
@@ -20957,7 +20945,7 @@
         <v>14735.233526079377</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>2036</v>
       </c>
@@ -21022,7 +21010,7 @@
         <v>13396.314333534016</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>2037</v>
       </c>
@@ -21087,7 +21075,7 @@
         <v>12178.467575940011</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -21171,7 +21159,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -21236,7 +21224,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -21301,7 +21289,7 @@
         <v>-926.8198370575268</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -21366,7 +21354,7 @@
         <v>-597.10894277956982</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -21431,7 +21419,7 @@
         <v>-108.44614632853451</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -21496,7 +21484,7 @@
         <v>677.67104653829676</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -21561,7 +21549,7 @@
         <v>1995.4785622173845</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -21626,7 +21614,7 @@
         <v>4205.860356621487</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -21691,7 +21679,7 @@
         <v>7824.7264209036366</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -21756,7 +21744,7 @@
         <v>13285.448238198587</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -21821,7 +21809,7 @@
         <v>20221.219648437356</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -21886,7 +21874,7 @@
         <v>26293.026091961103</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -21951,7 +21939,7 @@
         <v>28219.29366114494</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -22016,7 +22004,7 @@
         <v>26494.247501710168</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -22081,7 +22069,7 @@
         <v>24121.238746265717</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -22146,7 +22134,7 @@
         <v>21933.612819076821</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -22211,7 +22199,7 @@
         <v>19942.491994889067</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -22276,7 +22264,7 @@
         <v>18131.261799927335</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -22341,7 +22329,7 @@
         <v>16483.74873755006</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -22406,7 +22394,7 @@
         <v>14985.226125045509</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -22471,7 +22459,7 @@
         <v>13623.580332594134</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -22536,7 +22524,7 @@
         <v>12385.073029631028</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -22620,7 +22608,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -22685,7 +22673,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -22750,7 +22738,7 @@
         <v>-1171.5268644674088</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -22815,7 +22803,7 @@
         <v>-410.47896769764458</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -22880,7 +22868,7 @@
         <v>785.18440953106676</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -22945,7 +22933,7 @@
         <v>2783.8265481086323</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -23010,7 +22998,7 @@
         <v>6209.1886725856075</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -23075,7 +23063,7 @@
         <v>12022.820805541463</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -23140,7 +23128,7 @@
         <v>21599.749111395307</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -23205,7 +23193,7 @@
         <v>36094.963776698292</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -23270,7 +23258,7 @@
         <v>54529.708585077242</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -23335,7 +23323,7 @@
         <v>70666.060053633526</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -23400,7 +23388,7 @@
         <v>75752.653225238566</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -23465,7 +23453,7 @@
         <v>71106.966182304735</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -23530,7 +23518,7 @@
         <v>64737.521060718536</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -23595,7 +23583,7 @@
         <v>58866.195763607851</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -23660,7 +23648,7 @@
         <v>53522.307361585685</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -23725,7 +23713,7 @@
         <v>48661.239383334869</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -23790,7 +23778,7 @@
         <v>44239.57958818983</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -23855,7 +23843,7 @@
         <v>40217.799625627114</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -23920,7 +23908,7 @@
         <v>36563.362667680507</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -23985,7 +23973,7 @@
         <v>33239.420606982269</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -24069,7 +24057,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -24134,7 +24122,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -24199,7 +24187,7 @@
         <v>-1602.7743124115791</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -24264,7 +24252,7 @@
         <v>-802.52210219234462</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -24329,7 +24317,7 @@
         <v>428.78155999043037</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -24394,7 +24382,7 @@
         <v>2459.823957617145</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -24459,7 +24447,7 @@
         <v>5914.6408630478918</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -24524,7 +24512,7 @@
         <v>11755.050069598086</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -24589,7 +24577,7 @@
         <v>21356.321169628598</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -24654,7 +24642,7 @@
         <v>35873.665647819464</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -24719,7 +24707,7 @@
         <v>54328.528467914672</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -24784,7 +24772,7 @@
         <v>70483.169038031177</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -24849,7 +24837,7 @@
         <v>75586.388665600069</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -24914,7 +24902,7 @@
         <v>70955.816582633372</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -24979,7 +24967,7 @@
         <v>64600.112333744575</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -25044,7 +25032,7 @@
         <v>58741.278739086069</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -25109,7 +25097,7 @@
         <v>53408.746430202249</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -25174,7 +25162,7 @@
         <v>48558.002172986286</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -25239,7 +25227,7 @@
         <v>44145.727578782033</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -25304,7 +25292,7 @@
         <v>40132.479617074569</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -25369,7 +25357,7 @@
         <v>36485.799023541826</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -25434,7 +25422,7 @@
         <v>33168.908203219835</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -25518,7 +25506,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -25583,7 +25571,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -25648,7 +25636,7 @@
         <v>-11452.775084636492</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -25713,7 +25701,7 @@
         <v>-9593.4318951240839</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -25778,7 +25766,7 @@
         <v>-7273.3678385425546</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -25843,7 +25831,7 @@
         <v>-4024.6244061881976</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -25908,7 +25896,7 @@
         <v>939.29712134656597</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -25973,7 +25961,7 @@
         <v>8826.5362620309734</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -26038,7 +26026,7 @@
         <v>21361.513893884257</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -26103,7 +26091,7 @@
         <v>39993.093361454805</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -26168,7 +26156,7 @@
         <v>63502.489040966502</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -26233,7 +26221,7 @@
         <v>84096.532621241844</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -26298,7 +26286,7 @@
         <v>90839.868853548149</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -26363,7 +26351,7 @@
         <v>85382.846202426314</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -26428,7 +26416,7 @@
         <v>77739.29993912128</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -26493,7 +26481,7 @@
         <v>70689.470716530821</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -26558,7 +26546,7 @@
         <v>64272.635122001193</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -26623,7 +26611,7 @@
         <v>58435.413701913218</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -26688,7 +26676,7 @@
         <v>53125.714915005134</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -26753,7 +26741,7 @@
         <v>48296.104468186481</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -26818,7 +26806,7 @@
         <v>43907.707822012075</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -26883,7 +26871,7 @@
         <v>39916.098020010963</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -26967,7 +26955,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -27032,7 +27020,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -27097,7 +27085,7 @@
         <v>-7500.4239124674095</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -27162,7 +27150,7 @@
         <v>-6000.3853749703721</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -27227,7 +27215,7 @@
         <v>-4006.9619111300899</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -27292,7 +27280,7 @@
         <v>-1055.1644721768664</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -27357,7 +27345,7 @@
         <v>3638.8061522659582</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -27422,7 +27410,7 @@
         <v>11280.635381048602</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -27487,7 +27475,7 @@
         <v>23592.513092991197</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -27552,7 +27540,7 @@
         <v>42021.274451552024</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -27617,7 +27605,7 @@
         <v>65346.290031963974</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -27682,7 +27670,7 @@
         <v>85772.715340330455</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -27747,7 +27735,7 @@
         <v>92363.671325446878</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -27812,7 +27800,7 @@
         <v>86768.121176879707</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -27877,7 +27865,7 @@
         <v>78998.64082498799</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -27942,7 +27930,7 @@
         <v>71834.326067318747</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -28007,7 +27995,7 @@
         <v>65313.412713626589</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -28072,7 +28060,7 @@
         <v>59381.57514884539</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -28137,7 +28125,7 @@
         <v>53985.861684943477</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -28202,7 +28190,7 @@
         <v>49078.056077221336</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -28267,7 +28255,7 @@
         <v>44618.57292113467</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -28332,7 +28320,7 @@
         <v>40562.339019213323</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2038</v>
       </c>

--- a/tumlknexpectimax/excel_data/input_data_NY_residential.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_NY_residential.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmadzay\LRZ Sync+Share\PycharmProjects\mt_branch_new_code\tumlknexpectimax\tumlknexpectimax\excel_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="885" windowWidth="15105" windowHeight="8565" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="888" windowWidth="15108" windowHeight="8568"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,10 @@
     <sheet name="FTTB_Hybridpon_100" sheetId="19" r:id="rId17"/>
     <sheet name="MIG_MATRIX" sheetId="11" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <externalReferences>
+    <externalReference r:id="rId19"/>
+  </externalReferences>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -36,7 +44,7 @@
     <author>Patri, Sai Kireet</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0">
+    <comment ref="G6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="G7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -436,7 +444,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000%"/>
   </numFmts>
@@ -645,7 +653,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -674,7 +682,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -794,7 +801,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-37DD-494B-898C-2092A609AD86}"/>
             </c:ext>
@@ -910,7 +917,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-37DD-494B-898C-2092A609AD86}"/>
             </c:ext>
@@ -985,48 +992,48 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2779.52</c:v>
+                  <c:v>3198.8888888888887</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2605.5</c:v>
+                  <c:v>7420</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10248.299999999999</c:v>
+                  <c:v>6458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46085.746666666666</c:v>
+                  <c:v>7164</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20842.8</c:v>
+                  <c:v>29050</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11290.5</c:v>
+                  <c:v>7690</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6253.2</c:v>
+                  <c:v>14840</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10422</c:v>
+                  <c:v>13828</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1563.3000000000002</c:v>
+                  <c:v>4920</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2431.8000000000002</c:v>
+                  <c:v>10700</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37517.040000000001</c:v>
+                  <c:v>21000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4689.9000000000005</c:v>
+                  <c:v>34480</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4689.9000000000005</c:v>
+                  <c:v>21000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-37DD-494B-898C-2092A609AD86}"/>
             </c:ext>
@@ -1101,48 +1108,48 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>8164.84</c:v>
+                  <c:v>118366.39999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20670.3</c:v>
+                  <c:v>100181.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18759.599999999999</c:v>
+                  <c:v>96800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>231355.08</c:v>
+                  <c:v>278720</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>165352.88</c:v>
+                  <c:v>262692.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22407.300000000003</c:v>
+                  <c:v>148579.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23796.9</c:v>
+                  <c:v>61989.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18759.599999999999</c:v>
+                  <c:v>200640</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7179.6000000000013</c:v>
+                  <c:v>78450.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29007.9</c:v>
+                  <c:v>89988.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>234828.88</c:v>
+                  <c:v>355977.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21538.799999999999</c:v>
+                  <c:v>260532.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29355.3</c:v>
+                  <c:v>215177.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-37DD-494B-898C-2092A609AD86}"/>
             </c:ext>
@@ -1158,11 +1165,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="94313472"/>
-        <c:axId val="187655296"/>
+        <c:axId val="76327424"/>
+        <c:axId val="177525824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94313472"/>
+        <c:axId val="76327424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1184,14 +1191,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187655296"/>
+        <c:crossAx val="177525824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1199,7 +1205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187655296"/>
+        <c:axId val="177525824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1222,21 +1228,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94313472"/>
+        <c:crossAx val="76327424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1252,7 +1256,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1266,7 +1270,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1321,15 +1324,15 @@
                   <c:v>35.517736249908381</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2779.52</c:v>
+                  <c:v>3198.8888888888887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8164.84</c:v>
+                  <c:v>118366.39999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CEE8-43A2-851D-BC93CBA0BE7C}"/>
             </c:ext>
@@ -1349,7 +1352,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1375,7 +1377,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1404,7 +1406,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1486,51 +1487,51 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>51114.587309311035</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30429.282118970365</c:v>
+                  <c:v>19283.042118970367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66109.823692218881</c:v>
+                  <c:v>43709.823692218881</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66648.422052537615</c:v>
+                  <c:v>44248.4220525376</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8108.705667292159</c:v>
+                  <c:v>10540.776519765759</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8798.3519740095981</c:v>
+                  <c:v>11938.918689039821</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69659.850521829372</c:v>
+                  <c:v>50983.71612182937</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70126.863400003014</c:v>
+                  <c:v>47726.863400003029</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70620.289169209602</c:v>
+                  <c:v>48220.289169209609</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51210.227713520049</c:v>
+                  <c:v>37682.867713520049</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67227.8721002112</c:v>
+                  <c:v>44827.8721002112</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12139.814930199653</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70921.654760442281</c:v>
+                  <c:v>47419.574760442287</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>72488.476920599642</c:v>
+                  <c:v>50088.476920599649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B8F6-416E-AD21-7DE814CEBF97}"/>
             </c:ext>
@@ -1545,11 +1546,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="209073280"/>
-        <c:axId val="209074816"/>
+        <c:axId val="159840256"/>
+        <c:axId val="177527552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="209073280"/>
+        <c:axId val="159840256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +1560,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209074816"/>
+        <c:crossAx val="177527552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1567,7 +1568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209074816"/>
+        <c:axId val="177527552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1590,14 +1591,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209073280"/>
+        <c:crossAx val="159840256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1615,7 +1615,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1629,7 +1629,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1747,7 +1746,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DDCA-4663-830D-82651783C711}"/>
             </c:ext>
@@ -1762,11 +1761,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="209087488"/>
-        <c:axId val="209114240"/>
+        <c:axId val="159649792"/>
+        <c:axId val="127755968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="209087488"/>
+        <c:axId val="159649792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1788,14 +1787,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209114240"/>
+        <c:crossAx val="127755968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1803,7 +1801,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209114240"/>
+        <c:axId val="127755968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1826,14 +1824,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209087488"/>
+        <c:crossAx val="159649792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1851,7 +1848,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2030,7 +2027,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B323-4672-88DD-A4269C32C76F}"/>
             </c:ext>
@@ -2195,7 +2192,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B323-4672-88DD-A4269C32C76F}"/>
             </c:ext>
@@ -2360,7 +2357,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B323-4672-88DD-A4269C32C76F}"/>
             </c:ext>
@@ -2375,11 +2372,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="211901056"/>
-        <c:axId val="211906944"/>
+        <c:axId val="162980352"/>
+        <c:axId val="127757696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="211901056"/>
+        <c:axId val="162980352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,7 +2386,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211906944"/>
+        <c:crossAx val="127757696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2397,7 +2394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211906944"/>
+        <c:axId val="127757696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2408,7 +2405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211901056"/>
+        <c:crossAx val="162980352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2449,7 +2446,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,7 +2482,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2510,23 +2507,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>819149</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2546,23 +2543,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2603,7 +2600,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2622,6 +2619,119 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="CAPEX"/>
+      <sheetName val="OPEX"/>
+      <sheetName val="Revenue"/>
+      <sheetName val="ADSL"/>
+      <sheetName val="FTTC_GPON_25"/>
+      <sheetName val="FTTB_XGPON_50"/>
+      <sheetName val="FTTB_UDWDM_50"/>
+      <sheetName val="FTTH_UDWDM_100"/>
+      <sheetName val="FTTH_XGPON_100"/>
+      <sheetName val="FTTC_GPON_100"/>
+      <sheetName val="FTTB_XGPON_100"/>
+      <sheetName val="FTTB_UDWDM_100"/>
+      <sheetName val="FTTC_Hybridpon_25"/>
+      <sheetName val="FTTB_Hybridpon_50"/>
+      <sheetName val="FTTH_Hybridpon_100"/>
+      <sheetName val="FTTC_Hybridpon_100"/>
+      <sheetName val="FTTB_Hybridpon_100"/>
+      <sheetName val="MIG_MATRIX"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="W3">
+            <v>535454.45404575672</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="W4">
+            <v>223279.17744087061</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="W5">
+            <v>187378.09492541171</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="W6">
+            <v>341886.09492541174</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="W7">
+            <v>349747.17744087061</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="W8">
+            <v>553226.45404575672</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="W9">
+            <v>229741.17744087061</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="W10">
+            <v>200378.09492541171</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="W11">
+            <v>503751.70772163133</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="W12">
+            <v>210813.81955322024</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="W13">
+            <v>387597.01955322025</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="W14">
+            <v>358997.70772163133</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="W15">
+            <v>226845.81955322024</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2667,7 +2777,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2700,9 +2810,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2735,6 +2862,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2913,31 +3057,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="9" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="9" width="19.109375" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" customWidth="1"/>
-    <col min="16" max="17" width="11.7109375" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.109375" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" customWidth="1"/>
+    <col min="16" max="17" width="11.6640625" customWidth="1"/>
+    <col min="23" max="23" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3008,7 +3152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -3045,7 +3189,7 @@
       </c>
       <c r="W2" s="10"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -3101,31 +3245,27 @@
         <v>1509710.9676034499</v>
       </c>
       <c r="R3" s="9">
-        <f t="shared" ref="R3:R15" si="0">L3*$R$46+M3*$S$46+N3*$V$46</f>
         <v>170187.83055482313</v>
       </c>
       <c r="S3" s="9">
-        <f t="shared" ref="S3:S15" si="1">(O3+P3+Q3)*$P$27</f>
         <v>35.517736249908381</v>
       </c>
       <c r="T3" s="9">
-        <f t="shared" ref="T3:T15" si="2">G3*B3</f>
-        <v>2779.52</v>
+        <v>3198.8888888888887</v>
       </c>
       <c r="U3" s="9">
-        <f t="shared" ref="U3:U15" si="3">B3*H3+B3*I3</f>
-        <v>8164.84</v>
+        <v>118366.39999999999</v>
       </c>
       <c r="V3" s="9">
-        <f t="shared" ref="V3:V15" si="4">SUM(T3,U3)</f>
-        <v>10944.36</v>
+        <f t="shared" ref="V3:V15" si="0">SUM(T3,U3)</f>
+        <v>121565.28888888888</v>
       </c>
       <c r="W3" s="10">
-        <f t="shared" ref="W3:W15" si="5">R3+S3+T3+U3</f>
-        <v>181167.70829107301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" ref="W3:W15" si="1">R3+S3+T3+U3</f>
+        <v>291788.63717996189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
@@ -3181,31 +3321,27 @@
         <v>1509710.9676034499</v>
       </c>
       <c r="R4" s="9">
+        <v>170187.83055482313</v>
+      </c>
+      <c r="S4" s="9">
+        <v>35.517736249908381</v>
+      </c>
+      <c r="T4" s="9">
+        <v>7420</v>
+      </c>
+      <c r="U4" s="9">
+        <v>100181.6</v>
+      </c>
+      <c r="V4" s="9">
         <f t="shared" si="0"/>
-        <v>170187.83055482313</v>
-      </c>
-      <c r="S4" s="9">
+        <v>107601.60000000001</v>
+      </c>
+      <c r="W4" s="10">
         <f t="shared" si="1"/>
-        <v>35.517736249908381</v>
-      </c>
-      <c r="T4" s="9">
-        <f t="shared" si="2"/>
-        <v>2605.5</v>
-      </c>
-      <c r="U4" s="9">
-        <f t="shared" si="3"/>
-        <v>20670.3</v>
-      </c>
-      <c r="V4" s="9">
-        <f t="shared" si="4"/>
-        <v>23275.8</v>
-      </c>
-      <c r="W4" s="10">
-        <f t="shared" si="5"/>
-        <v>193499.14829107301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <v>277824.94829107303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
@@ -3257,31 +3393,27 @@
         <v>1041452.25937157</v>
       </c>
       <c r="R5" s="9">
+        <v>123966.4385182156</v>
+      </c>
+      <c r="S5" s="9">
+        <v>23.727612871311063</v>
+      </c>
+      <c r="T5" s="9">
+        <v>6458</v>
+      </c>
+      <c r="U5" s="9">
+        <v>96800</v>
+      </c>
+      <c r="V5" s="9">
         <f t="shared" si="0"/>
-        <v>123966.4385182156</v>
-      </c>
-      <c r="S5" s="9">
+        <v>103258</v>
+      </c>
+      <c r="W5" s="10">
         <f t="shared" si="1"/>
-        <v>23.727612871311063</v>
-      </c>
-      <c r="T5" s="9">
-        <f t="shared" si="2"/>
-        <v>10248.299999999999</v>
-      </c>
-      <c r="U5" s="9">
-        <f t="shared" si="3"/>
-        <v>18759.599999999999</v>
-      </c>
-      <c r="V5" s="9">
-        <f t="shared" si="4"/>
-        <v>29007.899999999998</v>
-      </c>
-      <c r="W5" s="10">
-        <f t="shared" si="5"/>
-        <v>152998.0661310869</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>227248.16613108691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
@@ -3337,31 +3469,27 @@
         <v>1041452.25937157</v>
       </c>
       <c r="R6" s="9">
+        <v>123966.4385182156</v>
+      </c>
+      <c r="S6" s="9">
+        <v>23.727612871311063</v>
+      </c>
+      <c r="T6" s="9">
+        <v>7164</v>
+      </c>
+      <c r="U6" s="9">
+        <v>278720</v>
+      </c>
+      <c r="V6" s="9">
         <f t="shared" si="0"/>
-        <v>123966.4385182156</v>
-      </c>
-      <c r="S6" s="9">
+        <v>285884</v>
+      </c>
+      <c r="W6" s="10">
         <f t="shared" si="1"/>
-        <v>23.727612871311063</v>
-      </c>
-      <c r="T6" s="9">
-        <f t="shared" si="2"/>
-        <v>46085.746666666666</v>
-      </c>
-      <c r="U6" s="9">
-        <f t="shared" si="3"/>
-        <v>231355.08</v>
-      </c>
-      <c r="V6" s="9">
-        <f t="shared" si="4"/>
-        <v>277440.82666666666</v>
-      </c>
-      <c r="W6" s="10">
-        <f t="shared" si="5"/>
-        <v>401430.99279775354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v>409874.16613108688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
@@ -3417,31 +3545,27 @@
         <v>1509710.9676034499</v>
       </c>
       <c r="R7" s="9">
+        <v>170187.83055482313</v>
+      </c>
+      <c r="S7" s="9">
+        <v>35.517736249908381</v>
+      </c>
+      <c r="T7" s="9">
+        <v>29050</v>
+      </c>
+      <c r="U7" s="9">
+        <v>262692.8</v>
+      </c>
+      <c r="V7" s="9">
         <f t="shared" si="0"/>
-        <v>170187.83055482313</v>
-      </c>
-      <c r="S7" s="9">
+        <v>291742.8</v>
+      </c>
+      <c r="W7" s="10">
         <f t="shared" si="1"/>
-        <v>35.517736249908381</v>
-      </c>
-      <c r="T7" s="9">
-        <f t="shared" si="2"/>
-        <v>20842.8</v>
-      </c>
-      <c r="U7" s="9">
-        <f t="shared" si="3"/>
-        <v>165352.88</v>
-      </c>
-      <c r="V7" s="9">
-        <f t="shared" si="4"/>
-        <v>186195.68</v>
-      </c>
-      <c r="W7" s="10">
-        <f t="shared" si="5"/>
-        <v>356419.02829107305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+        <v>461966.14829107304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
@@ -3495,31 +3619,27 @@
         <v>1509710.9676034499</v>
       </c>
       <c r="R8" s="9">
+        <v>170187.83055482313</v>
+      </c>
+      <c r="S8" s="9">
+        <v>35.517736249908381</v>
+      </c>
+      <c r="T8" s="9">
+        <v>7690</v>
+      </c>
+      <c r="U8" s="9">
+        <v>148579.6</v>
+      </c>
+      <c r="V8" s="9">
         <f t="shared" si="0"/>
-        <v>170187.83055482313</v>
-      </c>
-      <c r="S8" s="9">
+        <v>156269.6</v>
+      </c>
+      <c r="W8" s="10">
         <f t="shared" si="1"/>
-        <v>35.517736249908381</v>
-      </c>
-      <c r="T8" s="9">
-        <f t="shared" si="2"/>
-        <v>11290.5</v>
-      </c>
-      <c r="U8" s="9">
-        <f t="shared" si="3"/>
-        <v>22407.300000000003</v>
-      </c>
-      <c r="V8" s="9">
-        <f t="shared" si="4"/>
-        <v>33697.800000000003</v>
-      </c>
-      <c r="W8" s="10">
-        <f t="shared" si="5"/>
-        <v>203921.14829107304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+        <v>326492.94829107303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
@@ -3573,31 +3693,27 @@
         <v>1509710.9676034499</v>
       </c>
       <c r="R9" s="9">
+        <v>170187.83055482313</v>
+      </c>
+      <c r="S9" s="9">
+        <v>35.517736249908381</v>
+      </c>
+      <c r="T9" s="9">
+        <v>14840</v>
+      </c>
+      <c r="U9" s="9">
+        <v>61989.9</v>
+      </c>
+      <c r="V9" s="9">
         <f t="shared" si="0"/>
-        <v>170187.83055482313</v>
-      </c>
-      <c r="S9" s="9">
+        <v>76829.899999999994</v>
+      </c>
+      <c r="W9" s="10">
         <f t="shared" si="1"/>
-        <v>35.517736249908381</v>
-      </c>
-      <c r="T9" s="9">
-        <f t="shared" si="2"/>
-        <v>6253.2</v>
-      </c>
-      <c r="U9" s="9">
-        <f t="shared" si="3"/>
-        <v>23796.9</v>
-      </c>
-      <c r="V9" s="9">
-        <f t="shared" si="4"/>
-        <v>30050.100000000002</v>
-      </c>
-      <c r="W9" s="10">
-        <f t="shared" si="5"/>
-        <v>200273.44829107303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+        <v>247053.24829107302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
@@ -3650,31 +3766,27 @@
         <v>1041452.25937157</v>
       </c>
       <c r="R10" s="9">
+        <v>123966.4385182156</v>
+      </c>
+      <c r="S10" s="9">
+        <v>23.727612871311063</v>
+      </c>
+      <c r="T10" s="9">
+        <v>13828</v>
+      </c>
+      <c r="U10" s="9">
+        <v>200640</v>
+      </c>
+      <c r="V10" s="9">
         <f t="shared" si="0"/>
-        <v>123966.4385182156</v>
-      </c>
-      <c r="S10" s="9">
+        <v>214468</v>
+      </c>
+      <c r="W10" s="10">
         <f t="shared" si="1"/>
-        <v>23.727612871311063</v>
-      </c>
-      <c r="T10" s="9">
-        <f t="shared" si="2"/>
-        <v>10422</v>
-      </c>
-      <c r="U10" s="9">
-        <f t="shared" si="3"/>
-        <v>18759.599999999999</v>
-      </c>
-      <c r="V10" s="9">
-        <f t="shared" si="4"/>
-        <v>29181.599999999999</v>
-      </c>
-      <c r="W10" s="10">
-        <f t="shared" si="5"/>
-        <v>153171.76613108692</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+        <v>338458.16613108688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
@@ -3728,31 +3840,27 @@
         <v>1544140.8019904599</v>
       </c>
       <c r="R11" s="9">
+        <v>162896.27914347179</v>
+      </c>
+      <c r="S11" s="9">
+        <v>33.851521342501684</v>
+      </c>
+      <c r="T11" s="9">
+        <v>4920</v>
+      </c>
+      <c r="U11" s="9">
+        <v>78450.2</v>
+      </c>
+      <c r="V11" s="9">
         <f t="shared" si="0"/>
-        <v>162896.27914347179</v>
-      </c>
-      <c r="S11" s="9">
+        <v>83370.2</v>
+      </c>
+      <c r="W11" s="10">
         <f t="shared" si="1"/>
-        <v>33.851521342501684</v>
-      </c>
-      <c r="T11" s="9">
-        <f t="shared" si="2"/>
-        <v>1563.3000000000002</v>
-      </c>
-      <c r="U11" s="9">
-        <f t="shared" si="3"/>
-        <v>7179.6000000000013</v>
-      </c>
-      <c r="V11" s="9">
-        <f t="shared" si="4"/>
-        <v>8742.9000000000015</v>
-      </c>
-      <c r="W11" s="10">
-        <f t="shared" si="5"/>
-        <v>171673.03066481429</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+        <v>246300.33066481428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
@@ -3806,31 +3914,27 @@
         <v>1544140.8019904599</v>
       </c>
       <c r="R12" s="9">
+        <v>148601.5257512136</v>
+      </c>
+      <c r="S12" s="9">
+        <v>33.851521342501684</v>
+      </c>
+      <c r="T12" s="9">
+        <v>10700</v>
+      </c>
+      <c r="U12" s="9">
+        <v>89988.6</v>
+      </c>
+      <c r="V12" s="9">
         <f t="shared" si="0"/>
-        <v>148601.5257512136</v>
-      </c>
-      <c r="S12" s="9">
+        <v>100688.6</v>
+      </c>
+      <c r="W12" s="10">
         <f t="shared" si="1"/>
-        <v>33.851521342501684</v>
-      </c>
-      <c r="T12" s="9">
-        <f t="shared" si="2"/>
-        <v>2431.8000000000002</v>
-      </c>
-      <c r="U12" s="9">
-        <f t="shared" si="3"/>
-        <v>29007.9</v>
-      </c>
-      <c r="V12" s="9">
-        <f t="shared" si="4"/>
-        <v>31439.7</v>
-      </c>
-      <c r="W12" s="10">
-        <f t="shared" si="5"/>
-        <v>180075.07727255608</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+        <v>249323.97727255611</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
@@ -3884,31 +3988,27 @@
         <v>1544140.8019904599</v>
       </c>
       <c r="R13" s="9">
+        <v>148601.5257512136</v>
+      </c>
+      <c r="S13" s="9">
+        <v>33.851521342501684</v>
+      </c>
+      <c r="T13" s="9">
+        <v>21000</v>
+      </c>
+      <c r="U13" s="9">
+        <v>355977.2</v>
+      </c>
+      <c r="V13" s="9">
         <f t="shared" si="0"/>
-        <v>148601.5257512136</v>
-      </c>
-      <c r="S13" s="9">
+        <v>376977.2</v>
+      </c>
+      <c r="W13" s="10">
         <f t="shared" si="1"/>
-        <v>33.851521342501684</v>
-      </c>
-      <c r="T13" s="9">
-        <f t="shared" si="2"/>
-        <v>37517.040000000001</v>
-      </c>
-      <c r="U13" s="9">
-        <f t="shared" si="3"/>
-        <v>234828.88</v>
-      </c>
-      <c r="V13" s="9">
-        <f t="shared" si="4"/>
-        <v>272345.92</v>
-      </c>
-      <c r="W13" s="10">
-        <f t="shared" si="5"/>
-        <v>420981.29727255611</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+        <v>525612.57727255614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
@@ -3962,31 +4062,27 @@
         <v>1544140.8019904599</v>
       </c>
       <c r="R14" s="9">
+        <v>148601.5257512136</v>
+      </c>
+      <c r="S14" s="9">
+        <v>33.851521342501684</v>
+      </c>
+      <c r="T14" s="9">
+        <v>34480</v>
+      </c>
+      <c r="U14" s="9">
+        <v>260532.4</v>
+      </c>
+      <c r="V14" s="9">
         <f t="shared" si="0"/>
-        <v>148601.5257512136</v>
-      </c>
-      <c r="S14" s="9">
+        <v>295012.40000000002</v>
+      </c>
+      <c r="W14" s="10">
         <f t="shared" si="1"/>
-        <v>33.851521342501684</v>
-      </c>
-      <c r="T14" s="9">
-        <f t="shared" si="2"/>
-        <v>4689.9000000000005</v>
-      </c>
-      <c r="U14" s="9">
-        <f t="shared" si="3"/>
-        <v>21538.799999999999</v>
-      </c>
-      <c r="V14" s="9">
-        <f t="shared" si="4"/>
-        <v>26228.7</v>
-      </c>
-      <c r="W14" s="10">
-        <f t="shared" si="5"/>
-        <v>174864.07727255608</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+        <v>443647.77727255609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
@@ -4040,31 +4136,27 @@
         <v>1544140.8019904599</v>
       </c>
       <c r="R15" s="9">
+        <v>148601.5257512136</v>
+      </c>
+      <c r="S15" s="9">
+        <v>33.851521342501684</v>
+      </c>
+      <c r="T15" s="9">
+        <v>21000</v>
+      </c>
+      <c r="U15" s="9">
+        <v>215177.2</v>
+      </c>
+      <c r="V15" s="9">
         <f t="shared" si="0"/>
-        <v>148601.5257512136</v>
-      </c>
-      <c r="S15" s="9">
+        <v>236177.2</v>
+      </c>
+      <c r="W15" s="10">
         <f t="shared" si="1"/>
-        <v>33.851521342501684</v>
-      </c>
-      <c r="T15" s="9">
-        <f t="shared" si="2"/>
-        <v>4689.9000000000005</v>
-      </c>
-      <c r="U15" s="9">
-        <f t="shared" si="3"/>
-        <v>29355.3</v>
-      </c>
-      <c r="V15" s="9">
-        <f t="shared" si="4"/>
-        <v>34045.199999999997</v>
-      </c>
-      <c r="W15" s="10">
-        <f t="shared" si="5"/>
-        <v>182680.57727255608</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>384812.57727255614</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>7895*8</f>
         <v>63160</v>
@@ -4074,7 +4166,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="42" spans="17:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="17:24" x14ac:dyDescent="0.3">
       <c r="Q42" s="5" t="s">
         <v>54</v>
       </c>
@@ -4088,12 +4180,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="17:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="17:24" x14ac:dyDescent="0.3">
       <c r="R43" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="17:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="17:24" x14ac:dyDescent="0.3">
       <c r="Q44" t="s">
         <v>57</v>
       </c>
@@ -4113,7 +4205,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="17:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="17:24" x14ac:dyDescent="0.3">
       <c r="R45" t="s">
         <v>59</v>
       </c>
@@ -4124,7 +4216,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="17:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="17:24" x14ac:dyDescent="0.3">
       <c r="Q46" t="s">
         <v>62</v>
       </c>
@@ -4141,7 +4233,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -4187,9 +4279,9 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -4254,7 +4346,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -4319,7 +4411,7 @@
         <v>-1481.815837057527</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -4384,7 +4476,7 @@
         <v>-528.92348823411544</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -4449,7 +4541,7 @@
         <v>967.0943495392338</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -4514,7 +4606,7 @@
         <v>3466.7048557043358</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -4579,7 +4671,7 @@
         <v>7749.5964503397781</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -4644,7 +4736,7 @@
         <v>15017.71747020662</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -4709,7 +4801,7 @@
         <v>26989.860446771214</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -4774,7 +4866,7 @@
         <v>45109.772045897487</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -4839,7 +4931,7 @@
         <v>68154.015117732575</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -4904,7 +4996,7 @@
         <v>88325.19269102918</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -4969,7 +5061,7 @@
         <v>94684.10528062754</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -5034,7 +5126,7 @@
         <v>88877.606590680312</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -5099,7 +5191,7 @@
         <v>80916.354837534003</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -5164,7 +5256,7 @@
         <v>73577.702442360562</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -5229,7 +5321,7 @@
         <v>66898.300327300967</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -5294,7 +5386,7 @@
         <v>60822.382070367559</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -5359,7 +5451,7 @@
         <v>55295.68615905453</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -5424,7 +5516,7 @@
         <v>50268.805599140484</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -5489,7 +5581,7 @@
         <v>45701.07248651571</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -5554,7 +5646,7 @@
         <v>41546.429533196089</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -5636,9 +5728,9 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -5703,7 +5795,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -5768,7 +5860,7 @@
         <v>-994.38886446740912</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -5833,7 +5925,7 @@
         <v>-85.808058606735557</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -5898,7 +5990,7 @@
         <v>1369.9265582913972</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -5963,7 +6055,7 @@
         <v>3832.9159545699395</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -6028,7 +6120,7 @@
         <v>8082.5156311266901</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -6093,7 +6185,7 @@
         <v>15320.371270921994</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -6158,7 +6250,7 @@
         <v>27265.000265603372</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -6223,7 +6315,7 @@
         <v>45359.899153926723</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -6288,7 +6380,7 @@
         <v>68381.403397759161</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -6353,7 +6445,7 @@
         <v>88531.909309235169</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -6418,7 +6510,7 @@
         <v>94872.029478996614</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -6483,7 +6575,7 @@
         <v>89048.446771015835</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -6548,7 +6640,7 @@
         <v>81071.664092384468</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -6613,7 +6705,7 @@
         <v>73718.892674042814</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -6678,7 +6770,7 @@
         <v>67026.655083375736</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -6743,7 +6835,7 @@
         <v>60939.068212253711</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -6808,7 +6900,7 @@
         <v>55401.764469860129</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -6873,7 +6965,7 @@
         <v>50365.240427145567</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -6938,7 +7030,7 @@
         <v>45788.74051197488</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -7003,7 +7095,7 @@
         <v>41626.127738158968</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -7085,12 +7177,12 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="19" max="19" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -7155,7 +7247,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -7220,7 +7312,7 @@
         <v>-1406.1283124115794</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -7285,7 +7377,7 @@
         <v>-460.11664764689033</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -7350,7 +7442,7 @@
         <v>1029.6460228003475</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -7415,7 +7507,7 @@
         <v>3523.5700132144393</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -7480,7 +7572,7 @@
         <v>7801.2920480762359</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -7545,7 +7637,7 @@
         <v>15064.713468148853</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -7610,7 +7702,7 @@
         <v>27032.584081264151</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -7675,7 +7767,7 @@
         <v>45148.611713618346</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -7740,7 +7832,7 @@
         <v>68189.323906569727</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -7805,7 +7897,7 @@
         <v>88357.291589972039</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -7870,7 +7962,7 @@
         <v>94713.286097848322</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -7935,7 +8027,7 @@
         <v>88904.134606335574</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -8000,7 +8092,7 @@
         <v>80940.471215402416</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -8065,7 +8157,7 @@
         <v>73599.626422240937</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -8130,7 +8222,7 @@
         <v>66918.231218101311</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -8195,7 +8287,7 @@
         <v>60840.50106200423</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -8260,7 +8352,7 @@
         <v>55312.157969633328</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -8325,7 +8417,7 @@
         <v>50283.779972393932</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -8390,7 +8482,7 @@
         <v>45714.685553109754</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -8455,7 +8547,7 @@
         <v>41558.805048281589</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -8520,7 +8612,7 @@
         <v>37780.731862074172</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8538,9 +8630,9 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -8605,7 +8697,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -8670,7 +8762,7 @@
         <v>-1020.7415413371182</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -8735,7 +8827,7 @@
         <v>-437.0377648519256</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -8800,7 +8892,7 @@
         <v>471.45327162221639</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -8865,7 +8957,7 @@
         <v>1981.110787875944</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -8930,7 +9022,7 @@
         <v>4559.8377560705421</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -8995,7 +9087,7 @@
         <v>8928.8849238209477</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -9060,7 +9152,7 @@
         <v>16119.602124150888</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -9125,7 +9217,7 @@
         <v>26998.304914891367</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -9190,7 +9282,7 @@
         <v>40830.992422778523</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -9255,7 +9347,7 @@
         <v>52939.282298380218</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -9320,7 +9412,7 @@
         <v>56759.70560816081</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -9385,7 +9477,7 @@
         <v>53280.42071784845</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -9450,7 +9542,7 @@
         <v>48507.8645056479</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -9515,7 +9607,7 @@
         <v>44108.486559168618</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -9580,7 +9672,7 @@
         <v>40104.312099791743</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -9645,7 +9737,7 @@
         <v>36461.912790776136</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -9710,7 +9802,7 @@
         <v>33148.760375937811</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -9775,7 +9867,7 @@
         <v>30135.236705398009</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -9840,7 +9932,7 @@
         <v>27396.964715467355</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -9905,7 +9997,7 @@
         <v>24906.331559515769</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -9987,9 +10079,9 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -10054,7 +10146,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -10119,7 +10211,7 @@
         <v>-2095.3008073992692</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -10184,7 +10276,7 @@
         <v>-1250.2734612720628</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -10249,7 +10341,7 @@
         <v>21.734869917959294</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -10314,7 +10406,7 @@
         <v>2089.7815120967166</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -10379,7 +10471,7 @@
         <v>5578.2386398475028</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -10444,7 +10536,7 @@
         <v>11449.22986668864</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -10509,7 +10601,7 @@
         <v>21078.302803347287</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -10574,7 +10666,7 @@
         <v>35620.92167847282</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -10639,7 +10731,7 @@
         <v>54098.761223054084</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -10704,7 +10796,7 @@
         <v>70274.289724521557</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -10769,7 +10861,7 @@
         <v>75396.498380591322</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -10834,7 +10926,7 @@
         <v>70783.189050807239</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -10899,7 +10991,7 @@
         <v>64443.178213902633</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -10964,7 +11056,7 @@
         <v>58598.611357411573</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -11029,7 +11121,7 @@
         <v>53279.048810498163</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -11094,7 +11186,7 @@
         <v>48440.095245982578</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -11159,7 +11251,7 @@
         <v>44038.539463324109</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -11224,7 +11316,7 @@
         <v>40035.035875749185</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -11289,7 +11381,7 @@
         <v>36397.213804155115</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -11354,7 +11446,7 @@
         <v>33088.376185595553</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -11436,9 +11528,9 @@
       <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -11503,7 +11595,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -11568,7 +11660,7 @@
         <v>-11594.247855399268</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -11633,7 +11725,7 @@
         <v>-9722.0435049084244</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -11698,7 +11790,7 @@
         <v>-7390.2874838010466</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -11763,7 +11855,7 @@
         <v>-4130.9149927868266</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -11828,7 +11920,7 @@
         <v>842.66931534781224</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -11893,7 +11985,7 @@
         <v>8738.6928020321066</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -11958,7 +12050,7 @@
         <v>21281.656202976199</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -12023,7 +12115,7 @@
         <v>39920.495460629296</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -12088,7 +12180,7 @@
         <v>63436.49094930695</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -12153,7 +12245,7 @@
         <v>84036.534356096789</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -12218,7 +12310,7 @@
         <v>90785.324976143558</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -12283,7 +12375,7 @@
         <v>85333.260859331232</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -12348,7 +12440,7 @@
         <v>77694.222354489379</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -12413,7 +12505,7 @@
         <v>70648.491094138182</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -12478,7 +12570,7 @@
         <v>64235.380919826079</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -12543,7 +12635,7 @@
         <v>58401.546245390382</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -12608,7 +12700,7 @@
         <v>53094.926318166195</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -12673,7 +12765,7 @@
         <v>48268.114834696535</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -12738,7 +12830,7 @@
         <v>43882.262700657579</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -12803,7 +12895,7 @@
         <v>39892.966091506882</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -12885,9 +12977,9 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -12952,7 +13044,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -13017,7 +13109,7 @@
         <v>-1589.7435413371186</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -13082,7 +13174,7 @@
         <v>-627.03958303374418</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -13147,7 +13239,7 @@
         <v>877.89789972138954</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -13212,7 +13304,7 @@
         <v>3385.6171740517507</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -13277,7 +13369,7 @@
         <v>7675.8803761101553</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -13342,7 +13434,7 @@
         <v>14950.702857270597</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -13407,7 +13499,7 @@
         <v>26928.938071374829</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -13472,7 +13564,7 @@
         <v>45054.388068264416</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -13537,7 +13629,7 @@
         <v>68103.666047157065</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -13602,7 +13694,7 @@
         <v>88279.420808687806</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -13667,7 +13759,7 @@
         <v>94642.494478499022</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -13732,7 +13824,7 @@
         <v>88839.778588745292</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -13797,7 +13889,7 @@
         <v>80881.965744865796</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -13862,7 +13954,7 @@
         <v>73546.439630844019</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -13927,7 +14019,7 @@
         <v>66869.879589558652</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -13992,7 +14084,7 @@
         <v>60796.545036056363</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -14057,7 +14149,7 @@
         <v>55272.197946044354</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -14122,7 +14214,7 @@
         <v>50247.452678222136</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -14187,7 +14279,7 @@
         <v>45681.660740226303</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -14252,7 +14344,7 @@
         <v>41528.782491114813</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -14334,9 +14426,9 @@
       <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -14401,7 +14493,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -14466,7 +14558,7 @@
         <v>-2035.2108073992695</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -14531,7 +14623,7 @@
         <v>-1032.0098249084267</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -14596,7 +14688,7 @@
         <v>509.74313438076899</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -14661,7 +14753,7 @@
         <v>3050.9310237420955</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -14726,7 +14818,7 @@
         <v>7371.6202394650145</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -14791,7 +14883,7 @@
         <v>14674.102733047743</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -14856,7 +14948,7 @@
         <v>26677.483412990416</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -14921,7 +15013,7 @@
         <v>44825.792924278583</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -14986,7 +15078,7 @@
         <v>67895.852279897212</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -15051,7 +15143,7 @@
         <v>88090.499202087944</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -15116,7 +15208,7 @@
         <v>94470.747563408237</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -15181,7 +15273,7 @@
         <v>88683.645029571853</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -15246,7 +15338,7 @@
         <v>80740.026145617216</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -15311,7 +15403,7 @@
         <v>73417.403631527122</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -15376,7 +15468,7 @@
         <v>66752.574135634204</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -15441,7 +15533,7 @@
         <v>60689.903714306864</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -15506,7 +15598,7 @@
         <v>55175.251289908447</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -15571,7 +15663,7 @@
         <v>50159.319354462219</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -15636,7 +15728,7 @@
         <v>45601.539536808195</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -15701,7 +15793,7 @@
         <v>41455.945033461991</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -15780,30 +15872,30 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L2" sqref="L2"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -15850,7 +15942,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -15858,59 +15950,59 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>CAPEX!$W3</f>
-        <v>181167.70829107301</v>
+        <f>[1]CAPEX!$W3</f>
+        <v>535454.45404575672</v>
       </c>
       <c r="D2">
-        <f>CAPEX!$W4</f>
-        <v>193499.14829107301</v>
+        <f>[1]CAPEX!$W4</f>
+        <v>223279.17744087061</v>
       </c>
       <c r="E2">
-        <f>CAPEX!$W5</f>
-        <v>152998.0661310869</v>
+        <f>[1]CAPEX!$W5</f>
+        <v>187378.09492541171</v>
       </c>
       <c r="F2">
-        <f>CAPEX!$W6</f>
-        <v>401430.99279775354</v>
+        <f>[1]CAPEX!$W6</f>
+        <v>341886.09492541174</v>
       </c>
       <c r="G2">
-        <f>CAPEX!$W7</f>
-        <v>356419.02829107305</v>
+        <f>[1]CAPEX!$W7</f>
+        <v>349747.17744087061</v>
       </c>
       <c r="H2">
-        <f>CAPEX!$W8</f>
-        <v>203921.14829107304</v>
+        <f>[1]CAPEX!$W8</f>
+        <v>553226.45404575672</v>
       </c>
       <c r="I2">
-        <f>CAPEX!$W9</f>
-        <v>200273.44829107303</v>
+        <f>[1]CAPEX!$W9</f>
+        <v>229741.17744087061</v>
       </c>
       <c r="J2">
-        <f>CAPEX!$W10</f>
-        <v>153171.76613108692</v>
+        <f>[1]CAPEX!$W10</f>
+        <v>200378.09492541171</v>
       </c>
       <c r="K2">
-        <f>CAPEX!$W11</f>
-        <v>171673.03066481429</v>
+        <f>[1]CAPEX!$W11</f>
+        <v>503751.70772163133</v>
       </c>
       <c r="L2">
-        <f>CAPEX!$W12</f>
-        <v>180075.07727255608</v>
+        <f>[1]CAPEX!$W12</f>
+        <v>210813.81955322024</v>
       </c>
       <c r="M2">
-        <f>CAPEX!$W13</f>
-        <v>420981.29727255611</v>
+        <f>[1]CAPEX!$W13</f>
+        <v>387597.01955322025</v>
       </c>
       <c r="N2">
-        <f>CAPEX!$W14</f>
-        <v>174864.07727255608</v>
+        <f>[1]CAPEX!$W14</f>
+        <v>358997.70772163133</v>
       </c>
       <c r="O2">
-        <f>CAPEX!$W15</f>
-        <v>182680.57727255608</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <f>[1]CAPEX!$W15</f>
+        <v>226845.81955322024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -15921,8 +16013,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <f>D2-C2</f>
-        <v>12331.440000000002</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -15931,16 +16022,15 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <f>G2-C2</f>
-        <v>175251.32000000004</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f>H2-C2</f>
-        <v>22753.440000000031</v>
+        <v>17772</v>
       </c>
       <c r="I3">
         <f>D3+(I2-D2)</f>
-        <v>19105.74000000002</v>
+        <v>6462</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -15961,7 +16051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
@@ -15982,14 +16072,14 @@
       </c>
       <c r="G4">
         <f>G2-D2</f>
-        <v>162919.88000000003</v>
+        <v>126468</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
         <f>I2-D2</f>
-        <v>6774.3000000000175</v>
+        <v>6462</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -16010,7 +16100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
@@ -16028,7 +16118,7 @@
       </c>
       <c r="F5">
         <f>F2-E2</f>
-        <v>248432.92666666664</v>
+        <v>154508.00000000003</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -16041,7 +16131,7 @@
       </c>
       <c r="J5">
         <f>J2-E2</f>
-        <v>173.70000000001164</v>
+        <v>13000</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -16059,7 +16149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
@@ -16106,7 +16196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
@@ -16153,7 +16243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
@@ -16173,15 +16263,13 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <f>G2-H2</f>
-        <v>152497.88</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <f>I2-H2</f>
-        <v>-3647.7000000000116</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -16202,7 +16290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
@@ -16223,7 +16311,7 @@
       </c>
       <c r="G9">
         <f>G2-I2</f>
-        <v>156145.58000000002</v>
+        <v>120006</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -16250,7 +16338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
@@ -16268,7 +16356,7 @@
       </c>
       <c r="F10">
         <f>F2-J2</f>
-        <v>248259.22666666663</v>
+        <v>141508.00000000003</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -16298,7 +16386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
@@ -16333,23 +16421,20 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <f>L2-K2</f>
-        <v>8402.046607741795</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <f>M2-K2</f>
-        <v>249308.26660774183</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <f>N2-K2</f>
-        <v>3191.046607741795</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <f>L11+(O2-L2)</f>
-        <v>11007.546607741795</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
@@ -16388,17 +16473,17 @@
       </c>
       <c r="M12">
         <f>M2-L2</f>
-        <v>240906.22000000003</v>
+        <v>176783.2</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
         <f>O2-L2</f>
-        <v>2605.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16032</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
@@ -16445,7 +16530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
@@ -16484,17 +16569,16 @@
       </c>
       <c r="M14">
         <f>M2-N2</f>
-        <v>246117.22000000003</v>
+        <v>28599.311831588915</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <f>O2-N2</f>
-        <v>7816.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
@@ -16533,7 +16617,7 @@
       </c>
       <c r="M15">
         <f>M2-O2</f>
-        <v>238300.72000000003</v>
+        <v>160751.20000000001</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -16555,18 +16639,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -16577,129 +16661,128 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B2">
-        <f>AVERAGE(B3:B15)</f>
-        <v>51114.587309311035</v>
+        <v>20000</v>
       </c>
       <c r="C2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B3">
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="C3">
         <v>7.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B4">
-        <v>66109.823692218881</v>
+        <v>43709.823692218881</v>
       </c>
       <c r="C4">
         <v>9.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B5">
-        <v>66648.422052537615</v>
+        <v>44248.4220525376</v>
       </c>
       <c r="C5">
         <v>9.6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B6">
-        <v>8108.705667292159</v>
+        <v>10540.776519765759</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B7">
-        <v>8798.3519740095981</v>
+        <v>11938.918689039821</v>
       </c>
       <c r="C7">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B8">
-        <v>69659.850521829372</v>
+        <v>50983.71612182937</v>
       </c>
       <c r="C8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B9">
-        <v>70126.863400003014</v>
+        <v>47726.863400003029</v>
       </c>
       <c r="C9">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B10">
-        <v>70620.289169209602</v>
+        <v>48220.289169209609</v>
       </c>
       <c r="C10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B11">
-        <v>51210.227713520049</v>
+        <v>37682.867713520049</v>
       </c>
       <c r="C11">
         <v>7.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B12">
-        <v>67227.8721002112</v>
+        <v>44827.8721002112</v>
       </c>
       <c r="C12">
         <v>9.6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
@@ -16710,23 +16793,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B14">
-        <v>70921.654760442281</v>
+        <v>47419.574760442287</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B15">
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -16746,21 +16829,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:D49"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -16840,7 +16923,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
@@ -16888,31 +16971,31 @@
       </c>
       <c r="U2">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V2">
         <f>O2-U2</f>
-        <v>-28931.682118970366</v>
+        <v>-17785.442118970368</v>
       </c>
       <c r="W2">
         <f>P2-U2</f>
-        <v>-28931.682118970366</v>
+        <v>-17785.442118970368</v>
       </c>
       <c r="X2">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-28931.682118970366</v>
+        <v>-17785.442118970368</v>
       </c>
       <c r="Y2">
         <f>R2-$U2</f>
-        <v>-29082.882118970363</v>
+        <v>-17936.642118970365</v>
       </c>
       <c r="Z2">
         <f>S2-$U2</f>
-        <v>-29082.882118970363</v>
+        <v>-17936.642118970365</v>
       </c>
       <c r="AA2">
         <f>T2-$U2</f>
-        <v>-29082.882118970363</v>
+        <v>-17936.642118970365</v>
       </c>
       <c r="AB2">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -16920,30 +17003,30 @@
       </c>
       <c r="AC2">
         <f>V2*AB2</f>
-        <v>-28931.682118970366</v>
+        <v>-17785.442118970368</v>
       </c>
       <c r="AD2">
         <f>W2*AB2</f>
-        <v>-28931.682118970366</v>
+        <v>-17785.442118970368</v>
       </c>
       <c r="AE2">
         <f>X2*AB2</f>
-        <v>-28931.682118970366</v>
+        <v>-17785.442118970368</v>
       </c>
       <c r="AF2">
         <f>Y2*$AB2</f>
-        <v>-29082.882118970363</v>
+        <v>-17936.642118970365</v>
       </c>
       <c r="AG2">
         <f>Z2*$AB2</f>
-        <v>-29082.882118970363</v>
+        <v>-17936.642118970365</v>
       </c>
       <c r="AH2">
         <f>AA2*$AB2</f>
-        <v>-29082.882118970363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+        <v>-17936.642118970365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
@@ -16990,31 +17073,31 @@
       </c>
       <c r="U3">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-28442.082118970364</v>
+        <v>-17295.842118970366</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-28377.282118970365</v>
+        <v>-17231.042118970367</v>
       </c>
       <c r="X3">
         <f t="shared" si="1"/>
-        <v>-27642.882118970363</v>
+        <v>-16496.642118970365</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-28643.682118970366</v>
+        <v>-17497.442118970368</v>
       </c>
       <c r="Z3">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-28586.082118970364</v>
+        <v>-17439.842118970366</v>
       </c>
       <c r="AA3">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-27923.682118970366</v>
+        <v>-16777.442118970368</v>
       </c>
       <c r="AB3">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -17022,30 +17105,30 @@
       </c>
       <c r="AC3">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-25856.438289973055</v>
+        <v>-15723.492835427605</v>
       </c>
       <c r="AD3">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-25797.529199063967</v>
+        <v>-15664.583744518515</v>
       </c>
       <c r="AE3">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-25129.892835427603</v>
+        <v>-14996.947380882149</v>
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-26039.711017245787</v>
+        <v>-15906.765562700333</v>
       </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-25987.347380882147</v>
+        <v>-15854.401926336695</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-25385.165562700331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+        <v>-15252.220108154879</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -17092,31 +17175,31 @@
       </c>
       <c r="U4">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V4">
         <f t="shared" si="8"/>
-        <v>-27758.082118970364</v>
+        <v>-16611.842118970366</v>
       </c>
       <c r="W4">
         <f t="shared" si="9"/>
-        <v>-27578.082118970364</v>
+        <v>-16431.842118970366</v>
       </c>
       <c r="X4">
         <f t="shared" si="1"/>
-        <v>-25108.482118970365</v>
+        <v>-13962.242118970367</v>
       </c>
       <c r="Y4">
         <f t="shared" si="10"/>
-        <v>-28031.682118970366</v>
+        <v>-16885.442118970368</v>
       </c>
       <c r="Z4">
         <f t="shared" si="11"/>
-        <v>-27866.082118970364</v>
+        <v>-16719.842118970366</v>
       </c>
       <c r="AA4">
         <f t="shared" si="12"/>
-        <v>-25641.282118970365</v>
+        <v>-14495.042118970367</v>
       </c>
       <c r="AB4">
         <f t="shared" si="13"/>
@@ -17124,30 +17207,30 @@
       </c>
       <c r="AC4">
         <f t="shared" si="14"/>
-        <v>-22940.56373468625</v>
+        <v>-13728.79513964493</v>
       </c>
       <c r="AD4">
         <f t="shared" si="15"/>
-        <v>-22791.803404107737</v>
+        <v>-13580.034809066417</v>
       </c>
       <c r="AE4">
         <f t="shared" si="16"/>
-        <v>-20750.811668570546</v>
+        <v>-11539.043073529228</v>
       </c>
       <c r="AF4">
         <f t="shared" si="17"/>
-        <v>-23166.679437165589</v>
+        <v>-13954.910842124269</v>
       </c>
       <c r="AG4">
         <f t="shared" si="18"/>
-        <v>-23029.819933033355</v>
+        <v>-13818.051337992036</v>
       </c>
       <c r="AH4">
         <f t="shared" si="19"/>
-        <v>-21191.142247082942</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+        <v>-11979.373652041624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2021</v>
       </c>
@@ -17201,31 +17284,31 @@
       </c>
       <c r="U5">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V5">
         <f t="shared" si="8"/>
-        <v>-26800.482118970365</v>
+        <v>-15654.242118970367</v>
       </c>
       <c r="W5">
         <f t="shared" si="9"/>
-        <v>-26426.082118970364</v>
+        <v>-15279.842118970366</v>
       </c>
       <c r="X5">
         <f t="shared" si="1"/>
-        <v>-20147.682118970362</v>
+        <v>-9001.4421189703662</v>
       </c>
       <c r="Y5">
         <f t="shared" si="10"/>
-        <v>-27167.682118970366</v>
+        <v>-16021.442118970366</v>
       </c>
       <c r="Z5">
         <f t="shared" si="11"/>
-        <v>-26829.282118970365</v>
+        <v>-15683.042118970367</v>
       </c>
       <c r="AA5">
         <f t="shared" si="12"/>
-        <v>-21177.282118970365</v>
+        <v>-10031.042118970367</v>
       </c>
       <c r="AB5">
         <f t="shared" si="13"/>
@@ -17233,30 +17316,30 @@
       </c>
       <c r="AC5">
         <f t="shared" si="14"/>
-        <v>-20135.59888728051</v>
+        <v>-11761.263800879311</v>
       </c>
       <c r="AD5">
         <f t="shared" si="15"/>
-        <v>-19854.306625822956</v>
+        <v>-11479.971539421758</v>
       </c>
       <c r="AE5">
         <f t="shared" si="16"/>
-        <v>-15137.251779842492</v>
+        <v>-6762.9166934412951</v>
       </c>
       <c r="AF5">
         <f t="shared" si="17"/>
-        <v>-20411.481682171569</v>
+        <v>-12037.146595770369</v>
       </c>
       <c r="AG5">
         <f t="shared" si="18"/>
-        <v>-20157.236753546473</v>
+        <v>-11782.901667145275</v>
       </c>
       <c r="AH5">
         <f t="shared" si="19"/>
-        <v>-15910.805498850757</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+        <v>-7536.4704124495593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2022</v>
       </c>
@@ -17310,31 +17393,31 @@
       </c>
       <c r="U6">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V6">
         <f t="shared" si="8"/>
-        <v>-25482.882118970363</v>
+        <v>-14336.642118970365</v>
       </c>
       <c r="W6">
         <f t="shared" si="9"/>
-        <v>-24784.482118970365</v>
+        <v>-13638.242118970367</v>
       </c>
       <c r="X6">
         <f t="shared" si="1"/>
-        <v>-10478.082118970364</v>
+        <v>668.15788102963415</v>
       </c>
       <c r="Y6">
         <f t="shared" si="10"/>
-        <v>-25979.682118970362</v>
+        <v>-14833.442118970366</v>
       </c>
       <c r="Z6">
         <f t="shared" si="11"/>
-        <v>-25353.282118970365</v>
+        <v>-14207.042118970367</v>
       </c>
       <c r="AA6">
         <f t="shared" si="12"/>
-        <v>-12479.682118970362</v>
+        <v>-1333.4421189703644</v>
       </c>
       <c r="AB6">
         <f t="shared" si="13"/>
@@ -17342,30 +17425,30 @@
       </c>
       <c r="AC6">
         <f t="shared" si="14"/>
-        <v>-17405.151368738716</v>
+        <v>-9792.1194720103558</v>
       </c>
       <c r="AD6">
         <f t="shared" si="15"/>
-        <v>-16928.134771511755</v>
+        <v>-9315.1028747833916</v>
       </c>
       <c r="AE6">
         <f t="shared" si="16"/>
-        <v>-7156.6710736769082</v>
+        <v>456.36082305145413</v>
       </c>
       <c r="AF6">
         <f t="shared" si="17"/>
-        <v>-17744.472453364084</v>
+        <v>-10131.440556635724</v>
       </c>
       <c r="AG6">
         <f t="shared" si="18"/>
-        <v>-17316.632824923407</v>
+        <v>-9703.6009281950428</v>
       </c>
       <c r="AH6">
         <f t="shared" si="19"/>
-        <v>-8523.7908059356323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+        <v>-910.75890920726999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2023</v>
       </c>
@@ -17419,31 +17502,31 @@
       </c>
       <c r="U7">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V7">
         <f t="shared" si="8"/>
-        <v>-23675.682118970362</v>
+        <v>-12529.442118970366</v>
       </c>
       <c r="W7">
         <f t="shared" si="9"/>
-        <v>-22444.482118970365</v>
+        <v>-11298.242118970367</v>
       </c>
       <c r="X7">
         <f t="shared" si="1"/>
-        <v>8004.317881029634</v>
+        <v>19150.557881029632</v>
       </c>
       <c r="Y7">
         <f t="shared" si="10"/>
-        <v>-24352.482118970365</v>
+        <v>-13206.242118970367</v>
       </c>
       <c r="Z7">
         <f t="shared" si="11"/>
-        <v>-23243.682118970362</v>
+        <v>-12097.442118970366</v>
       </c>
       <c r="AA7">
         <f t="shared" si="12"/>
-        <v>4159.5178810296384</v>
+        <v>15305.757881029636</v>
       </c>
       <c r="AB7">
         <f t="shared" si="13"/>
@@ -17451,30 +17534,30 @@
       </c>
       <c r="AC7">
         <f t="shared" si="14"/>
-        <v>-14700.735865639053</v>
+        <v>-7779.7977777041815</v>
       </c>
       <c r="AD7">
         <f t="shared" si="15"/>
-        <v>-13936.257532688624</v>
+        <v>-7015.3194447537508</v>
       </c>
       <c r="AE7">
         <f t="shared" si="16"/>
-        <v>4970.0516488749718</v>
+        <v>11890.989736809846</v>
       </c>
       <c r="AF7">
         <f t="shared" si="17"/>
-        <v>-15120.975417085492</v>
+        <v>-8200.0373291506185</v>
       </c>
       <c r="AG7">
         <f t="shared" si="18"/>
-        <v>-14432.497854077499</v>
+        <v>-7511.5597661426264</v>
       </c>
       <c r="AH7">
         <f t="shared" si="19"/>
-        <v>2582.7333459771357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+        <v>9503.6714339120099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2024</v>
       </c>
@@ -17528,31 +17611,31 @@
       </c>
       <c r="U8">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V8">
         <f t="shared" si="8"/>
-        <v>-21184.482118970365</v>
+        <v>-10038.242118970365</v>
       </c>
       <c r="W8">
         <f t="shared" si="9"/>
-        <v>-19132.482118970365</v>
+        <v>-7986.2421189703655</v>
       </c>
       <c r="X8">
         <f t="shared" si="1"/>
-        <v>41988.317881029638</v>
+        <v>53134.557881029643</v>
       </c>
       <c r="Y8">
         <f t="shared" si="10"/>
-        <v>-22113.282118970365</v>
+        <v>-10967.042118970367</v>
       </c>
       <c r="Z8">
         <f t="shared" si="11"/>
-        <v>-20262.882118970367</v>
+        <v>-9116.6421189703669</v>
       </c>
       <c r="AA8">
         <f t="shared" si="12"/>
-        <v>34745.117881029641</v>
+        <v>45891.357881029631</v>
       </c>
       <c r="AB8">
         <f t="shared" si="13"/>
@@ -17560,30 +17643,30 @@
       </c>
       <c r="AC8">
         <f t="shared" si="14"/>
-        <v>-11958.087877849171</v>
+        <v>-5666.3259797265582</v>
       </c>
       <c r="AD8">
         <f t="shared" si="15"/>
-        <v>-10799.787373378822</v>
+        <v>-4508.0254752562078</v>
       </c>
       <c r="AE8">
         <f t="shared" si="16"/>
-        <v>23701.310810652089</v>
+        <v>29993.072708774704</v>
       </c>
       <c r="AF8">
         <f t="shared" si="17"/>
-        <v>-12482.37126408312</v>
+        <v>-6190.6093659605076</v>
       </c>
       <c r="AG8">
         <f t="shared" si="18"/>
-        <v>-11437.868703911612</v>
+        <v>-5146.1068057889979</v>
       </c>
       <c r="AH8">
         <f t="shared" si="19"/>
-        <v>19612.71324048657</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+        <v>25904.475138609178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2025</v>
       </c>
@@ -17636,31 +17719,31 @@
       </c>
       <c r="U9">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V9">
         <f t="shared" si="8"/>
-        <v>-17793.282118970365</v>
+        <v>-6647.0421189703666</v>
       </c>
       <c r="W9">
         <f t="shared" si="9"/>
-        <v>-14466.882118970365</v>
+        <v>-3320.6421189703669</v>
       </c>
       <c r="X9">
         <f t="shared" si="1"/>
-        <v>99696.317881029638</v>
+        <v>110842.55788102964</v>
       </c>
       <c r="Y9">
         <f t="shared" si="10"/>
-        <v>-19060.482118970365</v>
+        <v>-7914.2421189703655</v>
       </c>
       <c r="Z9">
         <f t="shared" si="11"/>
-        <v>-16065.282118970365</v>
+        <v>-4919.0421189703666</v>
       </c>
       <c r="AA9">
         <f t="shared" si="12"/>
-        <v>86678.717881029632</v>
+        <v>97824.957881029637</v>
       </c>
       <c r="AB9">
         <f t="shared" si="13"/>
@@ -17668,30 +17751,30 @@
       </c>
       <c r="AC9">
         <f t="shared" si="14"/>
-        <v>-9130.7671693189095</v>
+        <v>-3410.9836255710811</v>
       </c>
       <c r="AD9">
         <f t="shared" si="15"/>
-        <v>-7423.7980048362879</v>
+        <v>-1704.0144610884593</v>
       </c>
       <c r="AE9">
         <f t="shared" si="16"/>
-        <v>51159.974878359499</v>
+        <v>56879.758422107334</v>
       </c>
       <c r="AF9">
         <f t="shared" si="17"/>
-        <v>-9781.0411367408615</v>
+        <v>-4061.2575929930317</v>
       </c>
       <c r="AG9">
         <f t="shared" si="18"/>
-        <v>-8244.0299410162479</v>
+        <v>-2524.24639726842</v>
       </c>
       <c r="AH9">
         <f t="shared" si="19"/>
-        <v>44479.887758479454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+        <v>50199.671302227289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2026</v>
       </c>
@@ -17744,31 +17827,31 @@
       </c>
       <c r="U10">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V10">
         <f t="shared" si="8"/>
-        <v>-13192.482118970365</v>
+        <v>-2046.2421189703673</v>
       </c>
       <c r="W10">
         <f t="shared" si="9"/>
-        <v>-7943.6821189703624</v>
+        <v>3202.5578810296356</v>
       </c>
       <c r="X10">
         <f t="shared" si="1"/>
-        <v>183417.91788102966</v>
+        <v>194564.15788102965</v>
       </c>
       <c r="Y10">
         <f t="shared" si="10"/>
-        <v>-14920.482118970363</v>
+        <v>-3774.2421189703655</v>
       </c>
       <c r="Z10">
         <f t="shared" si="11"/>
-        <v>-10197.282118970365</v>
+        <v>948.95788102963343</v>
       </c>
       <c r="AA10">
         <f t="shared" si="12"/>
-        <v>162026.71788102965</v>
+        <v>173172.95788102964</v>
       </c>
       <c r="AB10">
         <f t="shared" si="13"/>
@@ -17776,30 +17859,30 @@
       </c>
       <c r="AC10">
         <f t="shared" si="14"/>
-        <v>-6154.390271784614</v>
+        <v>-954.58705019567913</v>
       </c>
       <c r="AD10">
         <f t="shared" si="15"/>
-        <v>-3705.7863345397654</v>
+        <v>1494.0168870491696</v>
       </c>
       <c r="AE10">
         <f t="shared" si="16"/>
-        <v>85565.81235420311</v>
+        <v>90765.61557579205</v>
       </c>
       <c r="AF10">
         <f t="shared" si="17"/>
-        <v>-6960.5150247870324</v>
+        <v>-1760.7118031980972</v>
       </c>
       <c r="AG10">
         <f t="shared" si="18"/>
-        <v>-4757.1073665804215</v>
+        <v>442.69585500851389</v>
       </c>
       <c r="AH10">
         <f t="shared" si="19"/>
-        <v>75586.659682660669</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+        <v>80786.462904249594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2027</v>
       </c>
@@ -17852,31 +17935,31 @@
       </c>
       <c r="U11">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V11">
         <f t="shared" si="8"/>
-        <v>-6978.8821189703631</v>
+        <v>4167.3578810296349</v>
       </c>
       <c r="W11">
         <f t="shared" si="9"/>
-        <v>1085.1178810296369</v>
+        <v>12231.357881029635</v>
       </c>
       <c r="X11">
         <f t="shared" si="1"/>
-        <v>272877.91788102966</v>
+        <v>284024.15788102965</v>
       </c>
       <c r="Y11">
         <f t="shared" si="10"/>
-        <v>-9326.0821189703638</v>
+        <v>1820.1578810296342</v>
       </c>
       <c r="Z11">
         <f t="shared" si="11"/>
-        <v>-2068.4821189703653</v>
+        <v>9077.7578810296327</v>
       </c>
       <c r="AA11">
         <f t="shared" si="12"/>
-        <v>242544.31788102968</v>
+        <v>253690.55788102967</v>
       </c>
       <c r="AB11">
         <f t="shared" si="13"/>
@@ -17884,30 +17967,30 @@
       </c>
       <c r="AC11">
         <f t="shared" si="14"/>
-        <v>-2959.7272855576502</v>
+        <v>1767.3665522504725</v>
       </c>
       <c r="AD11">
         <f t="shared" si="15"/>
-        <v>460.19590899806616</v>
+        <v>5187.2897468061892</v>
       </c>
       <c r="AE11">
         <f t="shared" si="16"/>
-        <v>115726.87507978712</v>
+        <v>120453.96891759524</v>
       </c>
       <c r="AF11">
         <f t="shared" si="17"/>
-        <v>-3955.1692154015464</v>
+        <v>771.92462240657608</v>
       </c>
       <c r="AG11">
         <f t="shared" si="18"/>
-        <v>-877.23834030140233</v>
+        <v>3849.85549750672</v>
       </c>
       <c r="AH11">
         <f t="shared" si="19"/>
-        <v>102862.46756312353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+        <v>107589.56140093165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2028</v>
       </c>
@@ -17961,31 +18044,31 @@
       </c>
       <c r="U12">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V12">
         <f t="shared" si="8"/>
-        <v>1337.1178810296369</v>
+        <v>12483.357881029635</v>
       </c>
       <c r="W12">
         <f t="shared" si="9"/>
-        <v>13425.91788102964</v>
+        <v>24572.157881029638</v>
       </c>
       <c r="X12">
         <f t="shared" si="1"/>
-        <v>326589.91788102966</v>
+        <v>337736.15788102965</v>
       </c>
       <c r="Y12">
         <f t="shared" si="10"/>
-        <v>-1845.2821189703645</v>
+        <v>9300.9578810296334</v>
       </c>
       <c r="Z12">
         <f t="shared" si="11"/>
-        <v>9033.9178810296398</v>
+        <v>20180.157881029638</v>
       </c>
       <c r="AA12">
         <f t="shared" si="12"/>
-        <v>290885.11788102967</v>
+        <v>302031.35788102966</v>
       </c>
       <c r="AB12">
         <f t="shared" si="13"/>
@@ -17993,30 +18076,30 @@
       </c>
       <c r="AC12">
         <f t="shared" si="14"/>
-        <v>515.51682620721112</v>
+        <v>4812.8748605782312</v>
       </c>
       <c r="AD12">
         <f t="shared" si="15"/>
-        <v>5176.2725434629319</v>
+        <v>9473.630577833952</v>
       </c>
       <c r="AE12">
         <f t="shared" si="16"/>
-        <v>125914.55123437273</v>
+        <v>130211.90926874375</v>
       </c>
       <c r="AF12">
         <f t="shared" si="17"/>
-        <v>-711.43613807333043</v>
+        <v>3585.9218962976897</v>
       </c>
       <c r="AG12">
         <f t="shared" si="18"/>
-        <v>3482.9664162884301</v>
+        <v>7780.3244506594501</v>
       </c>
       <c r="AH12">
         <f t="shared" si="19"/>
-        <v>112148.8051939492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+        <v>116446.16322832022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2029</v>
       </c>
@@ -18069,31 +18152,31 @@
       </c>
       <c r="U13">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V13">
         <f t="shared" si="8"/>
-        <v>12324.317881029634</v>
+        <v>23470.557881029632</v>
       </c>
       <c r="W13">
         <f t="shared" si="9"/>
-        <v>29985.91788102964</v>
+        <v>41132.157881029634</v>
       </c>
       <c r="X13">
         <f t="shared" si="1"/>
-        <v>338095.51788102963</v>
+        <v>349241.75788102963</v>
       </c>
       <c r="Y13">
         <f t="shared" si="10"/>
-        <v>8047.5178810296384</v>
+        <v>19193.757881029636</v>
       </c>
       <c r="Z13">
         <f t="shared" si="11"/>
-        <v>23937.91788102964</v>
+        <v>35084.157881029634</v>
       </c>
       <c r="AA13">
         <f t="shared" si="12"/>
-        <v>301238.71788102965</v>
+        <v>312384.95788102964</v>
       </c>
       <c r="AB13">
         <f t="shared" si="13"/>
@@ -18101,30 +18184,30 @@
       </c>
       <c r="AC13">
         <f t="shared" si="14"/>
-        <v>4319.5982325703253</v>
+        <v>8226.2873547257968</v>
       </c>
       <c r="AD13">
         <f t="shared" si="15"/>
-        <v>10509.881287650884</v>
+        <v>14416.570409806354</v>
       </c>
       <c r="AE13">
         <f t="shared" si="16"/>
-        <v>118500.41645930284</v>
+        <v>122407.10558145831</v>
       </c>
       <c r="AF13">
         <f t="shared" si="17"/>
-        <v>2820.6059232683083</v>
+        <v>6727.2950454237807</v>
       </c>
       <c r="AG13">
         <f t="shared" si="18"/>
-        <v>8390.0941835874237</v>
+        <v>12296.783305742894</v>
       </c>
       <c r="AH13">
         <f t="shared" si="19"/>
-        <v>105582.33290489706</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+        <v>109489.02202705253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2030</v>
       </c>
@@ -18171,31 +18254,31 @@
       </c>
       <c r="U14">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V14">
         <f t="shared" si="8"/>
-        <v>26645.117881029637</v>
+        <v>37791.357881029631</v>
       </c>
       <c r="W14">
         <f t="shared" si="9"/>
-        <v>51643.517881029635</v>
+        <v>62789.75788102964</v>
       </c>
       <c r="X14">
         <f t="shared" si="1"/>
-        <v>338628.31788102968</v>
+        <v>349774.55788102967</v>
       </c>
       <c r="Y14">
         <f t="shared" si="10"/>
-        <v>20935.517881029638</v>
+        <v>32081.757881029636</v>
       </c>
       <c r="Z14">
         <f t="shared" si="11"/>
-        <v>43435.517881029635</v>
+        <v>54581.75788102964</v>
       </c>
       <c r="AA14">
         <f t="shared" si="12"/>
-        <v>301721.11788102967</v>
+        <v>312867.35788102966</v>
       </c>
       <c r="AB14">
         <f t="shared" si="13"/>
@@ -18203,30 +18286,30 @@
       </c>
       <c r="AC14">
         <f t="shared" si="14"/>
-        <v>8489.9556984213159</v>
+        <v>12041.491264017199</v>
       </c>
       <c r="AD14">
         <f t="shared" si="15"/>
-        <v>16455.216331871892</v>
+        <v>20006.751897467781</v>
       </c>
       <c r="AE14">
         <f t="shared" si="16"/>
-        <v>107897.41782631504</v>
+        <v>111448.95339191092</v>
       </c>
       <c r="AF14">
         <f t="shared" si="17"/>
-        <v>6670.7011816222648</v>
+        <v>10222.236747218149</v>
       </c>
       <c r="AG14">
         <f t="shared" si="18"/>
-        <v>13839.894580105287</v>
+        <v>17391.430145701172</v>
       </c>
       <c r="AH14">
         <f t="shared" si="19"/>
-        <v>96137.646510915365</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+        <v>99689.18207651125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2031</v>
       </c>
@@ -18273,31 +18356,31 @@
       </c>
       <c r="U15">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V15">
         <f t="shared" si="8"/>
-        <v>44933.117881029641</v>
+        <v>56079.357881029646</v>
       </c>
       <c r="W15">
         <f t="shared" si="9"/>
-        <v>79010.717881029632</v>
+        <v>90156.957881029637</v>
       </c>
       <c r="X15">
         <f t="shared" si="1"/>
-        <v>338707.51788102963</v>
+        <v>349853.75788102963</v>
       </c>
       <c r="Y15">
         <f t="shared" si="10"/>
-        <v>37394.717881029632</v>
+        <v>48540.957881029637</v>
       </c>
       <c r="Z15">
         <f t="shared" si="11"/>
-        <v>68066.717881029632</v>
+        <v>79212.957881029637</v>
       </c>
       <c r="AA15">
         <f t="shared" si="12"/>
-        <v>301793.11788102967</v>
+        <v>312939.35788102966</v>
       </c>
       <c r="AB15">
         <f t="shared" si="13"/>
@@ -18305,30 +18388,30 @@
       </c>
       <c r="AC15">
         <f t="shared" si="14"/>
-        <v>13015.523720643927</v>
+        <v>16244.192416640186</v>
       </c>
       <c r="AD15">
         <f t="shared" si="15"/>
-        <v>22886.590587558876</v>
+        <v>26115.259283555137</v>
       </c>
       <c r="AE15">
         <f t="shared" si="16"/>
-        <v>98111.503079161543</v>
+        <v>101340.1717751578</v>
       </c>
       <c r="AF15">
         <f t="shared" si="17"/>
-        <v>10831.917760436876</v>
+        <v>14060.586456433137</v>
       </c>
       <c r="AG15">
         <f t="shared" si="18"/>
-        <v>19716.503615720565</v>
+        <v>22945.172311716826</v>
       </c>
       <c r="AH15">
         <f t="shared" si="19"/>
-        <v>87418.716299809559</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+        <v>90647.384995805813</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2032</v>
       </c>
@@ -18375,31 +18458,31 @@
       </c>
       <c r="U16">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V16">
         <f t="shared" si="8"/>
-        <v>67656.317881029638</v>
+        <v>78802.557881029643</v>
       </c>
       <c r="W16">
         <f t="shared" si="9"/>
-        <v>112022.71788102963</v>
+        <v>123168.95788102964</v>
       </c>
       <c r="X16">
         <f t="shared" si="1"/>
-        <v>338757.91788102966</v>
+        <v>349904.15788102965</v>
       </c>
       <c r="Y16">
         <f t="shared" si="10"/>
-        <v>57842.717881029632</v>
+        <v>68988.957881029637</v>
       </c>
       <c r="Z16">
         <f t="shared" si="11"/>
-        <v>97773.917881029629</v>
+        <v>108920.15788102963</v>
       </c>
       <c r="AA16">
         <f t="shared" si="12"/>
-        <v>301836.31788102968</v>
+        <v>312982.55788102967</v>
       </c>
       <c r="AB16">
         <f t="shared" si="13"/>
@@ -18407,30 +18490,30 @@
       </c>
       <c r="AC16">
         <f t="shared" si="14"/>
-        <v>17816.023049342384</v>
+        <v>20751.176409338983</v>
       </c>
       <c r="AD16">
         <f t="shared" si="15"/>
-        <v>29499.082810387637</v>
+        <v>32434.23617038424</v>
       </c>
       <c r="AE16">
         <f t="shared" si="16"/>
-        <v>89205.54742172749</v>
+        <v>92140.700781724096</v>
       </c>
       <c r="AF16">
         <f t="shared" si="17"/>
-        <v>15231.79545208424</v>
+        <v>18166.948812080838</v>
       </c>
       <c r="AG16">
         <f t="shared" si="18"/>
-        <v>25746.928434031168</v>
+        <v>28682.08179402777</v>
       </c>
       <c r="AH16">
         <f t="shared" si="19"/>
-        <v>79482.936182740144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+        <v>82418.08954273675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2033</v>
       </c>
@@ -18477,31 +18560,31 @@
       </c>
       <c r="U17">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V17">
         <f t="shared" si="8"/>
-        <v>94951.517881029635</v>
+        <v>106097.75788102964</v>
       </c>
       <c r="W17">
         <f t="shared" si="9"/>
-        <v>149541.91788102966</v>
+        <v>160688.15788102965</v>
       </c>
       <c r="X17">
         <f t="shared" si="1"/>
-        <v>338786.71788102965</v>
+        <v>349932.95788102964</v>
       </c>
       <c r="Y17">
         <f t="shared" si="10"/>
-        <v>82409.117881029641</v>
+        <v>93555.357881029646</v>
       </c>
       <c r="Z17">
         <f t="shared" si="11"/>
-        <v>131541.91788102966</v>
+        <v>142688.15788102965</v>
       </c>
       <c r="AA17">
         <f t="shared" si="12"/>
-        <v>301865.11788102967</v>
+        <v>313011.35788102966</v>
       </c>
       <c r="AB17">
         <f t="shared" si="13"/>
@@ -18509,30 +18592,30 @@
       </c>
       <c r="AC17">
         <f t="shared" si="14"/>
-        <v>22730.638456252447</v>
+        <v>25398.959692612993</v>
       </c>
       <c r="AD17">
         <f t="shared" si="15"/>
-        <v>35799.14618813483</v>
+        <v>38467.467424495371</v>
       </c>
       <c r="AE17">
         <f t="shared" si="16"/>
-        <v>81102.846692592284</v>
+        <v>83771.167928952826</v>
       </c>
       <c r="AF17">
         <f t="shared" si="17"/>
-        <v>19728.087616244655</v>
+        <v>22396.408852605196</v>
       </c>
       <c r="AG17">
         <f t="shared" si="18"/>
-        <v>31490.08929948989</v>
+        <v>34158.410535850431</v>
       </c>
       <c r="AH17">
         <f t="shared" si="19"/>
-        <v>72264.10920260378</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+        <v>74932.430438964322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2034</v>
       </c>
@@ -18579,31 +18662,31 @@
       </c>
       <c r="U18">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V18">
         <f t="shared" si="8"/>
-        <v>126336.31788102964</v>
+        <v>137482.55788102964</v>
       </c>
       <c r="W18">
         <f t="shared" si="9"/>
-        <v>189098.71788102965</v>
+        <v>200244.95788102964</v>
       </c>
       <c r="X18">
         <f t="shared" si="1"/>
-        <v>338801.11788102967</v>
+        <v>349947.35788102966</v>
       </c>
       <c r="Y18">
         <f t="shared" si="10"/>
-        <v>110654.71788102963</v>
+        <v>121800.95788102964</v>
       </c>
       <c r="Z18">
         <f t="shared" si="11"/>
-        <v>167145.91788102966</v>
+        <v>178292.15788102965</v>
       </c>
       <c r="AA18">
         <f t="shared" si="12"/>
-        <v>301872.31788102968</v>
+        <v>313018.55788102967</v>
       </c>
       <c r="AB18">
         <f t="shared" si="13"/>
@@ -18611,30 +18694,30 @@
       </c>
       <c r="AC18">
         <f t="shared" si="14"/>
-        <v>27494.46367935797</v>
+        <v>29920.210257867555</v>
       </c>
       <c r="AD18">
         <f t="shared" si="15"/>
-        <v>41153.390551473589</v>
+        <v>43579.137129983174</v>
       </c>
       <c r="AE18">
         <f t="shared" si="16"/>
-        <v>73732.994489184726</v>
+        <v>76158.741067694311</v>
       </c>
       <c r="AF18">
         <f t="shared" si="17"/>
-        <v>24081.690623551174</v>
+        <v>26507.437202060763</v>
       </c>
       <c r="AG18">
         <f t="shared" si="18"/>
-        <v>36375.821659299618</v>
+        <v>38801.568237809202</v>
       </c>
       <c r="AH18">
         <f t="shared" si="19"/>
-        <v>65696.211659417488</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+        <v>68121.958237927072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2035</v>
       </c>
@@ -18681,31 +18764,31 @@
       </c>
       <c r="U19">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V19">
         <f t="shared" si="8"/>
-        <v>160521.91788102966</v>
+        <v>171668.15788102965</v>
       </c>
       <c r="W19">
         <f t="shared" si="9"/>
-        <v>227273.11788102964</v>
+        <v>238419.35788102963</v>
       </c>
       <c r="X19">
         <f t="shared" si="1"/>
-        <v>338808.31788102968</v>
+        <v>349954.55788102967</v>
       </c>
       <c r="Y19">
         <f t="shared" si="10"/>
-        <v>141420.31788102965</v>
+        <v>152566.55788102964</v>
       </c>
       <c r="Z19">
         <f t="shared" si="11"/>
-        <v>201497.11788102964</v>
+        <v>212643.35788102963</v>
       </c>
       <c r="AA19">
         <f t="shared" si="12"/>
-        <v>301879.51788102963</v>
+        <v>313025.75788102963</v>
       </c>
       <c r="AB19">
         <f t="shared" si="13"/>
@@ -18713,30 +18796,30 @@
       </c>
       <c r="AC19">
         <f t="shared" si="14"/>
-        <v>31758.405694386976</v>
+        <v>33963.629856668413</v>
       </c>
       <c r="AD19">
         <f t="shared" si="15"/>
-        <v>44964.774757073668</v>
+        <v>47169.998919355108</v>
       </c>
       <c r="AE19">
         <f t="shared" si="16"/>
-        <v>67031.419471784015</v>
+        <v>69236.643634065447</v>
       </c>
       <c r="AF19">
         <f t="shared" si="17"/>
-        <v>27979.255966924156</v>
+        <v>30184.480129205596</v>
       </c>
       <c r="AG19">
         <f t="shared" si="18"/>
-        <v>39865.130571503789</v>
+        <v>42070.354733785221</v>
       </c>
       <c r="AH19">
         <f t="shared" si="19"/>
-        <v>59725.253262904698</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+        <v>61930.477425186138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2036</v>
       </c>
@@ -18783,31 +18866,31 @@
       </c>
       <c r="U20">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V20">
         <f t="shared" si="8"/>
-        <v>195463.51788102966</v>
+        <v>206609.75788102965</v>
       </c>
       <c r="W20">
         <f t="shared" si="9"/>
-        <v>260659.51788102963</v>
+        <v>271805.75788102963</v>
       </c>
       <c r="X20">
         <f t="shared" si="1"/>
-        <v>338815.51788102963</v>
+        <v>349961.75788102963</v>
       </c>
       <c r="Y20">
         <f t="shared" si="10"/>
-        <v>172869.91788102966</v>
+        <v>184016.15788102965</v>
       </c>
       <c r="Z20">
         <f t="shared" si="11"/>
-        <v>231549.91788102966</v>
+        <v>242696.15788102965</v>
       </c>
       <c r="AA20">
         <f t="shared" si="12"/>
-        <v>301886.71788102965</v>
+        <v>313032.95788102964</v>
       </c>
       <c r="AB20">
         <f t="shared" si="13"/>
@@ -18815,30 +18898,30 @@
       </c>
       <c r="AC20">
         <f t="shared" si="14"/>
-        <v>35155.831797479936</v>
+        <v>37160.58103591761</v>
       </c>
       <c r="AD20">
         <f t="shared" si="15"/>
-        <v>46881.905464401025</v>
+        <v>48886.654702838699</v>
       </c>
       <c r="AE20">
         <f t="shared" si="16"/>
-        <v>60938.949048545524</v>
+        <v>62943.698286983199</v>
       </c>
       <c r="AF20">
         <f t="shared" si="17"/>
-        <v>31092.174241787128</v>
+        <v>33096.923480224803</v>
       </c>
       <c r="AG20">
         <f t="shared" si="18"/>
-        <v>41646.288033659781</v>
+        <v>43651.037272097456</v>
       </c>
       <c r="AH20">
         <f t="shared" si="19"/>
-        <v>54296.979767746161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+        <v>56301.729006183828</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2037</v>
       </c>
@@ -18885,31 +18968,31 @@
       </c>
       <c r="U21">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V21">
         <f t="shared" si="8"/>
-        <v>228698.71788102965</v>
+        <v>239844.95788102964</v>
       </c>
       <c r="W21">
         <f t="shared" si="9"/>
-        <v>287083.51788102963</v>
+        <v>298229.75788102963</v>
       </c>
       <c r="X21">
         <f t="shared" si="1"/>
-        <v>338822.71788102965</v>
+        <v>349968.95788102964</v>
       </c>
       <c r="Y21">
         <f t="shared" si="10"/>
-        <v>202785.91788102966</v>
+        <v>213932.15788102965</v>
       </c>
       <c r="Z21">
         <f t="shared" si="11"/>
-        <v>255331.51788102963</v>
+        <v>266477.75788102963</v>
       </c>
       <c r="AA21">
         <f t="shared" si="12"/>
-        <v>301893.91788102966</v>
+        <v>313040.15788102965</v>
       </c>
       <c r="AB21">
         <f t="shared" si="13"/>
@@ -18917,30 +19000,30 @@
       </c>
       <c r="AC21">
         <f t="shared" si="14"/>
-        <v>37394.067865336932</v>
+        <v>39216.567173007541</v>
       </c>
       <c r="AD21">
         <f t="shared" si="15"/>
-        <v>46940.449208147336</v>
+        <v>48762.948515817952</v>
       </c>
       <c r="AE21">
         <f t="shared" si="16"/>
-        <v>55400.221847120782</v>
+        <v>57222.72115479139</v>
       </c>
       <c r="AF21">
         <f t="shared" si="17"/>
-        <v>33157.1180006465</v>
+        <v>34979.617308317116</v>
       </c>
       <c r="AG21">
         <f t="shared" si="18"/>
-        <v>41748.743483422477</v>
+        <v>43571.242791093086</v>
       </c>
       <c r="AH21">
         <f t="shared" si="19"/>
-        <v>49362.067955484992</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+        <v>51184.567263155608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2038</v>
       </c>
@@ -18987,31 +19070,31 @@
       </c>
       <c r="U22">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V22">
         <f t="shared" si="8"/>
-        <v>257988.31788102968</v>
+        <v>269134.55788102967</v>
       </c>
       <c r="W22">
         <f t="shared" si="9"/>
-        <v>306163.51788102963</v>
+        <v>317309.75788102963</v>
       </c>
       <c r="X22">
         <f t="shared" si="1"/>
-        <v>338822.71788102965</v>
+        <v>349968.95788102964</v>
       </c>
       <c r="Y22">
         <f t="shared" si="10"/>
-        <v>229145.11788102964</v>
+        <v>240291.35788102963</v>
       </c>
       <c r="Z22">
         <f t="shared" si="11"/>
-        <v>272503.51788102963</v>
+        <v>283649.75788102963</v>
       </c>
       <c r="AA22">
         <f t="shared" si="12"/>
-        <v>301893.91788102966</v>
+        <v>313040.15788102965</v>
       </c>
       <c r="AB22">
         <f t="shared" si="13"/>
@@ -19019,30 +19102,30 @@
       </c>
       <c r="AC22">
         <f t="shared" si="14"/>
-        <v>38348.319557682262</v>
+        <v>40005.137110110089</v>
       </c>
       <c r="AD22">
         <f t="shared" si="15"/>
-        <v>45509.256066470974</v>
+        <v>47166.073618898801</v>
       </c>
       <c r="AE22">
         <f t="shared" si="16"/>
-        <v>50363.83804283708</v>
+        <v>52020.655595264914</v>
       </c>
       <c r="AF22">
         <f t="shared" si="17"/>
-        <v>34060.961665856281</v>
+        <v>35717.779218284108</v>
       </c>
       <c r="AG22">
         <f t="shared" si="18"/>
-        <v>40505.911547178301</v>
+        <v>42162.729099606135</v>
       </c>
       <c r="AH22">
         <f t="shared" si="19"/>
-        <v>44874.607232259092</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+        <v>46531.424784686926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
         <v>29</v>
       </c>
@@ -19056,7 +19139,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -19079,7 +19162,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2018</v>
       </c>
@@ -19108,7 +19191,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2019</v>
       </c>
@@ -19137,7 +19220,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2020</v>
       </c>
@@ -19166,7 +19249,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2021</v>
       </c>
@@ -19195,7 +19278,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2022</v>
       </c>
@@ -19224,7 +19307,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2023</v>
       </c>
@@ -19253,7 +19336,7 @@
         <v>4804</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2024</v>
       </c>
@@ -19282,7 +19365,7 @@
         <v>9052</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2025</v>
       </c>
@@ -19311,7 +19394,7 @@
         <v>16265</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2026</v>
       </c>
@@ -19340,7 +19423,7 @@
         <v>26730</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2027</v>
       </c>
@@ -19369,7 +19452,7 @@
         <v>37913</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2028</v>
       </c>
@@ -19398,7 +19481,7 @@
         <v>44627</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2029</v>
       </c>
@@ -19427,7 +19510,7 @@
         <v>46065</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2030</v>
       </c>
@@ -19456,7 +19539,7 @@
         <v>46132</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2031</v>
       </c>
@@ -19485,7 +19568,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2032</v>
       </c>
@@ -19514,7 +19597,7 @@
         <v>46148</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2033</v>
       </c>
@@ -19543,7 +19626,7 @@
         <v>46152</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2034</v>
       </c>
@@ -19572,7 +19655,7 @@
         <v>46153</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2035</v>
       </c>
@@ -19601,7 +19684,7 @@
         <v>46154</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2036</v>
       </c>
@@ -19630,7 +19713,7 @@
         <v>46155</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>2037</v>
       </c>
@@ -19659,7 +19742,7 @@
         <v>46156</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>2038</v>
       </c>
@@ -19705,12 +19788,12 @@
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="19" max="19" width="14.85546875" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -19775,7 +19858,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -19840,7 +19923,7 @@
         <v>-2190.4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -19905,7 +19988,7 @@
         <v>-1745.8181818181818</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -19970,7 +20053,7 @@
         <v>-1152.7272727272725</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -20035,7 +20118,7 @@
         <v>-271.6754320060104</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -20100,7 +20183,7 @@
         <v>1132.4363089952869</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -20165,7 +20248,7 @@
         <v>3421.2764900559437</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -20230,7 +20313,7 @@
         <v>7111.4683603895064</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -20295,7 +20378,7 @@
         <v>12637.031819549376</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -20360,7 +20443,7 @@
         <v>19631.750176938076</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -20425,7 +20508,7 @@
         <v>25757.144754234483</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>2028</v>
       </c>
@@ -20490,7 +20573,7 @@
         <v>27732.128808666199</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>2029</v>
       </c>
@@ -20555,7 +20638,7 @@
         <v>26051.37036309313</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>2030</v>
       </c>
@@ -20620,7 +20703,7 @@
         <v>23718.623165704772</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>2031</v>
       </c>
@@ -20685,7 +20768,7 @@
         <v>21567.598654930509</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>2032</v>
       </c>
@@ -20750,7 +20833,7 @@
         <v>19609.751845665145</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>2033</v>
       </c>
@@ -20815,7 +20898,7 @@
         <v>17828.770755178317</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>2034</v>
       </c>
@@ -20880,7 +20963,7 @@
         <v>16208.756878687314</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>2035</v>
       </c>
@@ -20945,7 +21028,7 @@
         <v>14735.233526079377</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>2036</v>
       </c>
@@ -21010,7 +21093,7 @@
         <v>13396.314333534016</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>2037</v>
       </c>
@@ -21075,7 +21158,7 @@
         <v>12178.467575940011</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -21157,9 +21240,9 @@
       <selection activeCell="B17" sqref="B17:L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -21224,7 +21307,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -21289,7 +21372,7 @@
         <v>-926.8198370575268</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -21354,7 +21437,7 @@
         <v>-597.10894277956982</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -21419,7 +21502,7 @@
         <v>-108.44614632853451</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -21484,7 +21567,7 @@
         <v>677.67104653829676</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -21549,7 +21632,7 @@
         <v>1995.4785622173845</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -21614,7 +21697,7 @@
         <v>4205.860356621487</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -21679,7 +21762,7 @@
         <v>7824.7264209036366</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -21744,7 +21827,7 @@
         <v>13285.448238198587</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -21809,7 +21892,7 @@
         <v>20221.219648437356</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -21874,7 +21957,7 @@
         <v>26293.026091961103</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -21939,7 +22022,7 @@
         <v>28219.29366114494</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -22004,7 +22087,7 @@
         <v>26494.247501710168</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -22069,7 +22152,7 @@
         <v>24121.238746265717</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -22134,7 +22217,7 @@
         <v>21933.612819076821</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -22199,7 +22282,7 @@
         <v>19942.491994889067</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -22264,7 +22347,7 @@
         <v>18131.261799927335</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -22329,7 +22412,7 @@
         <v>16483.74873755006</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -22394,7 +22477,7 @@
         <v>14985.226125045509</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -22459,7 +22542,7 @@
         <v>13623.580332594134</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -22524,7 +22607,7 @@
         <v>12385.073029631028</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -22606,9 +22689,9 @@
       <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -22673,7 +22756,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -22738,7 +22821,7 @@
         <v>-1171.5268644674088</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -22803,7 +22886,7 @@
         <v>-410.47896769764458</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -22868,7 +22951,7 @@
         <v>785.18440953106676</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -22933,7 +23016,7 @@
         <v>2783.8265481086323</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -22998,7 +23081,7 @@
         <v>6209.1886725856075</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -23063,7 +23146,7 @@
         <v>12022.820805541463</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -23128,7 +23211,7 @@
         <v>21599.749111395307</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -23193,7 +23276,7 @@
         <v>36094.963776698292</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -23258,7 +23341,7 @@
         <v>54529.708585077242</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -23323,7 +23406,7 @@
         <v>70666.060053633526</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -23388,7 +23471,7 @@
         <v>75752.653225238566</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -23453,7 +23536,7 @@
         <v>71106.966182304735</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -23518,7 +23601,7 @@
         <v>64737.521060718536</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -23583,7 +23666,7 @@
         <v>58866.195763607851</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -23648,7 +23731,7 @@
         <v>53522.307361585685</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -23713,7 +23796,7 @@
         <v>48661.239383334869</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -23778,7 +23861,7 @@
         <v>44239.57958818983</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -23843,7 +23926,7 @@
         <v>40217.799625627114</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -23908,7 +23991,7 @@
         <v>36563.362667680507</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -23973,7 +24056,7 @@
         <v>33239.420606982269</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -24055,9 +24138,9 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -24122,7 +24205,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -24187,7 +24270,7 @@
         <v>-1602.7743124115791</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -24252,7 +24335,7 @@
         <v>-802.52210219234462</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -24317,7 +24400,7 @@
         <v>428.78155999043037</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -24382,7 +24465,7 @@
         <v>2459.823957617145</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -24447,7 +24530,7 @@
         <v>5914.6408630478918</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -24512,7 +24595,7 @@
         <v>11755.050069598086</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -24577,7 +24660,7 @@
         <v>21356.321169628598</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -24642,7 +24725,7 @@
         <v>35873.665647819464</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -24707,7 +24790,7 @@
         <v>54328.528467914672</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -24772,7 +24855,7 @@
         <v>70483.169038031177</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -24837,7 +24920,7 @@
         <v>75586.388665600069</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -24902,7 +24985,7 @@
         <v>70955.816582633372</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -24967,7 +25050,7 @@
         <v>64600.112333744575</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -25032,7 +25115,7 @@
         <v>58741.278739086069</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -25097,7 +25180,7 @@
         <v>53408.746430202249</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -25162,7 +25245,7 @@
         <v>48558.002172986286</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -25227,7 +25310,7 @@
         <v>44145.727578782033</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -25292,7 +25375,7 @@
         <v>40132.479617074569</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -25357,7 +25440,7 @@
         <v>36485.799023541826</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -25422,7 +25505,7 @@
         <v>33168.908203219835</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -25504,9 +25587,9 @@
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -25571,7 +25654,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -25636,7 +25719,7 @@
         <v>-11452.775084636492</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -25701,7 +25784,7 @@
         <v>-9593.4318951240839</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -25766,7 +25849,7 @@
         <v>-7273.3678385425546</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -25831,7 +25914,7 @@
         <v>-4024.6244061881976</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -25896,7 +25979,7 @@
         <v>939.29712134656597</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -25961,7 +26044,7 @@
         <v>8826.5362620309734</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -26026,7 +26109,7 @@
         <v>21361.513893884257</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -26091,7 +26174,7 @@
         <v>39993.093361454805</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -26156,7 +26239,7 @@
         <v>63502.489040966502</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -26221,7 +26304,7 @@
         <v>84096.532621241844</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -26286,7 +26369,7 @@
         <v>90839.868853548149</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -26351,7 +26434,7 @@
         <v>85382.846202426314</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -26416,7 +26499,7 @@
         <v>77739.29993912128</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -26481,7 +26564,7 @@
         <v>70689.470716530821</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -26546,7 +26629,7 @@
         <v>64272.635122001193</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -26611,7 +26694,7 @@
         <v>58435.413701913218</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -26676,7 +26759,7 @@
         <v>53125.714915005134</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -26741,7 +26824,7 @@
         <v>48296.104468186481</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -26806,7 +26889,7 @@
         <v>43907.707822012075</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -26871,7 +26954,7 @@
         <v>39916.098020010963</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -26953,9 +27036,9 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -27020,7 +27103,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -27085,7 +27168,7 @@
         <v>-7500.4239124674095</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -27150,7 +27233,7 @@
         <v>-6000.3853749703721</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -27215,7 +27298,7 @@
         <v>-4006.9619111300899</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -27280,7 +27363,7 @@
         <v>-1055.1644721768664</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -27345,7 +27428,7 @@
         <v>3638.8061522659582</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -27410,7 +27493,7 @@
         <v>11280.635381048602</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -27475,7 +27558,7 @@
         <v>23592.513092991197</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -27540,7 +27623,7 @@
         <v>42021.274451552024</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -27605,7 +27688,7 @@
         <v>65346.290031963974</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -27670,7 +27753,7 @@
         <v>85772.715340330455</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -27735,7 +27818,7 @@
         <v>92363.671325446878</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -27800,7 +27883,7 @@
         <v>86768.121176879707</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -27865,7 +27948,7 @@
         <v>78998.64082498799</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -27930,7 +28013,7 @@
         <v>71834.326067318747</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -27995,7 +28078,7 @@
         <v>65313.412713626589</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -28060,7 +28143,7 @@
         <v>59381.57514884539</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -28125,7 +28208,7 @@
         <v>53985.861684943477</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -28190,7 +28273,7 @@
         <v>49078.056077221336</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -28255,7 +28338,7 @@
         <v>44618.57292113467</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -28320,7 +28403,7 @@
         <v>40562.339019213323</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>

--- a/tumlknexpectimax/excel_data/input_data_NY_residential.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_NY_residential.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmadzay\LRZ Sync+Share\PycharmProjects\mt_branch_new_code\tumlknexpectimax\tumlknexpectimax\excel_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="888" windowWidth="15108" windowHeight="8568"/>
+    <workbookView xWindow="480" yWindow="885" windowWidth="15105" windowHeight="8565" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -34,7 +29,7 @@
   <externalReferences>
     <externalReference r:id="rId19"/>
   </externalReferences>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -44,7 +39,7 @@
     <author>Patri, Sai Kireet</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0">
+    <comment ref="G7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0">
+    <comment ref="B8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -444,7 +439,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000%"/>
   </numFmts>
@@ -653,9 +648,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -682,6 +677,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -801,7 +797,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-37DD-494B-898C-2092A609AD86}"/>
             </c:ext>
@@ -917,7 +913,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-37DD-494B-898C-2092A609AD86}"/>
             </c:ext>
@@ -1033,7 +1029,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-37DD-494B-898C-2092A609AD86}"/>
             </c:ext>
@@ -1149,7 +1145,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-37DD-494B-898C-2092A609AD86}"/>
             </c:ext>
@@ -1165,11 +1161,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="76327424"/>
-        <c:axId val="177525824"/>
+        <c:axId val="62176256"/>
+        <c:axId val="62403648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76327424"/>
+        <c:axId val="62176256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1191,13 +1187,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177525824"/>
+        <c:crossAx val="62403648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1205,7 +1202,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177525824"/>
+        <c:axId val="62403648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1228,19 +1225,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76327424"/>
+        <c:crossAx val="62176256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1256,9 +1255,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1270,6 +1269,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1332,7 +1332,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CEE8-43A2-851D-BC93CBA0BE7C}"/>
             </c:ext>
@@ -1352,6 +1352,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1360,7 +1361,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1377,9 +1378,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1406,6 +1407,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1487,51 +1489,51 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>20000</c:v>
+                  <c:v>54093.514410000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19283.042118970367</c:v>
+                  <c:v>28924.563180000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43709.823692218881</c:v>
+                  <c:v>65564.735539999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44248.4220525376</c:v>
+                  <c:v>66372.63308</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10540.776519765759</c:v>
+                  <c:v>15811.164779999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11938.918689039821</c:v>
+                  <c:v>17908.37803</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50983.71612182937</c:v>
+                  <c:v>76475.574179999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47726.863400003029</c:v>
+                  <c:v>71590.295100000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48220.289169209609</c:v>
+                  <c:v>72330.433749999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37682.867713520049</c:v>
+                  <c:v>56524.301570000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44827.8721002112</c:v>
+                  <c:v>67241.808149999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12139.814930199653</c:v>
+                  <c:v>18209.722399999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47419.574760442287</c:v>
+                  <c:v>71129.362139999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50088.476920599649</c:v>
+                  <c:v>75132.715379999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B8F6-416E-AD21-7DE814CEBF97}"/>
             </c:ext>
@@ -1546,11 +1548,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="159840256"/>
-        <c:axId val="177527552"/>
+        <c:axId val="63626752"/>
+        <c:axId val="63341120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159840256"/>
+        <c:axId val="63626752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1560,7 +1562,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177527552"/>
+        <c:crossAx val="63341120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1568,7 +1570,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177527552"/>
+        <c:axId val="63341120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,13 +1593,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159840256"/>
+        <c:crossAx val="63626752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1615,9 +1618,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1629,6 +1632,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1746,7 +1750,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DDCA-4663-830D-82651783C711}"/>
             </c:ext>
@@ -1761,11 +1765,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="159649792"/>
-        <c:axId val="127755968"/>
+        <c:axId val="63767552"/>
+        <c:axId val="63342848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159649792"/>
+        <c:axId val="63767552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1787,13 +1791,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127755968"/>
+        <c:crossAx val="63342848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1801,7 +1806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127755968"/>
+        <c:axId val="63342848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1824,13 +1829,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159649792"/>
+        <c:crossAx val="63767552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1848,9 +1854,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2027,7 +2033,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B323-4672-88DD-A4269C32C76F}"/>
             </c:ext>
@@ -2192,7 +2198,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B323-4672-88DD-A4269C32C76F}"/>
             </c:ext>
@@ -2357,7 +2363,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B323-4672-88DD-A4269C32C76F}"/>
             </c:ext>
@@ -2372,11 +2378,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="162980352"/>
-        <c:axId val="127757696"/>
+        <c:axId val="63097856"/>
+        <c:axId val="63344576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162980352"/>
+        <c:axId val="63097856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2386,7 +2392,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127757696"/>
+        <c:crossAx val="63344576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2394,7 +2400,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127757696"/>
+        <c:axId val="63344576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2405,7 +2411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162980352"/>
+        <c:crossAx val="63097856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2446,7 +2452,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2482,7 +2488,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2529,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2559,7 +2565,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2600,7 +2606,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2628,7 +2634,7 @@
       <sheetName val="CAPEX"/>
       <sheetName val="OPEX"/>
       <sheetName val="Revenue"/>
-      <sheetName val="ADSL"/>
+      <sheetName val="MIG_MATRIX"/>
       <sheetName val="FTTC_GPON_25"/>
       <sheetName val="FTTB_XGPON_50"/>
       <sheetName val="FTTB_UDWDM_50"/>
@@ -2642,73 +2648,73 @@
       <sheetName val="FTTH_Hybridpon_100"/>
       <sheetName val="FTTC_Hybridpon_100"/>
       <sheetName val="FTTB_Hybridpon_100"/>
-      <sheetName val="MIG_MATRIX"/>
+      <sheetName val="ADSL"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="W3">
-            <v>535454.45404575672</v>
+            <v>307967.22911888885</v>
           </cell>
         </row>
         <row r="4">
           <cell r="W4">
-            <v>223279.17744087061</v>
+            <v>216506.84792333335</v>
           </cell>
         </row>
         <row r="5">
           <cell r="W5">
-            <v>187378.09492541171</v>
+            <v>145045.86878666666</v>
           </cell>
         </row>
         <row r="6">
           <cell r="W6">
-            <v>341886.09492541174</v>
+            <v>218092.13545333332</v>
           </cell>
         </row>
         <row r="7">
           <cell r="W7">
-            <v>349747.17744087061</v>
+            <v>288249.58125666669</v>
           </cell>
         </row>
         <row r="8">
           <cell r="W8">
-            <v>553226.45404575672</v>
+            <v>347869.80689666665</v>
           </cell>
         </row>
         <row r="9">
           <cell r="W9">
-            <v>229741.17744087061</v>
+            <v>221159.28125666664</v>
           </cell>
         </row>
         <row r="10">
           <cell r="W10">
-            <v>200378.09492541171</v>
+            <v>153163.03545333334</v>
           </cell>
         </row>
         <row r="11">
           <cell r="W11">
-            <v>503751.70772163133</v>
+            <v>215033.99423000001</v>
           </cell>
         </row>
         <row r="12">
           <cell r="W12">
-            <v>210813.81955322024</v>
+            <v>178789.21166999999</v>
           </cell>
         </row>
         <row r="13">
           <cell r="W13">
-            <v>387597.01955322025</v>
+            <v>298182.08727000002</v>
           </cell>
         </row>
         <row r="14">
           <cell r="W14">
-            <v>358997.70772163133</v>
+            <v>247844.99423000001</v>
           </cell>
         </row>
         <row r="15">
           <cell r="W15">
-            <v>226845.81955322024</v>
+            <v>196669.21166999999</v>
           </cell>
         </row>
       </sheetData>
@@ -2728,7 +2734,7 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="17" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2777,7 +2783,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2810,26 +2816,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2862,23 +2851,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3057,31 +3029,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+    <sheetView topLeftCell="C10" workbookViewId="0">
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="9" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="9" width="19.140625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="22.109375" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" customWidth="1"/>
-    <col min="16" max="17" width="11.6640625" customWidth="1"/>
-    <col min="23" max="23" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="16" max="17" width="11.7109375" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3152,7 +3124,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -3189,7 +3161,7 @@
       </c>
       <c r="W2" s="10"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -3265,7 +3237,7 @@
         <v>291788.63717996189</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
@@ -3341,7 +3313,7 @@
         <v>277824.94829107303</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
@@ -3413,7 +3385,7 @@
         <v>227248.16613108691</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
@@ -3489,7 +3461,7 @@
         <v>409874.16613108688</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
@@ -3565,7 +3537,7 @@
         <v>461966.14829107304</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
@@ -3639,7 +3611,7 @@
         <v>326492.94829107303</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
@@ -3713,7 +3685,7 @@
         <v>247053.24829107302</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
@@ -3786,7 +3758,7 @@
         <v>338458.16613108688</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
@@ -3860,7 +3832,7 @@
         <v>246300.33066481428</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
@@ -3934,7 +3906,7 @@
         <v>249323.97727255611</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
@@ -4008,7 +3980,7 @@
         <v>525612.57727255614</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
@@ -4082,7 +4054,7 @@
         <v>443647.77727255609</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
@@ -4156,7 +4128,7 @@
         <v>384812.57727255614</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>7895*8</f>
         <v>63160</v>
@@ -4166,7 +4138,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="42" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="17:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="Q42" s="5" t="s">
         <v>54</v>
       </c>
@@ -4180,12 +4152,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="17:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="R43" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="17:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="Q44" t="s">
         <v>57</v>
       </c>
@@ -4205,7 +4177,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="17:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="R45" t="s">
         <v>59</v>
       </c>
@@ -4216,7 +4188,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="17:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="Q46" t="s">
         <v>62</v>
       </c>
@@ -4233,7 +4205,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -4279,7 +4251,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5728,7 +5700,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -7177,12 +7149,12 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="16.88671875" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -7247,7 +7219,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -7312,7 +7284,7 @@
         <v>-1406.1283124115794</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -7377,7 +7349,7 @@
         <v>-460.11664764689033</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -7442,7 +7414,7 @@
         <v>1029.6460228003475</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -7507,7 +7479,7 @@
         <v>3523.5700132144393</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -7572,7 +7544,7 @@
         <v>7801.2920480762359</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -7637,7 +7609,7 @@
         <v>15064.713468148853</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -7702,7 +7674,7 @@
         <v>27032.584081264151</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -7767,7 +7739,7 @@
         <v>45148.611713618346</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -7832,7 +7804,7 @@
         <v>68189.323906569727</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -7897,7 +7869,7 @@
         <v>88357.291589972039</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -7962,7 +7934,7 @@
         <v>94713.286097848322</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -8027,7 +7999,7 @@
         <v>88904.134606335574</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -8092,7 +8064,7 @@
         <v>80940.471215402416</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -8157,7 +8129,7 @@
         <v>73599.626422240937</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -8222,7 +8194,7 @@
         <v>66918.231218101311</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -8287,7 +8259,7 @@
         <v>60840.50106200423</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -8352,7 +8324,7 @@
         <v>55312.157969633328</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -8417,7 +8389,7 @@
         <v>50283.779972393932</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -8482,7 +8454,7 @@
         <v>45714.685553109754</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -8547,7 +8519,7 @@
         <v>41558.805048281589</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -8630,7 +8602,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -10079,7 +10051,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -11528,7 +11500,7 @@
       <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -12977,7 +12949,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -14426,7 +14398,7 @@
       <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -15876,23 +15848,23 @@
       <selection pane="topRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" customWidth="1"/>
-    <col min="15" max="15" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -15951,55 +15923,55 @@
       </c>
       <c r="C2">
         <f>[1]CAPEX!$W3</f>
-        <v>535454.45404575672</v>
+        <v>307967.22911888885</v>
       </c>
       <c r="D2">
         <f>[1]CAPEX!$W4</f>
-        <v>223279.17744087061</v>
+        <v>216506.84792333335</v>
       </c>
       <c r="E2">
         <f>[1]CAPEX!$W5</f>
-        <v>187378.09492541171</v>
+        <v>145045.86878666666</v>
       </c>
       <c r="F2">
         <f>[1]CAPEX!$W6</f>
-        <v>341886.09492541174</v>
+        <v>218092.13545333332</v>
       </c>
       <c r="G2">
         <f>[1]CAPEX!$W7</f>
-        <v>349747.17744087061</v>
+        <v>288249.58125666669</v>
       </c>
       <c r="H2">
         <f>[1]CAPEX!$W8</f>
-        <v>553226.45404575672</v>
+        <v>347869.80689666665</v>
       </c>
       <c r="I2">
         <f>[1]CAPEX!$W9</f>
-        <v>229741.17744087061</v>
+        <v>221159.28125666664</v>
       </c>
       <c r="J2">
         <f>[1]CAPEX!$W10</f>
-        <v>200378.09492541171</v>
+        <v>153163.03545333334</v>
       </c>
       <c r="K2">
         <f>[1]CAPEX!$W11</f>
-        <v>503751.70772163133</v>
+        <v>215033.99423000001</v>
       </c>
       <c r="L2">
         <f>[1]CAPEX!$W12</f>
-        <v>210813.81955322024</v>
+        <v>178789.21166999999</v>
       </c>
       <c r="M2">
         <f>[1]CAPEX!$W13</f>
-        <v>387597.01955322025</v>
+        <v>298182.08727000002</v>
       </c>
       <c r="N2">
         <f>[1]CAPEX!$W14</f>
-        <v>358997.70772163133</v>
+        <v>247844.99423000001</v>
       </c>
       <c r="O2">
         <f>[1]CAPEX!$W15</f>
-        <v>226845.81955322024</v>
+        <v>196669.21166999999</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -16026,11 +15998,11 @@
       </c>
       <c r="H3">
         <f>H2-C2</f>
-        <v>17772</v>
+        <v>39902.577777777798</v>
       </c>
       <c r="I3">
         <f>D3+(I2-D2)</f>
-        <v>6462</v>
+        <v>4652.4333333332906</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -16072,14 +16044,14 @@
       </c>
       <c r="G4">
         <f>G2-D2</f>
-        <v>126468</v>
+        <v>71742.733333333337</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
         <f>I2-D2</f>
-        <v>6462</v>
+        <v>4652.4333333332906</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -16118,7 +16090,7 @@
       </c>
       <c r="F5">
         <f>F2-E2</f>
-        <v>154508.00000000003</v>
+        <v>73046.266666666663</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -16131,7 +16103,7 @@
       </c>
       <c r="J5">
         <f>J2-E2</f>
-        <v>13000</v>
+        <v>8117.1666666666861</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -16311,7 +16283,7 @@
       </c>
       <c r="G9">
         <f>G2-I2</f>
-        <v>120006</v>
+        <v>67090.300000000047</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -16356,7 +16328,7 @@
       </c>
       <c r="F10">
         <f>F2-J2</f>
-        <v>141508.00000000003</v>
+        <v>64929.099999999977</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -16431,7 +16403,7 @@
       </c>
       <c r="O11">
         <f>L11+(O2-L2)</f>
-        <v>16032</v>
+        <v>17880</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -16473,14 +16445,14 @@
       </c>
       <c r="M12">
         <f>M2-L2</f>
-        <v>176783.2</v>
+        <v>119392.87560000003</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
         <f>O2-L2</f>
-        <v>16032</v>
+        <v>17880</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -16569,7 +16541,7 @@
       </c>
       <c r="M14">
         <f>M2-N2</f>
-        <v>28599.311831588915</v>
+        <v>50337.093040000007</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -16617,7 +16589,7 @@
       </c>
       <c r="M15">
         <f>M2-O2</f>
-        <v>160751.20000000001</v>
+        <v>101512.87560000003</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -16639,15 +16611,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="39.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -16666,7 +16638,7 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>20000</v>
+        <v>54093.514410000003</v>
       </c>
       <c r="C2">
         <v>3.6</v>
@@ -16677,7 +16649,7 @@
         <v>65</v>
       </c>
       <c r="B3">
-        <v>19283.042118970367</v>
+        <v>28924.563180000001</v>
       </c>
       <c r="C3">
         <v>7.2</v>
@@ -16688,7 +16660,7 @@
         <v>66</v>
       </c>
       <c r="B4">
-        <v>43709.823692218881</v>
+        <v>65564.735539999994</v>
       </c>
       <c r="C4">
         <v>9.6</v>
@@ -16699,7 +16671,7 @@
         <v>67</v>
       </c>
       <c r="B5">
-        <v>44248.4220525376</v>
+        <v>66372.63308</v>
       </c>
       <c r="C5">
         <v>9.6</v>
@@ -16710,7 +16682,7 @@
         <v>68</v>
       </c>
       <c r="B6">
-        <v>10540.776519765759</v>
+        <v>15811.164779999999</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -16721,7 +16693,7 @@
         <v>69</v>
       </c>
       <c r="B7">
-        <v>11938.918689039821</v>
+        <v>17908.37803</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -16732,7 +16704,7 @@
         <v>70</v>
       </c>
       <c r="B8">
-        <v>50983.71612182937</v>
+        <v>76475.574179999996</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -16743,7 +16715,7 @@
         <v>71</v>
       </c>
       <c r="B9">
-        <v>47726.863400003029</v>
+        <v>71590.295100000003</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -16754,7 +16726,7 @@
         <v>72</v>
       </c>
       <c r="B10">
-        <v>48220.289169209609</v>
+        <v>72330.433749999997</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -16765,7 +16737,7 @@
         <v>73</v>
       </c>
       <c r="B11">
-        <v>37682.867713520049</v>
+        <v>56524.301570000003</v>
       </c>
       <c r="C11">
         <v>7.2</v>
@@ -16776,7 +16748,7 @@
         <v>74</v>
       </c>
       <c r="B12">
-        <v>44827.8721002112</v>
+        <v>67241.808149999997</v>
       </c>
       <c r="C12">
         <v>9.6</v>
@@ -16787,7 +16759,7 @@
         <v>75</v>
       </c>
       <c r="B13">
-        <v>12139.814930199653</v>
+        <v>18209.722399999999</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -16798,7 +16770,7 @@
         <v>76</v>
       </c>
       <c r="B14">
-        <v>47419.574760442287</v>
+        <v>71129.362139999997</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -16809,7 +16781,7 @@
         <v>77</v>
       </c>
       <c r="B15">
-        <v>50088.476920599649</v>
+        <v>75132.715379999994</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -16833,14 +16805,14 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
@@ -16971,31 +16943,31 @@
       </c>
       <c r="U2">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>28924.563180000001</v>
       </c>
       <c r="V2">
         <f>O2-U2</f>
-        <v>-17785.442118970368</v>
+        <v>-27426.963180000002</v>
       </c>
       <c r="W2">
         <f>P2-U2</f>
-        <v>-17785.442118970368</v>
+        <v>-27426.963180000002</v>
       </c>
       <c r="X2">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-17785.442118970368</v>
+        <v>-27426.963180000002</v>
       </c>
       <c r="Y2">
         <f>R2-$U2</f>
-        <v>-17936.642118970365</v>
+        <v>-27578.16318</v>
       </c>
       <c r="Z2">
         <f>S2-$U2</f>
-        <v>-17936.642118970365</v>
+        <v>-27578.16318</v>
       </c>
       <c r="AA2">
         <f>T2-$U2</f>
-        <v>-17936.642118970365</v>
+        <v>-27578.16318</v>
       </c>
       <c r="AB2">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -17003,27 +16975,27 @@
       </c>
       <c r="AC2">
         <f>V2*AB2</f>
-        <v>-17785.442118970368</v>
+        <v>-27426.963180000002</v>
       </c>
       <c r="AD2">
         <f>W2*AB2</f>
-        <v>-17785.442118970368</v>
+        <v>-27426.963180000002</v>
       </c>
       <c r="AE2">
         <f>X2*AB2</f>
-        <v>-17785.442118970368</v>
+        <v>-27426.963180000002</v>
       </c>
       <c r="AF2">
         <f>Y2*$AB2</f>
-        <v>-17936.642118970365</v>
+        <v>-27578.16318</v>
       </c>
       <c r="AG2">
         <f>Z2*$AB2</f>
-        <v>-17936.642118970365</v>
+        <v>-27578.16318</v>
       </c>
       <c r="AH2">
         <f>AA2*$AB2</f>
-        <v>-17936.642118970365</v>
+        <v>-27578.16318</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
@@ -17073,31 +17045,31 @@
       </c>
       <c r="U3">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>28924.563180000001</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-17295.842118970366</v>
+        <v>-26937.36318</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-17231.042118970367</v>
+        <v>-26872.563180000001</v>
       </c>
       <c r="X3">
         <f t="shared" si="1"/>
-        <v>-16496.642118970365</v>
+        <v>-26138.16318</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-17497.442118970368</v>
+        <v>-27138.963180000002</v>
       </c>
       <c r="Z3">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-17439.842118970366</v>
+        <v>-27081.36318</v>
       </c>
       <c r="AA3">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-16777.442118970368</v>
+        <v>-26418.963180000002</v>
       </c>
       <c r="AB3">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -17105,27 +17077,27 @@
       </c>
       <c r="AC3">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-15723.492835427605</v>
+        <v>-24488.511981818181</v>
       </c>
       <c r="AD3">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-15664.583744518515</v>
+        <v>-24429.602890909093</v>
       </c>
       <c r="AE3">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-14996.947380882149</v>
+        <v>-23761.966527272725</v>
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-15906.765562700333</v>
+        <v>-24671.784709090909</v>
       </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-15854.401926336695</v>
+        <v>-24619.421072727273</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-15252.220108154879</v>
+        <v>-24017.239254545457</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
@@ -17175,31 +17147,31 @@
       </c>
       <c r="U4">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>28924.563180000001</v>
       </c>
       <c r="V4">
         <f t="shared" si="8"/>
-        <v>-16611.842118970366</v>
+        <v>-26253.36318</v>
       </c>
       <c r="W4">
         <f t="shared" si="9"/>
-        <v>-16431.842118970366</v>
+        <v>-26073.36318</v>
       </c>
       <c r="X4">
         <f t="shared" si="1"/>
-        <v>-13962.242118970367</v>
+        <v>-23603.763180000002</v>
       </c>
       <c r="Y4">
         <f t="shared" si="10"/>
-        <v>-16885.442118970368</v>
+        <v>-26526.963180000002</v>
       </c>
       <c r="Z4">
         <f t="shared" si="11"/>
-        <v>-16719.842118970366</v>
+        <v>-26361.36318</v>
       </c>
       <c r="AA4">
         <f t="shared" si="12"/>
-        <v>-14495.042118970367</v>
+        <v>-24136.563180000001</v>
       </c>
       <c r="AB4">
         <f t="shared" si="13"/>
@@ -17207,27 +17179,27 @@
       </c>
       <c r="AC4">
         <f t="shared" si="14"/>
-        <v>-13728.79513964493</v>
+        <v>-21696.994363636361</v>
       </c>
       <c r="AD4">
         <f t="shared" si="15"/>
-        <v>-13580.034809066417</v>
+        <v>-21548.234033057848</v>
       </c>
       <c r="AE4">
         <f t="shared" si="16"/>
-        <v>-11539.043073529228</v>
+        <v>-19507.242297520661</v>
       </c>
       <c r="AF4">
         <f t="shared" si="17"/>
-        <v>-13954.910842124269</v>
+        <v>-21923.110066115703</v>
       </c>
       <c r="AG4">
         <f t="shared" si="18"/>
-        <v>-13818.051337992036</v>
+        <v>-21786.25056198347</v>
       </c>
       <c r="AH4">
         <f t="shared" si="19"/>
-        <v>-11979.373652041624</v>
+        <v>-19947.572876033057</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
@@ -17284,31 +17256,31 @@
       </c>
       <c r="U5">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>28924.563180000001</v>
       </c>
       <c r="V5">
         <f t="shared" si="8"/>
-        <v>-15654.242118970367</v>
+        <v>-25295.763180000002</v>
       </c>
       <c r="W5">
         <f t="shared" si="9"/>
-        <v>-15279.842118970366</v>
+        <v>-24921.36318</v>
       </c>
       <c r="X5">
         <f t="shared" si="1"/>
-        <v>-9001.4421189703662</v>
+        <v>-18642.963179999999</v>
       </c>
       <c r="Y5">
         <f t="shared" si="10"/>
-        <v>-16021.442118970366</v>
+        <v>-25662.963180000002</v>
       </c>
       <c r="Z5">
         <f t="shared" si="11"/>
-        <v>-15683.042118970367</v>
+        <v>-25324.563180000001</v>
       </c>
       <c r="AA5">
         <f t="shared" si="12"/>
-        <v>-10031.042118970367</v>
+        <v>-19672.563180000001</v>
       </c>
       <c r="AB5">
         <f t="shared" si="13"/>
@@ -17316,27 +17288,27 @@
       </c>
       <c r="AC5">
         <f t="shared" si="14"/>
-        <v>-11761.263800879311</v>
+        <v>-19005.081277235156</v>
       </c>
       <c r="AD5">
         <f t="shared" si="15"/>
-        <v>-11479.971539421758</v>
+        <v>-18723.789015777606</v>
       </c>
       <c r="AE5">
         <f t="shared" si="16"/>
-        <v>-6762.9166934412951</v>
+        <v>-14006.734169797141</v>
       </c>
       <c r="AF5">
         <f t="shared" si="17"/>
-        <v>-12037.146595770369</v>
+        <v>-19280.964072126219</v>
       </c>
       <c r="AG5">
         <f t="shared" si="18"/>
-        <v>-11782.901667145275</v>
+        <v>-19026.719143501123</v>
       </c>
       <c r="AH5">
         <f t="shared" si="19"/>
-        <v>-7536.4704124495593</v>
+        <v>-14780.287888805406</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
@@ -17393,31 +17365,31 @@
       </c>
       <c r="U6">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>28924.563180000001</v>
       </c>
       <c r="V6">
         <f t="shared" si="8"/>
-        <v>-14336.642118970365</v>
+        <v>-23978.16318</v>
       </c>
       <c r="W6">
         <f t="shared" si="9"/>
-        <v>-13638.242118970367</v>
+        <v>-23279.763180000002</v>
       </c>
       <c r="X6">
         <f t="shared" si="1"/>
-        <v>668.15788102963415</v>
+        <v>-8973.3631800000003</v>
       </c>
       <c r="Y6">
         <f t="shared" si="10"/>
-        <v>-14833.442118970366</v>
+        <v>-24474.963179999999</v>
       </c>
       <c r="Z6">
         <f t="shared" si="11"/>
-        <v>-14207.042118970367</v>
+        <v>-23848.563180000001</v>
       </c>
       <c r="AA6">
         <f t="shared" si="12"/>
-        <v>-1333.4421189703644</v>
+        <v>-10974.963179999999</v>
       </c>
       <c r="AB6">
         <f t="shared" si="13"/>
@@ -17425,27 +17397,27 @@
       </c>
       <c r="AC6">
         <f t="shared" si="14"/>
-        <v>-9792.1194720103558</v>
+        <v>-16377.408086879306</v>
       </c>
       <c r="AD6">
         <f t="shared" si="15"/>
-        <v>-9315.1028747833916</v>
+        <v>-15900.391489652344</v>
       </c>
       <c r="AE6">
         <f t="shared" si="16"/>
-        <v>456.36082305145413</v>
+        <v>-6128.9277918174976</v>
       </c>
       <c r="AF6">
         <f t="shared" si="17"/>
-        <v>-10131.440556635724</v>
+        <v>-16716.729171504674</v>
       </c>
       <c r="AG6">
         <f t="shared" si="18"/>
-        <v>-9703.6009281950428</v>
+        <v>-16288.889543063995</v>
       </c>
       <c r="AH6">
         <f t="shared" si="19"/>
-        <v>-910.75890920726999</v>
+        <v>-7496.0475240762216</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
@@ -17502,31 +17474,31 @@
       </c>
       <c r="U7">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>28924.563180000001</v>
       </c>
       <c r="V7">
         <f t="shared" si="8"/>
-        <v>-12529.442118970366</v>
+        <v>-22170.963179999999</v>
       </c>
       <c r="W7">
         <f t="shared" si="9"/>
-        <v>-11298.242118970367</v>
+        <v>-20939.763180000002</v>
       </c>
       <c r="X7">
         <f t="shared" si="1"/>
-        <v>19150.557881029632</v>
+        <v>9509.0368199999975</v>
       </c>
       <c r="Y7">
         <f t="shared" si="10"/>
-        <v>-13206.242118970367</v>
+        <v>-22847.763180000002</v>
       </c>
       <c r="Z7">
         <f t="shared" si="11"/>
-        <v>-12097.442118970366</v>
+        <v>-21738.963179999999</v>
       </c>
       <c r="AA7">
         <f t="shared" si="12"/>
-        <v>15305.757881029636</v>
+        <v>5664.2368200000019</v>
       </c>
       <c r="AB7">
         <f t="shared" si="13"/>
@@ -17534,27 +17506,27 @@
       </c>
       <c r="AC7">
         <f t="shared" si="14"/>
-        <v>-7779.7977777041815</v>
+        <v>-13766.423791221408</v>
       </c>
       <c r="AD7">
         <f t="shared" si="15"/>
-        <v>-7015.3194447537508</v>
+        <v>-13001.945458270979</v>
       </c>
       <c r="AE7">
         <f t="shared" si="16"/>
-        <v>11890.989736809846</v>
+        <v>5904.3637232926176</v>
       </c>
       <c r="AF7">
         <f t="shared" si="17"/>
-        <v>-8200.0373291506185</v>
+        <v>-14186.663342667845</v>
       </c>
       <c r="AG7">
         <f t="shared" si="18"/>
-        <v>-7511.5597661426264</v>
+        <v>-13498.185779659852</v>
       </c>
       <c r="AH7">
         <f t="shared" si="19"/>
-        <v>9503.6714339120099</v>
+        <v>3517.0454203947816</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
@@ -17611,31 +17583,31 @@
       </c>
       <c r="U8">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>28924.563180000001</v>
       </c>
       <c r="V8">
         <f t="shared" si="8"/>
-        <v>-10038.242118970365</v>
+        <v>-19679.763180000002</v>
       </c>
       <c r="W8">
         <f t="shared" si="9"/>
-        <v>-7986.2421189703655</v>
+        <v>-17627.763180000002</v>
       </c>
       <c r="X8">
         <f t="shared" si="1"/>
-        <v>53134.557881029643</v>
+        <v>43493.036820000008</v>
       </c>
       <c r="Y8">
         <f t="shared" si="10"/>
-        <v>-10967.042118970367</v>
+        <v>-20608.563180000001</v>
       </c>
       <c r="Z8">
         <f t="shared" si="11"/>
-        <v>-9116.6421189703669</v>
+        <v>-18758.163180000003</v>
       </c>
       <c r="AA8">
         <f t="shared" si="12"/>
-        <v>45891.357881029631</v>
+        <v>36249.836819999997</v>
       </c>
       <c r="AB8">
         <f t="shared" si="13"/>
@@ -17643,27 +17615,27 @@
       </c>
       <c r="AC8">
         <f t="shared" si="14"/>
-        <v>-5666.3259797265582</v>
+        <v>-11108.71326474222</v>
       </c>
       <c r="AD8">
         <f t="shared" si="15"/>
-        <v>-4508.0254752562078</v>
+        <v>-9950.4127602718709</v>
       </c>
       <c r="AE8">
         <f t="shared" si="16"/>
-        <v>29993.072708774704</v>
+        <v>24550.685423759041</v>
       </c>
       <c r="AF8">
         <f t="shared" si="17"/>
-        <v>-6190.6093659605076</v>
+        <v>-11632.996650976169</v>
       </c>
       <c r="AG8">
         <f t="shared" si="18"/>
-        <v>-5146.1068057889979</v>
+        <v>-10588.494090804661</v>
       </c>
       <c r="AH8">
         <f t="shared" si="19"/>
-        <v>25904.475138609178</v>
+        <v>20462.087853593515</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
@@ -17719,31 +17691,31 @@
       </c>
       <c r="U9">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>28924.563180000001</v>
       </c>
       <c r="V9">
         <f t="shared" si="8"/>
-        <v>-6647.0421189703666</v>
+        <v>-16288.563180000001</v>
       </c>
       <c r="W9">
         <f t="shared" si="9"/>
-        <v>-3320.6421189703669</v>
+        <v>-12962.163180000001</v>
       </c>
       <c r="X9">
         <f t="shared" si="1"/>
-        <v>110842.55788102964</v>
+        <v>101201.03682000001</v>
       </c>
       <c r="Y9">
         <f t="shared" si="10"/>
-        <v>-7914.2421189703655</v>
+        <v>-17555.763180000002</v>
       </c>
       <c r="Z9">
         <f t="shared" si="11"/>
-        <v>-4919.0421189703666</v>
+        <v>-14560.563180000001</v>
       </c>
       <c r="AA9">
         <f t="shared" si="12"/>
-        <v>97824.957881029637</v>
+        <v>88183.436820000003</v>
       </c>
       <c r="AB9">
         <f t="shared" si="13"/>
@@ -17751,27 +17723,27 @@
       </c>
       <c r="AC9">
         <f t="shared" si="14"/>
-        <v>-3410.9836255710811</v>
+        <v>-8358.6084301307728</v>
       </c>
       <c r="AD9">
         <f t="shared" si="15"/>
-        <v>-1704.0144610884593</v>
+        <v>-6651.6392656481503</v>
       </c>
       <c r="AE9">
         <f t="shared" si="16"/>
-        <v>56879.758422107334</v>
+        <v>51932.133617547639</v>
       </c>
       <c r="AF9">
         <f t="shared" si="17"/>
-        <v>-4061.2575929930317</v>
+        <v>-9008.8823975527248</v>
       </c>
       <c r="AG9">
         <f t="shared" si="18"/>
-        <v>-2524.24639726842</v>
+        <v>-7471.8712018281112</v>
       </c>
       <c r="AH9">
         <f t="shared" si="19"/>
-        <v>50199.671302227289</v>
+        <v>45252.046497667594</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
@@ -17827,31 +17799,31 @@
       </c>
       <c r="U10">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>28924.563180000001</v>
       </c>
       <c r="V10">
         <f t="shared" si="8"/>
-        <v>-2046.2421189703673</v>
+        <v>-11687.763180000002</v>
       </c>
       <c r="W10">
         <f t="shared" si="9"/>
-        <v>3202.5578810296356</v>
+        <v>-6438.9631799999988</v>
       </c>
       <c r="X10">
         <f t="shared" si="1"/>
-        <v>194564.15788102965</v>
+        <v>184922.63682000001</v>
       </c>
       <c r="Y10">
         <f t="shared" si="10"/>
-        <v>-3774.2421189703655</v>
+        <v>-13415.76318</v>
       </c>
       <c r="Z10">
         <f t="shared" si="11"/>
-        <v>948.95788102963343</v>
+        <v>-8692.563180000001</v>
       </c>
       <c r="AA10">
         <f t="shared" si="12"/>
-        <v>173172.95788102964</v>
+        <v>163531.43682</v>
       </c>
       <c r="AB10">
         <f t="shared" si="13"/>
@@ -17859,27 +17831,27 @@
       </c>
       <c r="AC10">
         <f t="shared" si="14"/>
-        <v>-954.58705019567913</v>
+        <v>-5452.4277816135809</v>
       </c>
       <c r="AD10">
         <f t="shared" si="15"/>
-        <v>1494.0168870491696</v>
+        <v>-3003.8238443687319</v>
       </c>
       <c r="AE10">
         <f t="shared" si="16"/>
-        <v>90765.61557579205</v>
+        <v>86267.774844374144</v>
       </c>
       <c r="AF10">
         <f t="shared" si="17"/>
-        <v>-1760.7118031980972</v>
+        <v>-6258.5525346159984</v>
       </c>
       <c r="AG10">
         <f t="shared" si="18"/>
-        <v>442.69585500851389</v>
+        <v>-4055.1448764093875</v>
       </c>
       <c r="AH10">
         <f t="shared" si="19"/>
-        <v>80786.462904249594</v>
+        <v>76288.622172831689</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
@@ -17935,31 +17907,31 @@
       </c>
       <c r="U11">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>28924.563180000001</v>
       </c>
       <c r="V11">
         <f t="shared" si="8"/>
-        <v>4167.3578810296349</v>
+        <v>-5474.1631799999996</v>
       </c>
       <c r="W11">
         <f t="shared" si="9"/>
-        <v>12231.357881029635</v>
+        <v>2589.8368200000004</v>
       </c>
       <c r="X11">
         <f t="shared" si="1"/>
-        <v>284024.15788102965</v>
+        <v>274382.63682000001</v>
       </c>
       <c r="Y11">
         <f t="shared" si="10"/>
-        <v>1820.1578810296342</v>
+        <v>-7821.3631800000003</v>
       </c>
       <c r="Z11">
         <f t="shared" si="11"/>
-        <v>9077.7578810296327</v>
+        <v>-563.76318000000174</v>
       </c>
       <c r="AA11">
         <f t="shared" si="12"/>
-        <v>253690.55788102967</v>
+        <v>244049.03682000004</v>
       </c>
       <c r="AB11">
         <f t="shared" si="13"/>
@@ -17967,27 +17939,27 @@
       </c>
       <c r="AC11">
         <f t="shared" si="14"/>
-        <v>1767.3665522504725</v>
+        <v>-2321.5795672203467</v>
       </c>
       <c r="AD11">
         <f t="shared" si="15"/>
-        <v>5187.2897468061892</v>
+        <v>1098.3436273353695</v>
       </c>
       <c r="AE11">
         <f t="shared" si="16"/>
-        <v>120453.96891759524</v>
+        <v>116365.02279812442</v>
       </c>
       <c r="AF11">
         <f t="shared" si="17"/>
-        <v>771.92462240657608</v>
+        <v>-3317.0214970642432</v>
       </c>
       <c r="AG11">
         <f t="shared" si="18"/>
-        <v>3849.85549750672</v>
+        <v>-239.09062196409911</v>
       </c>
       <c r="AH11">
         <f t="shared" si="19"/>
-        <v>107589.56140093165</v>
+        <v>103500.61528146084</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
@@ -18044,31 +18016,31 @@
       </c>
       <c r="U12">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>28924.563180000001</v>
       </c>
       <c r="V12">
         <f t="shared" si="8"/>
-        <v>12483.357881029635</v>
+        <v>2841.8368200000004</v>
       </c>
       <c r="W12">
         <f t="shared" si="9"/>
-        <v>24572.157881029638</v>
+        <v>14930.636820000003</v>
       </c>
       <c r="X12">
         <f t="shared" si="1"/>
-        <v>337736.15788102965</v>
+        <v>328094.63682000001</v>
       </c>
       <c r="Y12">
         <f t="shared" si="10"/>
-        <v>9300.9578810296334</v>
+        <v>-340.56318000000101</v>
       </c>
       <c r="Z12">
         <f t="shared" si="11"/>
-        <v>20180.157881029638</v>
+        <v>10538.636820000003</v>
       </c>
       <c r="AA12">
         <f t="shared" si="12"/>
-        <v>302031.35788102966</v>
+        <v>292389.83682000003</v>
       </c>
       <c r="AB12">
         <f t="shared" si="13"/>
@@ -18076,27 +18048,27 @@
       </c>
       <c r="AC12">
         <f t="shared" si="14"/>
-        <v>4812.8748605782312</v>
+        <v>1095.6511156047595</v>
       </c>
       <c r="AD12">
         <f t="shared" si="15"/>
-        <v>9473.630577833952</v>
+        <v>5756.4068328604808</v>
       </c>
       <c r="AE12">
         <f t="shared" si="16"/>
-        <v>130211.90926874375</v>
+        <v>126494.68552377028</v>
       </c>
       <c r="AF12">
         <f t="shared" si="17"/>
-        <v>3585.9218962976897</v>
+        <v>-131.30184867578203</v>
       </c>
       <c r="AG12">
         <f t="shared" si="18"/>
-        <v>7780.3244506594501</v>
+        <v>4063.1007056859785</v>
       </c>
       <c r="AH12">
         <f t="shared" si="19"/>
-        <v>116446.16322832022</v>
+        <v>112728.93948334675</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
@@ -18152,31 +18124,31 @@
       </c>
       <c r="U13">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>28924.563180000001</v>
       </c>
       <c r="V13">
         <f t="shared" si="8"/>
-        <v>23470.557881029632</v>
+        <v>13829.036819999998</v>
       </c>
       <c r="W13">
         <f t="shared" si="9"/>
-        <v>41132.157881029634</v>
+        <v>31490.636820000003</v>
       </c>
       <c r="X13">
         <f t="shared" si="1"/>
-        <v>349241.75788102963</v>
+        <v>339600.23681999999</v>
       </c>
       <c r="Y13">
         <f t="shared" si="10"/>
-        <v>19193.757881029636</v>
+        <v>9552.2368200000019</v>
       </c>
       <c r="Z13">
         <f t="shared" si="11"/>
-        <v>35084.157881029634</v>
+        <v>25442.636820000003</v>
       </c>
       <c r="AA13">
         <f t="shared" si="12"/>
-        <v>312384.95788102964</v>
+        <v>302743.43682</v>
       </c>
       <c r="AB13">
         <f t="shared" si="13"/>
@@ -18184,27 +18156,27 @@
       </c>
       <c r="AC13">
         <f t="shared" si="14"/>
-        <v>8226.2873547257968</v>
+        <v>4846.993041113551</v>
       </c>
       <c r="AD13">
         <f t="shared" si="15"/>
-        <v>14416.570409806354</v>
+        <v>11037.276096194109</v>
       </c>
       <c r="AE13">
         <f t="shared" si="16"/>
-        <v>122407.10558145831</v>
+        <v>119027.81126784606</v>
       </c>
       <c r="AF13">
         <f t="shared" si="17"/>
-        <v>6727.2950454237807</v>
+        <v>3348.000731811534</v>
       </c>
       <c r="AG13">
         <f t="shared" si="18"/>
-        <v>12296.783305742894</v>
+        <v>8917.4889921306494</v>
       </c>
       <c r="AH13">
         <f t="shared" si="19"/>
-        <v>109489.02202705253</v>
+        <v>106109.7277134403</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
@@ -18254,31 +18226,31 @@
       </c>
       <c r="U14">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>28924.563180000001</v>
       </c>
       <c r="V14">
         <f t="shared" si="8"/>
-        <v>37791.357881029631</v>
+        <v>28149.83682</v>
       </c>
       <c r="W14">
         <f t="shared" si="9"/>
-        <v>62789.75788102964</v>
+        <v>53148.236820000006</v>
       </c>
       <c r="X14">
         <f t="shared" si="1"/>
-        <v>349774.55788102967</v>
+        <v>340133.03682000004</v>
       </c>
       <c r="Y14">
         <f t="shared" si="10"/>
-        <v>32081.757881029636</v>
+        <v>22440.236820000002</v>
       </c>
       <c r="Z14">
         <f t="shared" si="11"/>
-        <v>54581.75788102964</v>
+        <v>44940.236820000006</v>
       </c>
       <c r="AA14">
         <f t="shared" si="12"/>
-        <v>312867.35788102966</v>
+        <v>303225.83682000003</v>
       </c>
       <c r="AB14">
         <f t="shared" si="13"/>
@@ -18286,27 +18258,27 @@
       </c>
       <c r="AC14">
         <f t="shared" si="14"/>
-        <v>12041.491264017199</v>
+        <v>8969.4055243697039</v>
       </c>
       <c r="AD14">
         <f t="shared" si="15"/>
-        <v>20006.751897467781</v>
+        <v>16934.666157820284</v>
       </c>
       <c r="AE14">
         <f t="shared" si="16"/>
-        <v>111448.95339191092</v>
+        <v>108376.86765226343</v>
       </c>
       <c r="AF14">
         <f t="shared" si="17"/>
-        <v>10222.236747218149</v>
+        <v>7150.1510075706519</v>
       </c>
       <c r="AG14">
         <f t="shared" si="18"/>
-        <v>17391.430145701172</v>
+        <v>14319.344406053677</v>
       </c>
       <c r="AH14">
         <f t="shared" si="19"/>
-        <v>99689.18207651125</v>
+        <v>96617.09633686376</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
@@ -18356,31 +18328,31 @@
       </c>
       <c r="U15">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>28924.563180000001</v>
       </c>
       <c r="V15">
         <f t="shared" si="8"/>
-        <v>56079.357881029646</v>
+        <v>46437.836820000011</v>
       </c>
       <c r="W15">
         <f t="shared" si="9"/>
-        <v>90156.957881029637</v>
+        <v>80515.436820000003</v>
       </c>
       <c r="X15">
         <f t="shared" si="1"/>
-        <v>349853.75788102963</v>
+        <v>340212.23681999999</v>
       </c>
       <c r="Y15">
         <f t="shared" si="10"/>
-        <v>48540.957881029637</v>
+        <v>38899.436820000003</v>
       </c>
       <c r="Z15">
         <f t="shared" si="11"/>
-        <v>79212.957881029637</v>
+        <v>69571.436820000003</v>
       </c>
       <c r="AA15">
         <f t="shared" si="12"/>
-        <v>312939.35788102966</v>
+        <v>303297.83682000003</v>
       </c>
       <c r="AB15">
         <f t="shared" si="13"/>
@@ -18388,27 +18360,27 @@
       </c>
       <c r="AC15">
         <f t="shared" si="14"/>
-        <v>16244.192416640186</v>
+        <v>13451.387198778826</v>
       </c>
       <c r="AD15">
         <f t="shared" si="15"/>
-        <v>26115.259283555137</v>
+        <v>23322.454065693775</v>
       </c>
       <c r="AE15">
         <f t="shared" si="16"/>
-        <v>101340.1717751578</v>
+        <v>98547.366557296438</v>
       </c>
       <c r="AF15">
         <f t="shared" si="17"/>
-        <v>14060.586456433137</v>
+        <v>11267.781238571775</v>
       </c>
       <c r="AG15">
         <f t="shared" si="18"/>
-        <v>22945.172311716826</v>
+        <v>20152.367093855464</v>
       </c>
       <c r="AH15">
         <f t="shared" si="19"/>
-        <v>90647.384995805813</v>
+        <v>87854.579777944455</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
@@ -18458,31 +18430,31 @@
       </c>
       <c r="U16">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>28924.563180000001</v>
       </c>
       <c r="V16">
         <f t="shared" si="8"/>
-        <v>78802.557881029643</v>
+        <v>69161.036820000008</v>
       </c>
       <c r="W16">
         <f t="shared" si="9"/>
-        <v>123168.95788102964</v>
+        <v>113527.43682</v>
       </c>
       <c r="X16">
         <f t="shared" si="1"/>
-        <v>349904.15788102965</v>
+        <v>340262.63682000001</v>
       </c>
       <c r="Y16">
         <f t="shared" si="10"/>
-        <v>68988.957881029637</v>
+        <v>59347.436820000003</v>
       </c>
       <c r="Z16">
         <f t="shared" si="11"/>
-        <v>108920.15788102963</v>
+        <v>99278.63682</v>
       </c>
       <c r="AA16">
         <f t="shared" si="12"/>
-        <v>312982.55788102967</v>
+        <v>303341.03682000004</v>
       </c>
       <c r="AB16">
         <f t="shared" si="13"/>
@@ -18490,27 +18462,27 @@
       </c>
       <c r="AC16">
         <f t="shared" si="14"/>
-        <v>20751.176409338983</v>
+        <v>18212.262574919565</v>
       </c>
       <c r="AD16">
         <f t="shared" si="15"/>
-        <v>32434.23617038424</v>
+        <v>29895.322335964822</v>
       </c>
       <c r="AE16">
         <f t="shared" si="16"/>
-        <v>92140.700781724096</v>
+        <v>89601.786947304674</v>
       </c>
       <c r="AF16">
         <f t="shared" si="17"/>
-        <v>18166.948812080838</v>
+        <v>15628.03497766142</v>
       </c>
       <c r="AG16">
         <f t="shared" si="18"/>
-        <v>28682.08179402777</v>
+        <v>26143.167959608352</v>
       </c>
       <c r="AH16">
         <f t="shared" si="19"/>
-        <v>82418.08954273675</v>
+        <v>79879.175708317329</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.3">
@@ -18560,31 +18532,31 @@
       </c>
       <c r="U17">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>28924.563180000001</v>
       </c>
       <c r="V17">
         <f t="shared" si="8"/>
-        <v>106097.75788102964</v>
+        <v>96456.236820000006</v>
       </c>
       <c r="W17">
         <f t="shared" si="9"/>
-        <v>160688.15788102965</v>
+        <v>151046.63682000001</v>
       </c>
       <c r="X17">
         <f t="shared" si="1"/>
-        <v>349932.95788102964</v>
+        <v>340291.43682</v>
       </c>
       <c r="Y17">
         <f t="shared" si="10"/>
-        <v>93555.357881029646</v>
+        <v>83913.836820000011</v>
       </c>
       <c r="Z17">
         <f t="shared" si="11"/>
-        <v>142688.15788102965</v>
+        <v>133046.63682000001</v>
       </c>
       <c r="AA17">
         <f t="shared" si="12"/>
-        <v>313011.35788102966</v>
+        <v>303369.83682000003</v>
       </c>
       <c r="AB17">
         <f t="shared" si="13"/>
@@ -18592,27 +18564,27 @@
       </c>
       <c r="AC17">
         <f t="shared" si="14"/>
-        <v>25398.959692612993</v>
+        <v>23090.856206777156</v>
       </c>
       <c r="AD17">
         <f t="shared" si="15"/>
-        <v>38467.467424495371</v>
+        <v>36159.363938659539</v>
       </c>
       <c r="AE17">
         <f t="shared" si="16"/>
-        <v>83771.167928952826</v>
+        <v>81463.064443116979</v>
       </c>
       <c r="AF17">
         <f t="shared" si="17"/>
-        <v>22396.408852605196</v>
+        <v>20088.305366769364</v>
       </c>
       <c r="AG17">
         <f t="shared" si="18"/>
-        <v>34158.410535850431</v>
+        <v>31850.307050014595</v>
       </c>
       <c r="AH17">
         <f t="shared" si="19"/>
-        <v>74932.430438964322</v>
+        <v>72624.32695312849</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
@@ -18662,31 +18634,31 @@
       </c>
       <c r="U18">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>28924.563180000001</v>
       </c>
       <c r="V18">
         <f t="shared" si="8"/>
-        <v>137482.55788102964</v>
+        <v>127841.03682000001</v>
       </c>
       <c r="W18">
         <f t="shared" si="9"/>
-        <v>200244.95788102964</v>
+        <v>190603.43682</v>
       </c>
       <c r="X18">
         <f t="shared" si="1"/>
-        <v>349947.35788102966</v>
+        <v>340305.83682000003</v>
       </c>
       <c r="Y18">
         <f t="shared" si="10"/>
-        <v>121800.95788102964</v>
+        <v>112159.43682</v>
       </c>
       <c r="Z18">
         <f t="shared" si="11"/>
-        <v>178292.15788102965</v>
+        <v>168650.63682000001</v>
       </c>
       <c r="AA18">
         <f t="shared" si="12"/>
-        <v>313018.55788102967</v>
+        <v>303377.03682000004</v>
       </c>
       <c r="AB18">
         <f t="shared" si="13"/>
@@ -18694,27 +18666,27 @@
       </c>
       <c r="AC18">
         <f t="shared" si="14"/>
-        <v>29920.210257867555</v>
+        <v>27821.934361653159</v>
       </c>
       <c r="AD18">
         <f t="shared" si="15"/>
-        <v>43579.137129983174</v>
+        <v>41480.861233768774</v>
       </c>
       <c r="AE18">
         <f t="shared" si="16"/>
-        <v>76158.741067694311</v>
+        <v>74060.465171479911</v>
       </c>
       <c r="AF18">
         <f t="shared" si="17"/>
-        <v>26507.437202060763</v>
+        <v>24409.161305846366</v>
       </c>
       <c r="AG18">
         <f t="shared" si="18"/>
-        <v>38801.568237809202</v>
+        <v>36703.29234159481</v>
       </c>
       <c r="AH18">
         <f t="shared" si="19"/>
-        <v>68121.958237927072</v>
+        <v>66023.682341712672</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
@@ -18764,31 +18736,31 @@
       </c>
       <c r="U19">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>28924.563180000001</v>
       </c>
       <c r="V19">
         <f t="shared" si="8"/>
-        <v>171668.15788102965</v>
+        <v>162026.63682000001</v>
       </c>
       <c r="W19">
         <f t="shared" si="9"/>
-        <v>238419.35788102963</v>
+        <v>228777.83682</v>
       </c>
       <c r="X19">
         <f t="shared" si="1"/>
-        <v>349954.55788102967</v>
+        <v>340313.03682000004</v>
       </c>
       <c r="Y19">
         <f t="shared" si="10"/>
-        <v>152566.55788102964</v>
+        <v>142925.03682000001</v>
       </c>
       <c r="Z19">
         <f t="shared" si="11"/>
-        <v>212643.35788102963</v>
+        <v>203001.83682</v>
       </c>
       <c r="AA19">
         <f t="shared" si="12"/>
-        <v>313025.75788102963</v>
+        <v>303384.23681999999</v>
       </c>
       <c r="AB19">
         <f t="shared" si="13"/>
@@ -18796,27 +18768,27 @@
       </c>
       <c r="AC19">
         <f t="shared" si="14"/>
-        <v>33963.629856668413</v>
+        <v>32056.106314655328</v>
       </c>
       <c r="AD19">
         <f t="shared" si="15"/>
-        <v>47169.998919355108</v>
+        <v>45262.475377342016</v>
       </c>
       <c r="AE19">
         <f t="shared" si="16"/>
-        <v>69236.643634065447</v>
+        <v>67329.12009205237</v>
       </c>
       <c r="AF19">
         <f t="shared" si="17"/>
-        <v>30184.480129205596</v>
+        <v>28276.956587192508</v>
       </c>
       <c r="AG19">
         <f t="shared" si="18"/>
-        <v>42070.354733785221</v>
+        <v>40162.831191772137</v>
       </c>
       <c r="AH19">
         <f t="shared" si="19"/>
-        <v>61930.477425186138</v>
+        <v>60022.953883173053</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
@@ -18866,31 +18838,31 @@
       </c>
       <c r="U20">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>28924.563180000001</v>
       </c>
       <c r="V20">
         <f t="shared" si="8"/>
-        <v>206609.75788102965</v>
+        <v>196968.23682000002</v>
       </c>
       <c r="W20">
         <f t="shared" si="9"/>
-        <v>271805.75788102963</v>
+        <v>262164.23681999999</v>
       </c>
       <c r="X20">
         <f t="shared" si="1"/>
-        <v>349961.75788102963</v>
+        <v>340320.23681999999</v>
       </c>
       <c r="Y20">
         <f t="shared" si="10"/>
-        <v>184016.15788102965</v>
+        <v>174374.63682000001</v>
       </c>
       <c r="Z20">
         <f t="shared" si="11"/>
-        <v>242696.15788102965</v>
+        <v>233054.63682000001</v>
       </c>
       <c r="AA20">
         <f t="shared" si="12"/>
-        <v>313032.95788102964</v>
+        <v>303391.43682</v>
       </c>
       <c r="AB20">
         <f t="shared" si="13"/>
@@ -18898,27 +18870,27 @@
       </c>
       <c r="AC20">
         <f t="shared" si="14"/>
-        <v>37160.58103591761</v>
+        <v>35426.468724996623</v>
       </c>
       <c r="AD20">
         <f t="shared" si="15"/>
-        <v>48886.654702838699</v>
+        <v>47152.542391917712</v>
       </c>
       <c r="AE20">
         <f t="shared" si="16"/>
-        <v>62943.698286983199</v>
+        <v>61209.585976062212</v>
       </c>
       <c r="AF20">
         <f t="shared" si="17"/>
-        <v>33096.923480224803</v>
+        <v>31362.811169303812</v>
       </c>
       <c r="AG20">
         <f t="shared" si="18"/>
-        <v>43651.037272097456</v>
+        <v>41916.924961176468</v>
       </c>
       <c r="AH20">
         <f t="shared" si="19"/>
-        <v>56301.729006183828</v>
+        <v>54567.616695262841</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.3">
@@ -18968,31 +18940,31 @@
       </c>
       <c r="U21">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>28924.563180000001</v>
       </c>
       <c r="V21">
         <f t="shared" si="8"/>
-        <v>239844.95788102964</v>
+        <v>230203.43682</v>
       </c>
       <c r="W21">
         <f t="shared" si="9"/>
-        <v>298229.75788102963</v>
+        <v>288588.23681999999</v>
       </c>
       <c r="X21">
         <f t="shared" si="1"/>
-        <v>349968.95788102964</v>
+        <v>340327.43682</v>
       </c>
       <c r="Y21">
         <f t="shared" si="10"/>
-        <v>213932.15788102965</v>
+        <v>204290.63682000001</v>
       </c>
       <c r="Z21">
         <f t="shared" si="11"/>
-        <v>266477.75788102963</v>
+        <v>256836.23681999999</v>
       </c>
       <c r="AA21">
         <f t="shared" si="12"/>
-        <v>313040.15788102965</v>
+        <v>303398.63682000001</v>
       </c>
       <c r="AB21">
         <f t="shared" si="13"/>
@@ -19000,27 +18972,27 @@
       </c>
       <c r="AC21">
         <f t="shared" si="14"/>
-        <v>39216.567173007541</v>
+        <v>37640.101435806639</v>
       </c>
       <c r="AD21">
         <f t="shared" si="15"/>
-        <v>48762.948515817952</v>
+        <v>47186.48277861705</v>
       </c>
       <c r="AE21">
         <f t="shared" si="16"/>
-        <v>57222.72115479139</v>
+        <v>55646.255417590495</v>
       </c>
       <c r="AF21">
         <f t="shared" si="17"/>
-        <v>34979.617308317116</v>
+        <v>33403.151571116214</v>
       </c>
       <c r="AG21">
         <f t="shared" si="18"/>
-        <v>43571.242791093086</v>
+        <v>41994.77705389219</v>
       </c>
       <c r="AH21">
         <f t="shared" si="19"/>
-        <v>51184.567263155608</v>
+        <v>49608.101525954706</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.3">
@@ -19070,31 +19042,31 @@
       </c>
       <c r="U22">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>28924.563180000001</v>
       </c>
       <c r="V22">
         <f t="shared" si="8"/>
-        <v>269134.55788102967</v>
+        <v>259493.03682000004</v>
       </c>
       <c r="W22">
         <f t="shared" si="9"/>
-        <v>317309.75788102963</v>
+        <v>307668.23681999999</v>
       </c>
       <c r="X22">
         <f t="shared" si="1"/>
-        <v>349968.95788102964</v>
+        <v>340327.43682</v>
       </c>
       <c r="Y22">
         <f t="shared" si="10"/>
-        <v>240291.35788102963</v>
+        <v>230649.83682</v>
       </c>
       <c r="Z22">
         <f t="shared" si="11"/>
-        <v>283649.75788102963</v>
+        <v>274008.23681999999</v>
       </c>
       <c r="AA22">
         <f t="shared" si="12"/>
-        <v>313040.15788102965</v>
+        <v>303398.63682000001</v>
       </c>
       <c r="AB22">
         <f t="shared" si="13"/>
@@ -19102,27 +19074,27 @@
       </c>
       <c r="AC22">
         <f t="shared" si="14"/>
-        <v>40005.137110110089</v>
+        <v>38571.986439927459</v>
       </c>
       <c r="AD22">
         <f t="shared" si="15"/>
-        <v>47166.073618898801</v>
+        <v>45732.922948716165</v>
       </c>
       <c r="AE22">
         <f t="shared" si="16"/>
-        <v>52020.655595264914</v>
+        <v>50587.504925082278</v>
       </c>
       <c r="AF22">
         <f t="shared" si="17"/>
-        <v>35717.779218284108</v>
+        <v>34284.628548101478</v>
       </c>
       <c r="AG22">
         <f t="shared" si="18"/>
-        <v>42162.729099606135</v>
+        <v>40729.578429423498</v>
       </c>
       <c r="AH22">
         <f t="shared" si="19"/>
-        <v>46531.424784686926</v>
+        <v>45098.274114504289</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.3">
@@ -19788,9 +19760,9 @@
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="14.88671875" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -21240,7 +21212,7 @@
       <selection activeCell="B17" sqref="B17:L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -22689,7 +22661,7 @@
       <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -24138,7 +24110,7 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -25587,7 +25559,7 @@
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -27036,7 +27008,7 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/tumlknexpectimax/excel_data/input_data_NY_residential.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_NY_residential.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="885" windowWidth="15105" windowHeight="8565" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="945" windowWidth="15105" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -780,10 +780,10 @@
                   <c:v>123966.4385182156</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>148601.5257512136</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>162896.27914347179</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>148601.5257512136</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>148601.5257512136</c:v>
@@ -792,7 +792,7 @@
                   <c:v>148601.5257512136</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>148601.5257512136</c:v>
+                  <c:v>162896.27914347179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -997,19 +997,19 @@
                   <c:v>6458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7164</c:v>
+                  <c:v>7404</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>29050</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7690</c:v>
+                  <c:v>14165.777777777777</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>14840</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13828</c:v>
+                  <c:v>14228</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4920</c:v>
@@ -1110,19 +1110,19 @@
                   <c:v>100181.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96800</c:v>
+                  <c:v>98720</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>278720</c:v>
+                  <c:v>341120</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>262692.8</c:v>
+                  <c:v>326692.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>148579.6</c:v>
+                  <c:v>138334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61989.9</c:v>
+                  <c:v>193579.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>200640</c:v>
@@ -1134,7 +1134,7 @@
                   <c:v>89988.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>355977.2</c:v>
+                  <c:v>227977.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>260532.4</c:v>
@@ -1161,11 +1161,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62176256"/>
-        <c:axId val="62403648"/>
+        <c:axId val="235671552"/>
+        <c:axId val="228971584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62176256"/>
+        <c:axId val="235671552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,7 +1194,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62403648"/>
+        <c:crossAx val="228971584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1202,7 +1202,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62403648"/>
+        <c:axId val="228971584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1232,7 +1232,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62176256"/>
+        <c:crossAx val="235671552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1489,46 +1489,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>54093.514410000003</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28924.563180000001</c:v>
+                  <c:v>0.66757723360328514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65564.735539999994</c:v>
+                  <c:v>0.66966575349072266</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66372.63308</c:v>
+                  <c:v>0.69151537878657388</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15811.164779999999</c:v>
+                  <c:v>0.61522052709816344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17908.37803</c:v>
+                  <c:v>0.64919038635085491</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76475.574179999996</c:v>
+                  <c:v>0.61333019720698378</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>71590.295100000003</c:v>
+                  <c:v>1.2884351251070298</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72330.433749999997</c:v>
+                  <c:v>1.4055635048815707</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56524.301570000003</c:v>
+                  <c:v>0.5373471144389107</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67241.808149999997</c:v>
+                  <c:v>0.69391544850918296</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18209.722399999999</c:v>
+                  <c:v>0.75363432865864466</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>71129.362139999997</c:v>
+                  <c:v>0.83618305765046241</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75132.715379999994</c:v>
+                  <c:v>0.8201035353970868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1548,11 +1548,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="63626752"/>
-        <c:axId val="63341120"/>
+        <c:axId val="237156864"/>
+        <c:axId val="235610688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63626752"/>
+        <c:axId val="237156864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1562,7 +1562,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63341120"/>
+        <c:crossAx val="235610688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1570,7 +1570,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63341120"/>
+        <c:axId val="235610688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1600,7 +1600,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63626752"/>
+        <c:crossAx val="237156864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1765,11 +1765,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="63767552"/>
-        <c:axId val="63342848"/>
+        <c:axId val="236072960"/>
+        <c:axId val="235612416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63767552"/>
+        <c:axId val="236072960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1798,7 +1798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63342848"/>
+        <c:crossAx val="235612416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1806,7 +1806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63342848"/>
+        <c:axId val="235612416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,7 +1836,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63767552"/>
+        <c:crossAx val="236072960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2378,11 +2378,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="63097856"/>
-        <c:axId val="63344576"/>
+        <c:axId val="236767232"/>
+        <c:axId val="235614144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63097856"/>
+        <c:axId val="236767232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2392,7 +2392,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63344576"/>
+        <c:crossAx val="235614144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2400,7 +2400,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63344576"/>
+        <c:axId val="235614144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2411,7 +2411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63097856"/>
+        <c:crossAx val="236767232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2648,73 +2648,72 @@
       <sheetName val="FTTH_Hybridpon_100"/>
       <sheetName val="FTTC_Hybridpon_100"/>
       <sheetName val="FTTB_Hybridpon_100"/>
-      <sheetName val="ADSL"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="W3">
-            <v>307967.22911888885</v>
+            <v>257876.76484436693</v>
           </cell>
         </row>
         <row r="4">
           <cell r="W4">
-            <v>216506.84792333335</v>
+            <v>216506.82213135384</v>
           </cell>
         </row>
         <row r="5">
           <cell r="W5">
-            <v>145045.86878666666</v>
+            <v>146245.86534054048</v>
           </cell>
         </row>
         <row r="6">
           <cell r="W6">
-            <v>218092.13545333332</v>
+            <v>290423.53200720716</v>
           </cell>
         </row>
         <row r="7">
           <cell r="W7">
-            <v>288249.58125666669</v>
+            <v>327151.15546468715</v>
           </cell>
         </row>
         <row r="8">
           <cell r="W8">
-            <v>347869.80689666665</v>
+            <v>265120.14262214472</v>
           </cell>
         </row>
         <row r="9">
           <cell r="W9">
-            <v>221159.28125666664</v>
+            <v>216224.75546468716</v>
           </cell>
         </row>
         <row r="10">
           <cell r="W10">
-            <v>153163.03545333334</v>
+            <v>216671.03200720716</v>
           </cell>
         </row>
         <row r="11">
           <cell r="W11">
-            <v>215033.99423000001</v>
+            <v>215033.95413371181</v>
           </cell>
         </row>
         <row r="12">
           <cell r="W12">
-            <v>178789.21166999999</v>
+            <v>178789.18073992687</v>
           </cell>
         </row>
         <row r="13">
           <cell r="W13">
-            <v>298182.08727000002</v>
+            <v>238085.80071821815</v>
           </cell>
         </row>
         <row r="14">
           <cell r="W14">
-            <v>247844.99423000001</v>
+            <v>247844.95413371181</v>
           </cell>
         </row>
         <row r="15">
           <cell r="W15">
-            <v>196669.21166999999</v>
+            <v>196666.48111821816</v>
           </cell>
         </row>
       </sheetData>
@@ -2734,7 +2733,6 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3029,8 +3027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3157,11 +3155,13 @@
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
       <c r="V2" s="9">
-        <v>10000</v>
-      </c>
-      <c r="W2" s="10"/>
-    </row>
-    <row r="3" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>100000</v>
+      </c>
+      <c r="W2" s="10">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>291788.63717996189</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>277824.94829107303</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
@@ -3374,18 +3374,18 @@
         <v>6458</v>
       </c>
       <c r="U5" s="9">
-        <v>96800</v>
+        <v>98720</v>
       </c>
       <c r="V5" s="9">
         <f t="shared" si="0"/>
-        <v>103258</v>
+        <v>105178</v>
       </c>
       <c r="W5" s="10">
         <f t="shared" si="1"/>
-        <v>227248.16613108691</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>229168.16613108691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
@@ -3447,21 +3447,21 @@
         <v>23.727612871311063</v>
       </c>
       <c r="T6" s="9">
-        <v>7164</v>
+        <v>7404</v>
       </c>
       <c r="U6" s="9">
-        <v>278720</v>
+        <v>341120</v>
       </c>
       <c r="V6" s="9">
         <f t="shared" si="0"/>
-        <v>285884</v>
+        <v>348524</v>
       </c>
       <c r="W6" s="10">
         <f t="shared" si="1"/>
-        <v>409874.16613108688</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>472514.16613108688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
@@ -3526,18 +3526,18 @@
         <v>29050</v>
       </c>
       <c r="U7" s="9">
-        <v>262692.8</v>
+        <v>326692.8</v>
       </c>
       <c r="V7" s="9">
         <f t="shared" si="0"/>
-        <v>291742.8</v>
+        <v>355742.8</v>
       </c>
       <c r="W7" s="10">
         <f t="shared" si="1"/>
-        <v>461966.14829107304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>525966.14829107304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
@@ -3597,21 +3597,21 @@
         <v>35.517736249908381</v>
       </c>
       <c r="T8" s="9">
-        <v>7690</v>
+        <v>14165.777777777777</v>
       </c>
       <c r="U8" s="9">
-        <v>148579.6</v>
+        <v>138334</v>
       </c>
       <c r="V8" s="9">
         <f t="shared" si="0"/>
-        <v>156269.6</v>
+        <v>152499.77777777778</v>
       </c>
       <c r="W8" s="10">
         <f t="shared" si="1"/>
-        <v>326492.94829107303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>322723.1260688508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
@@ -3674,18 +3674,18 @@
         <v>14840</v>
       </c>
       <c r="U9" s="9">
-        <v>61989.9</v>
+        <v>193579.2</v>
       </c>
       <c r="V9" s="9">
         <f t="shared" si="0"/>
-        <v>76829.899999999994</v>
+        <v>208419.20000000001</v>
       </c>
       <c r="W9" s="10">
         <f t="shared" si="1"/>
-        <v>247053.24829107302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>378642.54829107306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
@@ -3744,21 +3744,21 @@
         <v>23.727612871311063</v>
       </c>
       <c r="T10" s="9">
-        <v>13828</v>
+        <v>14228</v>
       </c>
       <c r="U10" s="9">
         <v>200640</v>
       </c>
       <c r="V10" s="9">
         <f t="shared" si="0"/>
-        <v>214468</v>
+        <v>214868</v>
       </c>
       <c r="W10" s="10">
         <f t="shared" si="1"/>
-        <v>338458.16613108688</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>338858.16613108688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>1544140.8019904599</v>
       </c>
       <c r="R11" s="9">
-        <v>162896.27914347179</v>
+        <v>148601.5257512136</v>
       </c>
       <c r="S11" s="9">
         <v>33.851521342501684</v>
@@ -3829,10 +3829,10 @@
       </c>
       <c r="W11" s="10">
         <f t="shared" si="1"/>
-        <v>246300.33066481428</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>232005.57727255608</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>1544140.8019904599</v>
       </c>
       <c r="R12" s="9">
-        <v>148601.5257512136</v>
+        <v>162896.27914347179</v>
       </c>
       <c r="S12" s="9">
         <v>33.851521342501684</v>
@@ -3903,10 +3903,10 @@
       </c>
       <c r="W12" s="10">
         <f t="shared" si="1"/>
-        <v>249323.97727255611</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>263618.7306648143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
@@ -3969,18 +3969,18 @@
         <v>21000</v>
       </c>
       <c r="U13" s="9">
-        <v>355977.2</v>
+        <v>227977.2</v>
       </c>
       <c r="V13" s="9">
         <f t="shared" si="0"/>
-        <v>376977.2</v>
+        <v>248977.2</v>
       </c>
       <c r="W13" s="10">
         <f t="shared" si="1"/>
-        <v>525612.57727255614</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>397612.57727255614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>443647.77727255609</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>1544140.8019904599</v>
       </c>
       <c r="R15" s="9">
-        <v>148601.5257512136</v>
+        <v>162896.27914347179</v>
       </c>
       <c r="S15" s="9">
         <v>33.851521342501684</v>
@@ -4125,10 +4125,10 @@
       </c>
       <c r="W15" s="10">
         <f t="shared" si="1"/>
-        <v>384812.57727255614</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+        <v>399107.33066481433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>7895*8</f>
         <v>63160</v>
@@ -4138,7 +4138,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="42" spans="17:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="17:24" x14ac:dyDescent="0.25">
       <c r="Q42" s="5" t="s">
         <v>54</v>
       </c>
@@ -4152,12 +4152,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="17:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="17:24" x14ac:dyDescent="0.25">
       <c r="R43" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="17:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="17:24" x14ac:dyDescent="0.25">
       <c r="Q44" t="s">
         <v>57</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="17:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="17:24" x14ac:dyDescent="0.25">
       <c r="R45" t="s">
         <v>59</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="17:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="17:24" x14ac:dyDescent="0.25">
       <c r="Q46" t="s">
         <v>62</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>37780.731862074172</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -15923,55 +15923,55 @@
       </c>
       <c r="C2">
         <f>[1]CAPEX!$W3</f>
-        <v>307967.22911888885</v>
+        <v>257876.76484436693</v>
       </c>
       <c r="D2">
         <f>[1]CAPEX!$W4</f>
-        <v>216506.84792333335</v>
+        <v>216506.82213135384</v>
       </c>
       <c r="E2">
         <f>[1]CAPEX!$W5</f>
-        <v>145045.86878666666</v>
+        <v>146245.86534054048</v>
       </c>
       <c r="F2">
         <f>[1]CAPEX!$W6</f>
-        <v>218092.13545333332</v>
+        <v>290423.53200720716</v>
       </c>
       <c r="G2">
         <f>[1]CAPEX!$W7</f>
-        <v>288249.58125666669</v>
+        <v>327151.15546468715</v>
       </c>
       <c r="H2">
         <f>[1]CAPEX!$W8</f>
-        <v>347869.80689666665</v>
+        <v>265120.14262214472</v>
       </c>
       <c r="I2">
         <f>[1]CAPEX!$W9</f>
-        <v>221159.28125666664</v>
+        <v>216224.75546468716</v>
       </c>
       <c r="J2">
         <f>[1]CAPEX!$W10</f>
-        <v>153163.03545333334</v>
+        <v>216671.03200720716</v>
       </c>
       <c r="K2">
         <f>[1]CAPEX!$W11</f>
-        <v>215033.99423000001</v>
+        <v>215033.95413371181</v>
       </c>
       <c r="L2">
         <f>[1]CAPEX!$W12</f>
-        <v>178789.21166999999</v>
+        <v>178789.18073992687</v>
       </c>
       <c r="M2">
         <f>[1]CAPEX!$W13</f>
-        <v>298182.08727000002</v>
+        <v>238085.80071821815</v>
       </c>
       <c r="N2">
         <f>[1]CAPEX!$W14</f>
-        <v>247844.99423000001</v>
+        <v>247844.95413371181</v>
       </c>
       <c r="O2">
         <f>[1]CAPEX!$W15</f>
-        <v>196669.21166999999</v>
+        <v>196666.48111821816</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -15998,11 +15998,11 @@
       </c>
       <c r="H3">
         <f>H2-C2</f>
-        <v>39902.577777777798</v>
+        <v>7243.3777777777868</v>
       </c>
       <c r="I3">
         <f>D3+(I2-D2)</f>
-        <v>4652.4333333332906</v>
+        <v>-282.06666666668025</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -16044,14 +16044,14 @@
       </c>
       <c r="G4">
         <f>G2-D2</f>
-        <v>71742.733333333337</v>
+        <v>110644.33333333331</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
         <f>I2-D2</f>
-        <v>4652.4333333332906</v>
+        <v>-282.06666666668025</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -16090,7 +16090,7 @@
       </c>
       <c r="F5">
         <f>F2-E2</f>
-        <v>73046.266666666663</v>
+        <v>144177.66666666669</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -16103,7 +16103,7 @@
       </c>
       <c r="J5">
         <f>J2-E2</f>
-        <v>8117.1666666666861</v>
+        <v>70425.166666666686</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -16283,7 +16283,7 @@
       </c>
       <c r="G9">
         <f>G2-I2</f>
-        <v>67090.300000000047</v>
+        <v>110926.39999999999</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -16328,7 +16328,7 @@
       </c>
       <c r="F10">
         <f>F2-J2</f>
-        <v>64929.099999999977</v>
+        <v>73752.5</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -16403,7 +16403,7 @@
       </c>
       <c r="O11">
         <f>L11+(O2-L2)</f>
-        <v>17880</v>
+        <v>17877.300378291286</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -16445,14 +16445,14 @@
       </c>
       <c r="M12">
         <f>M2-L2</f>
-        <v>119392.87560000003</v>
+        <v>59296.619978291274</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
         <f>O2-L2</f>
-        <v>17880</v>
+        <v>17877.300378291286</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -16541,7 +16541,7 @@
       </c>
       <c r="M14">
         <f>M2-N2</f>
-        <v>50337.093040000007</v>
+        <v>-9759.1534154936671</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -16589,7 +16589,7 @@
       </c>
       <c r="M15">
         <f>M2-O2</f>
-        <v>101512.87560000003</v>
+        <v>41419.319599999988</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -16612,7 +16612,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16638,150 +16638,150 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>54093.514410000003</v>
+        <v>0.25</v>
       </c>
       <c r="C2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B3">
-        <v>28924.563180000001</v>
+        <v>0.66757723360328514</v>
       </c>
       <c r="C3">
         <v>7.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B4">
-        <v>65564.735539999994</v>
+        <v>0.66966575349072266</v>
       </c>
       <c r="C4">
         <v>9.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B5">
-        <v>66372.63308</v>
+        <v>0.69151537878657388</v>
       </c>
       <c r="C5">
         <v>9.6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B6">
-        <v>15811.164779999999</v>
+        <v>0.61522052709816344</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B7">
-        <v>17908.37803</v>
+        <v>0.64919038635085491</v>
       </c>
       <c r="C7">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B8">
-        <v>76475.574179999996</v>
+        <v>0.61333019720698378</v>
       </c>
       <c r="C8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B9">
-        <v>71590.295100000003</v>
+        <v>1.2884351251070298</v>
       </c>
       <c r="C9">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B10">
-        <v>72330.433749999997</v>
+        <v>1.4055635048815707</v>
       </c>
       <c r="C10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B11">
-        <v>56524.301570000003</v>
+        <v>0.5373471144389107</v>
       </c>
       <c r="C11">
         <v>7.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B12">
-        <v>67241.808149999997</v>
+        <v>0.69391544850918296</v>
       </c>
       <c r="C12">
         <v>9.6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B13">
-        <v>18209.722399999999</v>
+        <v>0.75363432865864466</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B14">
-        <v>71129.362139999997</v>
+        <v>0.83618305765046241</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B15">
-        <v>75132.715379999994</v>
+        <v>0.8201035353970868</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -16943,31 +16943,31 @@
       </c>
       <c r="U2">
         <f>OPEX!$B$3</f>
-        <v>28924.563180000001</v>
+        <v>0.66757723360328514</v>
       </c>
       <c r="V2">
         <f>O2-U2</f>
-        <v>-27426.963180000002</v>
+        <v>1496.9324227663969</v>
       </c>
       <c r="W2">
         <f>P2-U2</f>
-        <v>-27426.963180000002</v>
+        <v>1496.9324227663969</v>
       </c>
       <c r="X2">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-27426.963180000002</v>
+        <v>1496.9324227663969</v>
       </c>
       <c r="Y2">
         <f>R2-$U2</f>
-        <v>-27578.16318</v>
+        <v>1345.7324227663969</v>
       </c>
       <c r="Z2">
         <f>S2-$U2</f>
-        <v>-27578.16318</v>
+        <v>1345.7324227663969</v>
       </c>
       <c r="AA2">
         <f>T2-$U2</f>
-        <v>-27578.16318</v>
+        <v>1345.7324227663969</v>
       </c>
       <c r="AB2">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -16975,27 +16975,27 @@
       </c>
       <c r="AC2">
         <f>V2*AB2</f>
-        <v>-27426.963180000002</v>
+        <v>1496.9324227663969</v>
       </c>
       <c r="AD2">
         <f>W2*AB2</f>
-        <v>-27426.963180000002</v>
+        <v>1496.9324227663969</v>
       </c>
       <c r="AE2">
         <f>X2*AB2</f>
-        <v>-27426.963180000002</v>
+        <v>1496.9324227663969</v>
       </c>
       <c r="AF2">
         <f>Y2*$AB2</f>
-        <v>-27578.16318</v>
+        <v>1345.7324227663969</v>
       </c>
       <c r="AG2">
         <f>Z2*$AB2</f>
-        <v>-27578.16318</v>
+        <v>1345.7324227663969</v>
       </c>
       <c r="AH2">
         <f>AA2*$AB2</f>
-        <v>-27578.16318</v>
+        <v>1345.7324227663969</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
@@ -17045,31 +17045,31 @@
       </c>
       <c r="U3">
         <f>OPEX!$B$3</f>
-        <v>28924.563180000001</v>
+        <v>0.66757723360328514</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-26937.36318</v>
+        <v>1986.5324227663968</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-26872.563180000001</v>
+        <v>2051.3324227663966</v>
       </c>
       <c r="X3">
         <f t="shared" si="1"/>
-        <v>-26138.16318</v>
+        <v>2785.7324227663967</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-27138.963180000002</v>
+        <v>1784.9324227663969</v>
       </c>
       <c r="Z3">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-27081.36318</v>
+        <v>1842.5324227663968</v>
       </c>
       <c r="AA3">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-26418.963180000002</v>
+        <v>2504.9324227663965</v>
       </c>
       <c r="AB3">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -17077,27 +17077,27 @@
       </c>
       <c r="AC3">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-24488.511981818181</v>
+        <v>1805.9385661512697</v>
       </c>
       <c r="AD3">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-24429.602890909093</v>
+        <v>1864.8476570603605</v>
       </c>
       <c r="AE3">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-23761.966527272725</v>
+        <v>2532.4840206967242</v>
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-24671.784709090909</v>
+        <v>1622.6658388785427</v>
       </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-24619.421072727273</v>
+        <v>1675.0294752421789</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-24017.239254545457</v>
+        <v>2277.2112934239967</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
@@ -17147,31 +17147,31 @@
       </c>
       <c r="U4">
         <f>OPEX!$B$3</f>
-        <v>28924.563180000001</v>
+        <v>0.66757723360328514</v>
       </c>
       <c r="V4">
         <f t="shared" si="8"/>
-        <v>-26253.36318</v>
+        <v>2670.5324227663968</v>
       </c>
       <c r="W4">
         <f t="shared" si="9"/>
-        <v>-26073.36318</v>
+        <v>2850.5324227663968</v>
       </c>
       <c r="X4">
         <f t="shared" si="1"/>
-        <v>-23603.763180000002</v>
+        <v>5320.1324227663972</v>
       </c>
       <c r="Y4">
         <f t="shared" si="10"/>
-        <v>-26526.963180000002</v>
+        <v>2396.9324227663965</v>
       </c>
       <c r="Z4">
         <f t="shared" si="11"/>
-        <v>-26361.36318</v>
+        <v>2562.5324227663968</v>
       </c>
       <c r="AA4">
         <f t="shared" si="12"/>
-        <v>-24136.563180000001</v>
+        <v>4787.332422766397</v>
       </c>
       <c r="AB4">
         <f t="shared" si="13"/>
@@ -17179,27 +17179,27 @@
       </c>
       <c r="AC4">
         <f t="shared" si="14"/>
-        <v>-21696.994363636361</v>
+        <v>2207.0515890631377</v>
       </c>
       <c r="AD4">
         <f t="shared" si="15"/>
-        <v>-21548.234033057848</v>
+        <v>2355.8119196416501</v>
       </c>
       <c r="AE4">
         <f t="shared" si="16"/>
-        <v>-19507.242297520661</v>
+        <v>4396.80365517884</v>
       </c>
       <c r="AF4">
         <f t="shared" si="17"/>
-        <v>-21923.110066115703</v>
+        <v>1980.9358865837985</v>
       </c>
       <c r="AG4">
         <f t="shared" si="18"/>
-        <v>-21786.25056198347</v>
+        <v>2117.7953907160304</v>
       </c>
       <c r="AH4">
         <f t="shared" si="19"/>
-        <v>-19947.572876033057</v>
+        <v>3956.4730766664434</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
@@ -17256,31 +17256,31 @@
       </c>
       <c r="U5">
         <f>OPEX!$B$3</f>
-        <v>28924.563180000001</v>
+        <v>0.66757723360328514</v>
       </c>
       <c r="V5">
         <f t="shared" si="8"/>
-        <v>-25295.763180000002</v>
+        <v>3628.1324227663968</v>
       </c>
       <c r="W5">
         <f t="shared" si="9"/>
-        <v>-24921.36318</v>
+        <v>4002.5324227663968</v>
       </c>
       <c r="X5">
         <f t="shared" si="1"/>
-        <v>-18642.963179999999</v>
+        <v>10280.932422766396</v>
       </c>
       <c r="Y5">
         <f t="shared" si="10"/>
-        <v>-25662.963180000002</v>
+        <v>3260.9324227663965</v>
       </c>
       <c r="Z5">
         <f t="shared" si="11"/>
-        <v>-25324.563180000001</v>
+        <v>3599.3324227663966</v>
       </c>
       <c r="AA5">
         <f t="shared" si="12"/>
-        <v>-19672.563180000001</v>
+        <v>9251.3324227663961</v>
       </c>
       <c r="AB5">
         <f t="shared" si="13"/>
@@ -17288,27 +17288,27 @@
       </c>
       <c r="AC5">
         <f t="shared" si="14"/>
-        <v>-19005.081277235156</v>
+        <v>2725.8695888552934</v>
       </c>
       <c r="AD5">
         <f t="shared" si="15"/>
-        <v>-18723.789015777606</v>
+        <v>3007.1618503128443</v>
       </c>
       <c r="AE5">
         <f t="shared" si="16"/>
-        <v>-14006.734169797141</v>
+        <v>7724.2166962933088</v>
       </c>
       <c r="AF5">
         <f t="shared" si="17"/>
-        <v>-19280.964072126219</v>
+        <v>2449.986793964234</v>
       </c>
       <c r="AG5">
         <f t="shared" si="18"/>
-        <v>-19026.719143501123</v>
+        <v>2704.231722589328</v>
       </c>
       <c r="AH5">
         <f t="shared" si="19"/>
-        <v>-14780.287888805406</v>
+        <v>6950.6629772850438</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
@@ -17365,31 +17365,31 @@
       </c>
       <c r="U6">
         <f>OPEX!$B$3</f>
-        <v>28924.563180000001</v>
+        <v>0.66757723360328514</v>
       </c>
       <c r="V6">
         <f t="shared" si="8"/>
-        <v>-23978.16318</v>
+        <v>4945.7324227663976</v>
       </c>
       <c r="W6">
         <f t="shared" si="9"/>
-        <v>-23279.763180000002</v>
+        <v>5644.1324227663972</v>
       </c>
       <c r="X6">
         <f t="shared" si="1"/>
-        <v>-8973.3631800000003</v>
+        <v>19950.532422766399</v>
       </c>
       <c r="Y6">
         <f t="shared" si="10"/>
-        <v>-24474.963179999999</v>
+        <v>4448.9324227663974</v>
       </c>
       <c r="Z6">
         <f t="shared" si="11"/>
-        <v>-23848.563180000001</v>
+        <v>5075.332422766397</v>
       </c>
       <c r="AA6">
         <f t="shared" si="12"/>
-        <v>-10974.963179999999</v>
+        <v>17948.9324227664</v>
       </c>
       <c r="AB6">
         <f t="shared" si="13"/>
@@ -17397,27 +17397,27 @@
       </c>
       <c r="AC6">
         <f t="shared" si="14"/>
-        <v>-16377.408086879306</v>
+        <v>3378.0017913847391</v>
       </c>
       <c r="AD6">
         <f t="shared" si="15"/>
-        <v>-15900.391489652344</v>
+        <v>3855.0183886117038</v>
       </c>
       <c r="AE6">
         <f t="shared" si="16"/>
-        <v>-6128.9277918174976</v>
+        <v>13626.482086446549</v>
       </c>
       <c r="AF6">
         <f t="shared" si="17"/>
-        <v>-16716.729171504674</v>
+        <v>3038.6807067593718</v>
       </c>
       <c r="AG6">
         <f t="shared" si="18"/>
-        <v>-16288.889543063995</v>
+        <v>3466.5203352000517</v>
       </c>
       <c r="AH6">
         <f t="shared" si="19"/>
-        <v>-7496.0475240762216</v>
+        <v>12259.362354187826</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
@@ -17474,31 +17474,31 @@
       </c>
       <c r="U7">
         <f>OPEX!$B$3</f>
-        <v>28924.563180000001</v>
+        <v>0.66757723360328514</v>
       </c>
       <c r="V7">
         <f t="shared" si="8"/>
-        <v>-22170.963179999999</v>
+        <v>6752.9324227663974</v>
       </c>
       <c r="W7">
         <f t="shared" si="9"/>
-        <v>-20939.763180000002</v>
+        <v>7984.1324227663972</v>
       </c>
       <c r="X7">
         <f t="shared" si="1"/>
-        <v>9509.0368199999975</v>
+        <v>38432.932422766396</v>
       </c>
       <c r="Y7">
         <f t="shared" si="10"/>
-        <v>-22847.763180000002</v>
+        <v>6076.1324227663972</v>
       </c>
       <c r="Z7">
         <f t="shared" si="11"/>
-        <v>-21738.963179999999</v>
+        <v>7184.9324227663974</v>
       </c>
       <c r="AA7">
         <f t="shared" si="12"/>
-        <v>5664.2368200000019</v>
+        <v>34588.132422766401</v>
       </c>
       <c r="AB7">
         <f t="shared" si="13"/>
@@ -17506,27 +17506,27 @@
       </c>
       <c r="AC7">
         <f t="shared" si="14"/>
-        <v>-13766.423791221408</v>
+        <v>4193.0397344731764</v>
       </c>
       <c r="AD7">
         <f t="shared" si="15"/>
-        <v>-13001.945458270979</v>
+        <v>4957.5180674236071</v>
       </c>
       <c r="AE7">
         <f t="shared" si="16"/>
-        <v>5904.3637232926176</v>
+        <v>23863.827248987203</v>
       </c>
       <c r="AF7">
         <f t="shared" si="17"/>
-        <v>-14186.663342667845</v>
+        <v>3772.8001830267399</v>
       </c>
       <c r="AG7">
         <f t="shared" si="18"/>
-        <v>-13498.185779659852</v>
+        <v>4461.2777460347306</v>
       </c>
       <c r="AH7">
         <f t="shared" si="19"/>
-        <v>3517.0454203947816</v>
+        <v>21476.508946089369</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
@@ -17583,31 +17583,31 @@
       </c>
       <c r="U8">
         <f>OPEX!$B$3</f>
-        <v>28924.563180000001</v>
+        <v>0.66757723360328514</v>
       </c>
       <c r="V8">
         <f t="shared" si="8"/>
-        <v>-19679.763180000002</v>
+        <v>9244.1324227663972</v>
       </c>
       <c r="W8">
         <f t="shared" si="9"/>
-        <v>-17627.763180000002</v>
+        <v>11296.132422766397</v>
       </c>
       <c r="X8">
         <f t="shared" si="1"/>
-        <v>43493.036820000008</v>
+        <v>72416.932422766404</v>
       </c>
       <c r="Y8">
         <f t="shared" si="10"/>
-        <v>-20608.563180000001</v>
+        <v>8315.3324227663961</v>
       </c>
       <c r="Z8">
         <f t="shared" si="11"/>
-        <v>-18758.163180000003</v>
+        <v>10165.732422766396</v>
       </c>
       <c r="AA8">
         <f t="shared" si="12"/>
-        <v>36249.836819999997</v>
+        <v>65173.732422766399</v>
       </c>
       <c r="AB8">
         <f t="shared" si="13"/>
@@ -17615,27 +17615,27 @@
       </c>
       <c r="AC8">
         <f t="shared" si="14"/>
-        <v>-11108.71326474222</v>
+        <v>5218.0717586164938</v>
       </c>
       <c r="AD8">
         <f t="shared" si="15"/>
-        <v>-9950.4127602718709</v>
+        <v>6376.3722630868442</v>
       </c>
       <c r="AE8">
         <f t="shared" si="16"/>
-        <v>24550.685423759041</v>
+        <v>40877.470447117754</v>
       </c>
       <c r="AF8">
         <f t="shared" si="17"/>
-        <v>-11632.996650976169</v>
+        <v>4693.7883723825444</v>
       </c>
       <c r="AG8">
         <f t="shared" si="18"/>
-        <v>-10588.494090804661</v>
+        <v>5738.2909325540541</v>
       </c>
       <c r="AH8">
         <f t="shared" si="19"/>
-        <v>20462.087853593515</v>
+        <v>36788.872876952235</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
@@ -17691,31 +17691,31 @@
       </c>
       <c r="U9">
         <f>OPEX!$B$3</f>
-        <v>28924.563180000001</v>
+        <v>0.66757723360328514</v>
       </c>
       <c r="V9">
         <f t="shared" si="8"/>
-        <v>-16288.563180000001</v>
+        <v>12635.332422766396</v>
       </c>
       <c r="W9">
         <f t="shared" si="9"/>
-        <v>-12962.163180000001</v>
+        <v>15961.732422766396</v>
       </c>
       <c r="X9">
         <f t="shared" si="1"/>
-        <v>101201.03682000001</v>
+        <v>130124.9324227664</v>
       </c>
       <c r="Y9">
         <f t="shared" si="10"/>
-        <v>-17555.763180000002</v>
+        <v>11368.132422766397</v>
       </c>
       <c r="Z9">
         <f t="shared" si="11"/>
-        <v>-14560.563180000001</v>
+        <v>14363.332422766396</v>
       </c>
       <c r="AA9">
         <f t="shared" si="12"/>
-        <v>88183.436820000003</v>
+        <v>117107.3324227664</v>
       </c>
       <c r="AB9">
         <f t="shared" si="13"/>
@@ -17723,27 +17723,27 @@
       </c>
       <c r="AC9">
         <f t="shared" si="14"/>
-        <v>-8358.6084301307728</v>
+        <v>6483.9234092862371</v>
       </c>
       <c r="AD9">
         <f t="shared" si="15"/>
-        <v>-6651.6392656481503</v>
+        <v>8190.8925737688587</v>
       </c>
       <c r="AE9">
         <f t="shared" si="16"/>
-        <v>51932.133617547639</v>
+        <v>66774.665456964649</v>
       </c>
       <c r="AF9">
         <f t="shared" si="17"/>
-        <v>-9008.8823975527248</v>
+        <v>5833.649441864286</v>
       </c>
       <c r="AG9">
         <f t="shared" si="18"/>
-        <v>-7471.8712018281112</v>
+        <v>7370.6606375888978</v>
       </c>
       <c r="AH9">
         <f t="shared" si="19"/>
-        <v>45252.046497667594</v>
+        <v>60094.578337084604</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
@@ -17799,31 +17799,31 @@
       </c>
       <c r="U10">
         <f>OPEX!$B$3</f>
-        <v>28924.563180000001</v>
+        <v>0.66757723360328514</v>
       </c>
       <c r="V10">
         <f t="shared" si="8"/>
-        <v>-11687.763180000002</v>
+        <v>17236.132422766397</v>
       </c>
       <c r="W10">
         <f t="shared" si="9"/>
-        <v>-6438.9631799999988</v>
+        <v>22484.9324227664</v>
       </c>
       <c r="X10">
         <f t="shared" si="1"/>
-        <v>184922.63682000001</v>
+        <v>213846.53242276641</v>
       </c>
       <c r="Y10">
         <f t="shared" si="10"/>
-        <v>-13415.76318</v>
+        <v>15508.132422766397</v>
       </c>
       <c r="Z10">
         <f t="shared" si="11"/>
-        <v>-8692.563180000001</v>
+        <v>20231.332422766398</v>
       </c>
       <c r="AA10">
         <f t="shared" si="12"/>
-        <v>163531.43682</v>
+        <v>192455.3324227664</v>
       </c>
       <c r="AB10">
         <f t="shared" si="13"/>
@@ -17831,27 +17831,27 @@
       </c>
       <c r="AC10">
         <f t="shared" si="14"/>
-        <v>-5452.4277816135809</v>
+        <v>8040.7829814927927</v>
       </c>
       <c r="AD10">
         <f t="shared" si="15"/>
-        <v>-3003.8238443687319</v>
+        <v>10489.386918737642</v>
       </c>
       <c r="AE10">
         <f t="shared" si="16"/>
-        <v>86267.774844374144</v>
+        <v>99760.985607480514</v>
       </c>
       <c r="AF10">
         <f t="shared" si="17"/>
-        <v>-6258.5525346159984</v>
+        <v>7234.6582284903734</v>
       </c>
       <c r="AG10">
         <f t="shared" si="18"/>
-        <v>-4055.1448764093875</v>
+        <v>9438.0658866969861</v>
       </c>
       <c r="AH10">
         <f t="shared" si="19"/>
-        <v>76288.622172831689</v>
+        <v>89781.832935938073</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
@@ -17907,31 +17907,31 @@
       </c>
       <c r="U11">
         <f>OPEX!$B$3</f>
-        <v>28924.563180000001</v>
+        <v>0.66757723360328514</v>
       </c>
       <c r="V11">
         <f t="shared" si="8"/>
-        <v>-5474.1631799999996</v>
+        <v>23449.732422766399</v>
       </c>
       <c r="W11">
         <f t="shared" si="9"/>
-        <v>2589.8368200000004</v>
+        <v>31513.732422766399</v>
       </c>
       <c r="X11">
         <f t="shared" si="1"/>
-        <v>274382.63682000001</v>
+        <v>303306.53242276638</v>
       </c>
       <c r="Y11">
         <f t="shared" si="10"/>
-        <v>-7821.3631800000003</v>
+        <v>21102.532422766399</v>
       </c>
       <c r="Z11">
         <f t="shared" si="11"/>
-        <v>-563.76318000000174</v>
+        <v>28360.132422766397</v>
       </c>
       <c r="AA11">
         <f t="shared" si="12"/>
-        <v>244049.03682000004</v>
+        <v>272972.9324227664</v>
       </c>
       <c r="AB11">
         <f t="shared" si="13"/>
@@ -17939,27 +17939,27 @@
       </c>
       <c r="AC11">
         <f t="shared" si="14"/>
-        <v>-2321.5795672203467</v>
+        <v>9944.9756719672641</v>
       </c>
       <c r="AD11">
         <f t="shared" si="15"/>
-        <v>1098.3436273353695</v>
+        <v>13364.898866522981</v>
       </c>
       <c r="AE11">
         <f t="shared" si="16"/>
-        <v>116365.02279812442</v>
+        <v>128631.57803731202</v>
       </c>
       <c r="AF11">
         <f t="shared" si="17"/>
-        <v>-3317.0214970642432</v>
+        <v>8949.5337421233689</v>
       </c>
       <c r="AG11">
         <f t="shared" si="18"/>
-        <v>-239.09062196409911</v>
+        <v>12027.464617223512</v>
       </c>
       <c r="AH11">
         <f t="shared" si="19"/>
-        <v>103500.61528146084</v>
+        <v>115767.17052064843</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
@@ -18016,31 +18016,31 @@
       </c>
       <c r="U12">
         <f>OPEX!$B$3</f>
-        <v>28924.563180000001</v>
+        <v>0.66757723360328514</v>
       </c>
       <c r="V12">
         <f t="shared" si="8"/>
-        <v>2841.8368200000004</v>
+        <v>31765.732422766399</v>
       </c>
       <c r="W12">
         <f t="shared" si="9"/>
-        <v>14930.636820000003</v>
+        <v>43854.532422766402</v>
       </c>
       <c r="X12">
         <f t="shared" si="1"/>
-        <v>328094.63682000001</v>
+        <v>357018.53242276638</v>
       </c>
       <c r="Y12">
         <f t="shared" si="10"/>
-        <v>-340.56318000000101</v>
+        <v>28583.332422766398</v>
       </c>
       <c r="Z12">
         <f t="shared" si="11"/>
-        <v>10538.636820000003</v>
+        <v>39462.532422766402</v>
       </c>
       <c r="AA12">
         <f t="shared" si="12"/>
-        <v>292389.83682000003</v>
+        <v>321313.73242276639</v>
       </c>
       <c r="AB12">
         <f t="shared" si="13"/>
@@ -18048,27 +18048,27 @@
       </c>
       <c r="AC12">
         <f t="shared" si="14"/>
-        <v>1095.6511156047595</v>
+        <v>12247.064969411678</v>
       </c>
       <c r="AD12">
         <f t="shared" si="15"/>
-        <v>5756.4068328604808</v>
+        <v>16907.820686667401</v>
       </c>
       <c r="AE12">
         <f t="shared" si="16"/>
-        <v>126494.68552377028</v>
+        <v>137646.09937757719</v>
       </c>
       <c r="AF12">
         <f t="shared" si="17"/>
-        <v>-131.30184867578203</v>
+        <v>11020.112005131137</v>
       </c>
       <c r="AG12">
         <f t="shared" si="18"/>
-        <v>4063.1007056859785</v>
+        <v>15214.514559492896</v>
       </c>
       <c r="AH12">
         <f t="shared" si="19"/>
-        <v>112728.93948334675</v>
+        <v>123880.35333715366</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
@@ -18124,31 +18124,31 @@
       </c>
       <c r="U13">
         <f>OPEX!$B$3</f>
-        <v>28924.563180000001</v>
+        <v>0.66757723360328514</v>
       </c>
       <c r="V13">
         <f t="shared" si="8"/>
-        <v>13829.036819999998</v>
+        <v>42752.932422766396</v>
       </c>
       <c r="W13">
         <f t="shared" si="9"/>
-        <v>31490.636820000003</v>
+        <v>60414.532422766402</v>
       </c>
       <c r="X13">
         <f t="shared" si="1"/>
-        <v>339600.23681999999</v>
+        <v>368524.13242276636</v>
       </c>
       <c r="Y13">
         <f t="shared" si="10"/>
-        <v>9552.2368200000019</v>
+        <v>38476.132422766401</v>
       </c>
       <c r="Z13">
         <f t="shared" si="11"/>
-        <v>25442.636820000003</v>
+        <v>54366.532422766402</v>
       </c>
       <c r="AA13">
         <f t="shared" si="12"/>
-        <v>302743.43682</v>
+        <v>331667.33242276637</v>
       </c>
       <c r="AB13">
         <f t="shared" si="13"/>
@@ -18156,27 +18156,27 @@
       </c>
       <c r="AC13">
         <f t="shared" si="14"/>
-        <v>4846.993041113551</v>
+        <v>14984.641999119838</v>
       </c>
       <c r="AD13">
         <f t="shared" si="15"/>
-        <v>11037.276096194109</v>
+        <v>21174.925054200397</v>
       </c>
       <c r="AE13">
         <f t="shared" si="16"/>
-        <v>119027.81126784606</v>
+        <v>129165.46022585234</v>
       </c>
       <c r="AF13">
         <f t="shared" si="17"/>
-        <v>3348.000731811534</v>
+        <v>13485.649689817823</v>
       </c>
       <c r="AG13">
         <f t="shared" si="18"/>
-        <v>8917.4889921306494</v>
+        <v>19055.137950136937</v>
       </c>
       <c r="AH13">
         <f t="shared" si="19"/>
-        <v>106109.7277134403</v>
+        <v>116247.37667144657</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
@@ -18226,31 +18226,31 @@
       </c>
       <c r="U14">
         <f>OPEX!$B$3</f>
-        <v>28924.563180000001</v>
+        <v>0.66757723360328514</v>
       </c>
       <c r="V14">
         <f t="shared" si="8"/>
-        <v>28149.83682</v>
+        <v>57073.732422766399</v>
       </c>
       <c r="W14">
         <f t="shared" si="9"/>
-        <v>53148.236820000006</v>
+        <v>82072.132422766401</v>
       </c>
       <c r="X14">
         <f t="shared" si="1"/>
-        <v>340133.03682000004</v>
+        <v>369056.9324227664</v>
       </c>
       <c r="Y14">
         <f t="shared" si="10"/>
-        <v>22440.236820000002</v>
+        <v>51364.132422766401</v>
       </c>
       <c r="Z14">
         <f t="shared" si="11"/>
-        <v>44940.236820000006</v>
+        <v>73864.132422766401</v>
       </c>
       <c r="AA14">
         <f t="shared" si="12"/>
-        <v>303225.83682000003</v>
+        <v>332149.73242276639</v>
       </c>
       <c r="AB14">
         <f t="shared" si="13"/>
@@ -18258,27 +18258,27 @@
       </c>
       <c r="AC14">
         <f t="shared" si="14"/>
-        <v>8969.4055243697039</v>
+        <v>18185.450031648146</v>
       </c>
       <c r="AD14">
         <f t="shared" si="15"/>
-        <v>16934.666157820284</v>
+        <v>26150.710665098726</v>
       </c>
       <c r="AE14">
         <f t="shared" si="16"/>
-        <v>108376.86765226343</v>
+        <v>117592.91215954187</v>
       </c>
       <c r="AF14">
         <f t="shared" si="17"/>
-        <v>7150.1510075706519</v>
+        <v>16366.195514849096</v>
       </c>
       <c r="AG14">
         <f t="shared" si="18"/>
-        <v>14319.344406053677</v>
+        <v>23535.388913332117</v>
       </c>
       <c r="AH14">
         <f t="shared" si="19"/>
-        <v>96617.09633686376</v>
+        <v>105833.14084414218</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
@@ -18328,31 +18328,31 @@
       </c>
       <c r="U15">
         <f>OPEX!$B$3</f>
-        <v>28924.563180000001</v>
+        <v>0.66757723360328514</v>
       </c>
       <c r="V15">
         <f t="shared" si="8"/>
-        <v>46437.836820000011</v>
+        <v>75361.732422766407</v>
       </c>
       <c r="W15">
         <f t="shared" si="9"/>
-        <v>80515.436820000003</v>
+        <v>109439.3324227664</v>
       </c>
       <c r="X15">
         <f t="shared" si="1"/>
-        <v>340212.23681999999</v>
+        <v>369136.13242276636</v>
       </c>
       <c r="Y15">
         <f t="shared" si="10"/>
-        <v>38899.436820000003</v>
+        <v>67823.332422766398</v>
       </c>
       <c r="Z15">
         <f t="shared" si="11"/>
-        <v>69571.436820000003</v>
+        <v>98495.332422766398</v>
       </c>
       <c r="AA15">
         <f t="shared" si="12"/>
-        <v>303297.83682000003</v>
+        <v>332221.73242276639</v>
       </c>
       <c r="AB15">
         <f t="shared" si="13"/>
@@ -18360,27 +18360,27 @@
       </c>
       <c r="AC15">
         <f t="shared" si="14"/>
-        <v>13451.387198778826</v>
+        <v>21829.609478122864</v>
       </c>
       <c r="AD15">
         <f t="shared" si="15"/>
-        <v>23322.454065693775</v>
+        <v>31700.676345037813</v>
       </c>
       <c r="AE15">
         <f t="shared" si="16"/>
-        <v>98547.366557296438</v>
+        <v>106925.58883664047</v>
       </c>
       <c r="AF15">
         <f t="shared" si="17"/>
-        <v>11267.781238571775</v>
+        <v>19646.003517915815</v>
       </c>
       <c r="AG15">
         <f t="shared" si="18"/>
-        <v>20152.367093855464</v>
+        <v>28530.589373199502</v>
       </c>
       <c r="AH15">
         <f t="shared" si="19"/>
-        <v>87854.579777944455</v>
+        <v>96232.802057288485</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
@@ -18430,31 +18430,31 @@
       </c>
       <c r="U16">
         <f>OPEX!$B$3</f>
-        <v>28924.563180000001</v>
+        <v>0.66757723360328514</v>
       </c>
       <c r="V16">
         <f t="shared" si="8"/>
-        <v>69161.036820000008</v>
+        <v>98084.932422766404</v>
       </c>
       <c r="W16">
         <f t="shared" si="9"/>
-        <v>113527.43682</v>
+        <v>142451.3324227664</v>
       </c>
       <c r="X16">
         <f t="shared" si="1"/>
-        <v>340262.63682000001</v>
+        <v>369186.53242276638</v>
       </c>
       <c r="Y16">
         <f t="shared" si="10"/>
-        <v>59347.436820000003</v>
+        <v>88271.332422766398</v>
       </c>
       <c r="Z16">
         <f t="shared" si="11"/>
-        <v>99278.63682</v>
+        <v>128202.5324227664</v>
       </c>
       <c r="AA16">
         <f t="shared" si="12"/>
-        <v>303341.03682000004</v>
+        <v>332264.9324227664</v>
       </c>
       <c r="AB16">
         <f t="shared" si="13"/>
@@ -18462,27 +18462,27 @@
       </c>
       <c r="AC16">
         <f t="shared" si="14"/>
-        <v>18212.262574919565</v>
+        <v>25828.828283414146</v>
       </c>
       <c r="AD16">
         <f t="shared" si="15"/>
-        <v>29895.322335964822</v>
+        <v>37511.888044459396</v>
       </c>
       <c r="AE16">
         <f t="shared" si="16"/>
-        <v>89601.786947304674</v>
+        <v>97218.352655799245</v>
       </c>
       <c r="AF16">
         <f t="shared" si="17"/>
-        <v>15628.03497766142</v>
+        <v>23244.600686155998</v>
       </c>
       <c r="AG16">
         <f t="shared" si="18"/>
-        <v>26143.167959608352</v>
+        <v>33759.733668102926</v>
       </c>
       <c r="AH16">
         <f t="shared" si="19"/>
-        <v>79879.175708317329</v>
+        <v>87495.741416811899</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.3">
@@ -18532,31 +18532,31 @@
       </c>
       <c r="U17">
         <f>OPEX!$B$3</f>
-        <v>28924.563180000001</v>
+        <v>0.66757723360328514</v>
       </c>
       <c r="V17">
         <f t="shared" si="8"/>
-        <v>96456.236820000006</v>
+        <v>125380.1324227664</v>
       </c>
       <c r="W17">
         <f t="shared" si="9"/>
-        <v>151046.63682000001</v>
+        <v>179970.53242276641</v>
       </c>
       <c r="X17">
         <f t="shared" si="1"/>
-        <v>340291.43682</v>
+        <v>369215.33242276637</v>
       </c>
       <c r="Y17">
         <f t="shared" si="10"/>
-        <v>83913.836820000011</v>
+        <v>112837.73242276641</v>
       </c>
       <c r="Z17">
         <f t="shared" si="11"/>
-        <v>133046.63682000001</v>
+        <v>161970.53242276641</v>
       </c>
       <c r="AA17">
         <f t="shared" si="12"/>
-        <v>303369.83682000003</v>
+        <v>332293.73242276639</v>
       </c>
       <c r="AB17">
         <f t="shared" si="13"/>
@@ -18564,27 +18564,27 @@
       </c>
       <c r="AC17">
         <f t="shared" si="14"/>
-        <v>23090.856206777156</v>
+        <v>30015.006850863138</v>
       </c>
       <c r="AD17">
         <f t="shared" si="15"/>
-        <v>36159.363938659539</v>
+        <v>43083.51458274552</v>
       </c>
       <c r="AE17">
         <f t="shared" si="16"/>
-        <v>81463.064443116979</v>
+        <v>88387.21508720296</v>
       </c>
       <c r="AF17">
         <f t="shared" si="17"/>
-        <v>20088.305366769364</v>
+        <v>27012.456010855345</v>
       </c>
       <c r="AG17">
         <f t="shared" si="18"/>
-        <v>31850.307050014595</v>
+        <v>38774.457694100573</v>
       </c>
       <c r="AH17">
         <f t="shared" si="19"/>
-        <v>72624.32695312849</v>
+        <v>79548.477597214456</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
@@ -18634,31 +18634,31 @@
       </c>
       <c r="U18">
         <f>OPEX!$B$3</f>
-        <v>28924.563180000001</v>
+        <v>0.66757723360328514</v>
       </c>
       <c r="V18">
         <f t="shared" si="8"/>
-        <v>127841.03682000001</v>
+        <v>156764.9324227664</v>
       </c>
       <c r="W18">
         <f t="shared" si="9"/>
-        <v>190603.43682</v>
+        <v>219527.3324227664</v>
       </c>
       <c r="X18">
         <f t="shared" si="1"/>
-        <v>340305.83682000003</v>
+        <v>369229.73242276639</v>
       </c>
       <c r="Y18">
         <f t="shared" si="10"/>
-        <v>112159.43682</v>
+        <v>141083.3324227664</v>
       </c>
       <c r="Z18">
         <f t="shared" si="11"/>
-        <v>168650.63682000001</v>
+        <v>197574.53242276641</v>
       </c>
       <c r="AA18">
         <f t="shared" si="12"/>
-        <v>303377.03682000004</v>
+        <v>332300.9324227664</v>
       </c>
       <c r="AB18">
         <f t="shared" si="13"/>
@@ -18666,27 +18666,27 @@
       </c>
       <c r="AC18">
         <f t="shared" si="14"/>
-        <v>27821.934361653159</v>
+        <v>34116.616765367689</v>
       </c>
       <c r="AD18">
         <f t="shared" si="15"/>
-        <v>41480.861233768774</v>
+        <v>47775.543637483308</v>
       </c>
       <c r="AE18">
         <f t="shared" si="16"/>
-        <v>74060.465171479911</v>
+        <v>80355.147575194438</v>
       </c>
       <c r="AF18">
         <f t="shared" si="17"/>
-        <v>24409.161305846366</v>
+        <v>30703.843709560893</v>
       </c>
       <c r="AG18">
         <f t="shared" si="18"/>
-        <v>36703.29234159481</v>
+        <v>42997.974745309337</v>
       </c>
       <c r="AH18">
         <f t="shared" si="19"/>
-        <v>66023.682341712672</v>
+        <v>72318.3647454272</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
@@ -18736,31 +18736,31 @@
       </c>
       <c r="U19">
         <f>OPEX!$B$3</f>
-        <v>28924.563180000001</v>
+        <v>0.66757723360328514</v>
       </c>
       <c r="V19">
         <f t="shared" si="8"/>
-        <v>162026.63682000001</v>
+        <v>190950.53242276641</v>
       </c>
       <c r="W19">
         <f t="shared" si="9"/>
-        <v>228777.83682</v>
+        <v>257701.73242276639</v>
       </c>
       <c r="X19">
         <f t="shared" si="1"/>
-        <v>340313.03682000004</v>
+        <v>369236.9324227664</v>
       </c>
       <c r="Y19">
         <f t="shared" si="10"/>
-        <v>142925.03682000001</v>
+        <v>171848.9324227664</v>
       </c>
       <c r="Z19">
         <f t="shared" si="11"/>
-        <v>203001.83682</v>
+        <v>231925.73242276639</v>
       </c>
       <c r="AA19">
         <f t="shared" si="12"/>
-        <v>303384.23681999999</v>
+        <v>332308.13242276636</v>
       </c>
       <c r="AB19">
         <f t="shared" si="13"/>
@@ -18768,27 +18768,27 @@
       </c>
       <c r="AC19">
         <f t="shared" si="14"/>
-        <v>32056.106314655328</v>
+        <v>37778.544863486721</v>
       </c>
       <c r="AD19">
         <f t="shared" si="15"/>
-        <v>45262.475377342016</v>
+        <v>50984.913926173409</v>
       </c>
       <c r="AE19">
         <f t="shared" si="16"/>
-        <v>67329.12009205237</v>
+        <v>73051.558640883755</v>
       </c>
       <c r="AF19">
         <f t="shared" si="17"/>
-        <v>28276.956587192508</v>
+        <v>33999.395136023901</v>
       </c>
       <c r="AG19">
         <f t="shared" si="18"/>
-        <v>40162.831191772137</v>
+        <v>45885.269740603529</v>
       </c>
       <c r="AH19">
         <f t="shared" si="19"/>
-        <v>60022.953883173053</v>
+        <v>65745.392432004432</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
@@ -18838,31 +18838,31 @@
       </c>
       <c r="U20">
         <f>OPEX!$B$3</f>
-        <v>28924.563180000001</v>
+        <v>0.66757723360328514</v>
       </c>
       <c r="V20">
         <f t="shared" si="8"/>
-        <v>196968.23682000002</v>
+        <v>225892.13242276642</v>
       </c>
       <c r="W20">
         <f t="shared" si="9"/>
-        <v>262164.23681999999</v>
+        <v>291088.13242276636</v>
       </c>
       <c r="X20">
         <f t="shared" si="1"/>
-        <v>340320.23681999999</v>
+        <v>369244.13242276636</v>
       </c>
       <c r="Y20">
         <f t="shared" si="10"/>
-        <v>174374.63682000001</v>
+        <v>203298.53242276641</v>
       </c>
       <c r="Z20">
         <f t="shared" si="11"/>
-        <v>233054.63682000001</v>
+        <v>261978.53242276641</v>
       </c>
       <c r="AA20">
         <f t="shared" si="12"/>
-        <v>303391.43682</v>
+        <v>332315.33242276637</v>
       </c>
       <c r="AB20">
         <f t="shared" si="13"/>
@@ -18870,27 +18870,27 @@
       </c>
       <c r="AC20">
         <f t="shared" si="14"/>
-        <v>35426.468724996623</v>
+        <v>40628.68558757061</v>
       </c>
       <c r="AD20">
         <f t="shared" si="15"/>
-        <v>47152.542391917712</v>
+        <v>52354.759254491692</v>
       </c>
       <c r="AE20">
         <f t="shared" si="16"/>
-        <v>61209.585976062212</v>
+        <v>66411.802838636198</v>
       </c>
       <c r="AF20">
         <f t="shared" si="17"/>
-        <v>31362.811169303812</v>
+        <v>36565.028031877802</v>
       </c>
       <c r="AG20">
         <f t="shared" si="18"/>
-        <v>41916.924961176468</v>
+        <v>47119.141823750455</v>
       </c>
       <c r="AH20">
         <f t="shared" si="19"/>
-        <v>54567.616695262841</v>
+        <v>59769.833557836828</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.3">
@@ -18940,31 +18940,31 @@
       </c>
       <c r="U21">
         <f>OPEX!$B$3</f>
-        <v>28924.563180000001</v>
+        <v>0.66757723360328514</v>
       </c>
       <c r="V21">
         <f t="shared" si="8"/>
-        <v>230203.43682</v>
+        <v>259127.3324227664</v>
       </c>
       <c r="W21">
         <f t="shared" si="9"/>
-        <v>288588.23681999999</v>
+        <v>317512.13242276636</v>
       </c>
       <c r="X21">
         <f t="shared" si="1"/>
-        <v>340327.43682</v>
+        <v>369251.33242276637</v>
       </c>
       <c r="Y21">
         <f t="shared" si="10"/>
-        <v>204290.63682000001</v>
+        <v>233214.53242276641</v>
       </c>
       <c r="Z21">
         <f t="shared" si="11"/>
-        <v>256836.23681999999</v>
+        <v>285760.13242276636</v>
       </c>
       <c r="AA21">
         <f t="shared" si="12"/>
-        <v>303398.63682000001</v>
+        <v>332322.53242276638</v>
       </c>
       <c r="AB21">
         <f t="shared" si="13"/>
@@ -18972,27 +18972,27 @@
       </c>
       <c r="AC21">
         <f t="shared" si="14"/>
-        <v>37640.101435806639</v>
+        <v>42369.389492692084</v>
       </c>
       <c r="AD21">
         <f t="shared" si="15"/>
-        <v>47186.48277861705</v>
+        <v>51915.770835502488</v>
       </c>
       <c r="AE21">
         <f t="shared" si="16"/>
-        <v>55646.255417590495</v>
+        <v>60375.543474475933</v>
       </c>
       <c r="AF21">
         <f t="shared" si="17"/>
-        <v>33403.151571116214</v>
+        <v>38132.439628001659</v>
       </c>
       <c r="AG21">
         <f t="shared" si="18"/>
-        <v>41994.77705389219</v>
+        <v>46724.065110777628</v>
       </c>
       <c r="AH21">
         <f t="shared" si="19"/>
-        <v>49608.101525954706</v>
+        <v>54337.389582840144</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.3">
@@ -19042,31 +19042,31 @@
       </c>
       <c r="U22">
         <f>OPEX!$B$3</f>
-        <v>28924.563180000001</v>
+        <v>0.66757723360328514</v>
       </c>
       <c r="V22">
         <f t="shared" si="8"/>
-        <v>259493.03682000004</v>
+        <v>288416.9324227664</v>
       </c>
       <c r="W22">
         <f t="shared" si="9"/>
-        <v>307668.23681999999</v>
+        <v>336592.13242276636</v>
       </c>
       <c r="X22">
         <f t="shared" si="1"/>
-        <v>340327.43682</v>
+        <v>369251.33242276637</v>
       </c>
       <c r="Y22">
         <f t="shared" si="10"/>
-        <v>230649.83682</v>
+        <v>259573.73242276639</v>
       </c>
       <c r="Z22">
         <f t="shared" si="11"/>
-        <v>274008.23681999999</v>
+        <v>302932.13242276636</v>
       </c>
       <c r="AA22">
         <f t="shared" si="12"/>
-        <v>303398.63682000001</v>
+        <v>332322.53242276638</v>
       </c>
       <c r="AB22">
         <f t="shared" si="13"/>
@@ -19074,27 +19074,27 @@
       </c>
       <c r="AC22">
         <f t="shared" si="14"/>
-        <v>38571.986439927459</v>
+        <v>42871.339218914218</v>
       </c>
       <c r="AD22">
         <f t="shared" si="15"/>
-        <v>45732.922948716165</v>
+        <v>50032.27572770293</v>
       </c>
       <c r="AE22">
         <f t="shared" si="16"/>
-        <v>50587.504925082278</v>
+        <v>54886.857704069036</v>
       </c>
       <c r="AF22">
         <f t="shared" si="17"/>
-        <v>34284.628548101478</v>
+        <v>38583.981327088244</v>
       </c>
       <c r="AG22">
         <f t="shared" si="18"/>
-        <v>40729.578429423498</v>
+        <v>45028.931208410264</v>
       </c>
       <c r="AH22">
         <f t="shared" si="19"/>
-        <v>45098.274114504289</v>
+        <v>49397.626893491048</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.3">
@@ -19221,7 +19221,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2021</v>
       </c>
@@ -19250,7 +19250,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2022</v>
       </c>
@@ -19279,7 +19279,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2023</v>
       </c>
@@ -19308,7 +19308,7 @@
         <v>4804</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2024</v>
       </c>
@@ -19337,7 +19337,7 @@
         <v>9052</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2025</v>
       </c>
@@ -19366,7 +19366,7 @@
         <v>16265</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2026</v>
       </c>
@@ -19395,7 +19395,7 @@
         <v>26730</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2027</v>
       </c>
@@ -19424,7 +19424,7 @@
         <v>37913</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2028</v>
       </c>
@@ -19453,7 +19453,7 @@
         <v>44627</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2029</v>
       </c>
@@ -19482,7 +19482,7 @@
         <v>46065</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2030</v>
       </c>
@@ -19511,7 +19511,7 @@
         <v>46132</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2031</v>
       </c>
@@ -19540,7 +19540,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2032</v>
       </c>
@@ -19569,7 +19569,7 @@
         <v>46148</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2033</v>
       </c>
@@ -19598,7 +19598,7 @@
         <v>46152</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2034</v>
       </c>
@@ -19627,7 +19627,7 @@
         <v>46153</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2035</v>
       </c>
@@ -19656,7 +19656,7 @@
         <v>46154</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2036</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>46155</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2037</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>46156</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2038</v>
       </c>
